--- a/artfynd/A 62205-2025 artfynd.xlsx
+++ b/artfynd/A 62205-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131024454</v>
+        <v>131025505</v>
       </c>
       <c r="B2" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>464321</v>
+        <v>464214</v>
       </c>
       <c r="R2" t="n">
-        <v>7042482</v>
+        <v>7042578</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -770,22 +770,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131025505</v>
+        <v>131025514</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>464214</v>
+        <v>464434</v>
       </c>
       <c r="R3" t="n">
-        <v>7042578</v>
+        <v>7042377</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På flera granar vid en lucka.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131025514</v>
+        <v>131024454</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,34 +895,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>464434</v>
+        <v>464321</v>
       </c>
       <c r="R4" t="n">
-        <v>7042377</v>
+        <v>7042482</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På flera granar vid en lucka.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -974,12 +974,12 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -989,7 +989,7 @@
         <v>131024469</v>
       </c>
       <c r="B5" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>131025467</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>131025513</v>
       </c>
       <c r="B7" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>131025526</v>
       </c>
       <c r="B8" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131025488</v>
+        <v>131025506</v>
       </c>
       <c r="B9" t="n">
-        <v>57877</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1438,42 +1438,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>463958</v>
+        <v>464253</v>
       </c>
       <c r="R9" t="n">
-        <v>7042484</v>
+        <v>7042536</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1510,7 +1502,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Hackspår i stambasen av en levande gran.</t>
+          <t>På en tydligt gammal gran.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1521,31 +1513,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1562,10 +1529,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131024467</v>
+        <v>131025494</v>
       </c>
       <c r="B10" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1573,34 +1540,30 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>464322</v>
+        <v>464471</v>
       </c>
       <c r="R10" t="n">
-        <v>7042355</v>
+        <v>7042462</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1637,7 +1600,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>I granstubbe.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1652,22 +1615,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131025463</v>
+        <v>131025502</v>
       </c>
       <c r="B11" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1675,42 +1638,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>464211</v>
+        <v>464177</v>
       </c>
       <c r="R11" t="n">
-        <v>7042581</v>
+        <v>7042606</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1747,7 +1702,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1758,31 +1713,6 @@
       </c>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM11" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1799,10 +1729,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131025506</v>
+        <v>131025519</v>
       </c>
       <c r="B12" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1834,10 +1764,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>464253</v>
+        <v>464076</v>
       </c>
       <c r="R12" t="n">
-        <v>7042536</v>
+        <v>7042281</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1874,7 +1804,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1901,10 +1831,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131025502</v>
+        <v>131025512</v>
       </c>
       <c r="B13" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1936,10 +1866,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>464177</v>
+        <v>464451</v>
       </c>
       <c r="R13" t="n">
-        <v>7042606</v>
+        <v>7042487</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2003,10 +1933,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131025519</v>
+        <v>131025518</v>
       </c>
       <c r="B14" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2038,10 +1968,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>464076</v>
+        <v>464161</v>
       </c>
       <c r="R14" t="n">
-        <v>7042281</v>
+        <v>7042247</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2078,7 +2008,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2105,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131025512</v>
+        <v>131024467</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2116,34 +2046,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>464451</v>
+        <v>464322</v>
       </c>
       <c r="R15" t="n">
-        <v>7042487</v>
+        <v>7042355</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2180,7 +2110,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2195,22 +2125,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131025518</v>
+        <v>131025488</v>
       </c>
       <c r="B16" t="n">
-        <v>79239</v>
+        <v>57881</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2218,34 +2148,42 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>464161</v>
+        <v>463958</v>
       </c>
       <c r="R16" t="n">
-        <v>7042247</v>
+        <v>7042484</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2282,7 +2220,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Hackspår i stambasen av en levande gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2293,6 +2231,31 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2309,10 +2272,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131025494</v>
+        <v>131025463</v>
       </c>
       <c r="B17" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2320,30 +2283,42 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>464471</v>
+        <v>464211</v>
       </c>
       <c r="R17" t="n">
-        <v>7042462</v>
+        <v>7042581</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2380,7 +2355,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>I granstubbe.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2391,6 +2366,31 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2407,10 +2407,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131025468</v>
+        <v>131025510</v>
       </c>
       <c r="B18" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2418,42 +2418,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>464445</v>
+        <v>464463</v>
       </c>
       <c r="R18" t="n">
-        <v>7042578</v>
+        <v>7042542</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2490,7 +2482,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2501,31 +2493,6 @@
       </c>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM18" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2542,10 +2509,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131025510</v>
+        <v>131024468</v>
       </c>
       <c r="B19" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2553,34 +2520,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>464463</v>
+        <v>464332</v>
       </c>
       <c r="R19" t="n">
-        <v>7042542</v>
+        <v>7042344</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2617,7 +2584,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2632,22 +2599,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131025525</v>
+        <v>131024458</v>
       </c>
       <c r="B20" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2655,34 +2622,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>464067</v>
+        <v>464405</v>
       </c>
       <c r="R20" t="n">
-        <v>7042585</v>
+        <v>7042391</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2719,7 +2686,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2734,22 +2701,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131024468</v>
+        <v>131024464</v>
       </c>
       <c r="B21" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2781,10 +2748,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>464332</v>
+        <v>464337</v>
       </c>
       <c r="R21" t="n">
-        <v>7042344</v>
+        <v>7042380</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2848,10 +2815,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131024458</v>
+        <v>131025468</v>
       </c>
       <c r="B22" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2877,16 +2844,24 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>464405</v>
+        <v>464445</v>
       </c>
       <c r="R22" t="n">
-        <v>7042391</v>
+        <v>7042578</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2923,7 +2898,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2934,26 +2909,51 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AH22" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131024464</v>
+        <v>131025525</v>
       </c>
       <c r="B23" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2961,34 +2961,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>464337</v>
+        <v>464067</v>
       </c>
       <c r="R23" t="n">
-        <v>7042380</v>
+        <v>7042585</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3040,22 +3040,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131024449</v>
+        <v>131025528</v>
       </c>
       <c r="B24" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,34 +3063,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>464183</v>
+        <v>464199</v>
       </c>
       <c r="R24" t="n">
-        <v>7042531</v>
+        <v>7042793</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3142,22 +3142,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131024474</v>
+        <v>131024476</v>
       </c>
       <c r="B25" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3189,10 +3189,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>464280</v>
+        <v>464255</v>
       </c>
       <c r="R25" t="n">
-        <v>7042322</v>
+        <v>7042273</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3256,10 +3256,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131025485</v>
+        <v>131024449</v>
       </c>
       <c r="B26" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3285,24 +3285,16 @@
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>464186</v>
+        <v>464183</v>
       </c>
       <c r="R26" t="n">
-        <v>7042779</v>
+        <v>7042531</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3339,7 +3331,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3350,51 +3342,26 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
-      </c>
-      <c r="AH26" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK26" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM26" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO26" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131024476</v>
+        <v>131024474</v>
       </c>
       <c r="B27" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3426,10 +3393,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>464255</v>
+        <v>464280</v>
       </c>
       <c r="R27" t="n">
-        <v>7042273</v>
+        <v>7042322</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3496,7 +3463,7 @@
         <v>131025474</v>
       </c>
       <c r="B28" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3631,7 +3598,7 @@
         <v>131025470</v>
       </c>
       <c r="B29" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3763,10 +3730,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131025528</v>
+        <v>131025485</v>
       </c>
       <c r="B30" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3774,34 +3741,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>464199</v>
+        <v>464186</v>
       </c>
       <c r="R30" t="n">
-        <v>7042793</v>
+        <v>7042779</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3838,7 +3813,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3849,6 +3824,31 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -3865,10 +3865,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131024465</v>
+        <v>131025509</v>
       </c>
       <c r="B31" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3876,34 +3876,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>464328</v>
+        <v>464380</v>
       </c>
       <c r="R31" t="n">
-        <v>7042367</v>
+        <v>7042615</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På en gammal gran.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3955,22 +3955,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131024446</v>
+        <v>131025522</v>
       </c>
       <c r="B32" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3978,42 +3978,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>463828</v>
+        <v>463978</v>
       </c>
       <c r="R32" t="n">
-        <v>7042514</v>
+        <v>7042528</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4050,14 +4042,14 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Gammalt bohål i grantickerötad gran</t>
+          <t>På en stående död gran med full längd (36 cm bhd).</t>
         </is>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="b">
         <v>0</v>
@@ -4065,22 +4057,22 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131025464</v>
+        <v>131024446</v>
       </c>
       <c r="B33" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4110,20 +4102,20 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>464210</v>
+        <v>463828</v>
       </c>
       <c r="R33" t="n">
-        <v>7042574</v>
+        <v>7042514</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4160,62 +4152,37 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Gammalt bohål i grantickerötad gran</t>
         </is>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131025509</v>
+        <v>131024465</v>
       </c>
       <c r="B34" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4223,34 +4190,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>464380</v>
+        <v>464328</v>
       </c>
       <c r="R34" t="n">
-        <v>7042615</v>
+        <v>7042367</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4287,7 +4254,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>På en gammal gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4302,22 +4269,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131025522</v>
+        <v>131025464</v>
       </c>
       <c r="B35" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4325,34 +4292,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>463978</v>
+        <v>464210</v>
       </c>
       <c r="R35" t="n">
-        <v>7042528</v>
+        <v>7042574</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4389,7 +4364,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>På en stående död gran med full längd (36 cm bhd).</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4400,6 +4375,31 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4419,7 +4419,7 @@
         <v>131025465</v>
       </c>
       <c r="B36" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131024448</v>
+        <v>131025472</v>
       </c>
       <c r="B37" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4580,16 +4580,24 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>464165</v>
+        <v>464419</v>
       </c>
       <c r="R37" t="n">
-        <v>7042546</v>
+        <v>7042316</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4626,7 +4634,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4637,26 +4645,51 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131024478</v>
+        <v>131025489</v>
       </c>
       <c r="B38" t="n">
-        <v>57880</v>
+        <v>80349</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4664,34 +4697,41 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>464232</v>
+        <v>464035</v>
       </c>
       <c r="R38" t="n">
-        <v>7042762</v>
+        <v>7042354</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4728,7 +4768,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Växer på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4737,28 +4777,54 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131025472</v>
+        <v>131025517</v>
       </c>
       <c r="B39" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4766,42 +4832,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>464419</v>
+        <v>464199</v>
       </c>
       <c r="R39" t="n">
-        <v>7042316</v>
+        <v>7042210</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4838,7 +4896,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4849,31 +4907,6 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -4890,10 +4923,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131025517</v>
+        <v>131025527</v>
       </c>
       <c r="B40" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4925,10 +4958,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>464199</v>
+        <v>464174</v>
       </c>
       <c r="R40" t="n">
-        <v>7042210</v>
+        <v>7042780</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4965,7 +4998,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4992,10 +5025,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131025527</v>
+        <v>131024448</v>
       </c>
       <c r="B41" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5003,34 +5036,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>464174</v>
+        <v>464165</v>
       </c>
       <c r="R41" t="n">
-        <v>7042780</v>
+        <v>7042546</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5067,7 +5100,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5082,22 +5115,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131025489</v>
+        <v>131024478</v>
       </c>
       <c r="B42" t="n">
-        <v>80345</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5105,41 +5138,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>464035</v>
+        <v>464232</v>
       </c>
       <c r="R42" t="n">
-        <v>7042354</v>
+        <v>7042762</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5176,7 +5202,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Växer på en grov gammal sälg.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5185,54 +5211,28 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131025466</v>
+        <v>131024462</v>
       </c>
       <c r="B43" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -5258,24 +5258,16 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>464389</v>
+        <v>464376</v>
       </c>
       <c r="R43" t="n">
-        <v>7042585</v>
+        <v>7042402</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5312,7 +5304,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en stående död gran med 20 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5323,51 +5315,26 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131024462</v>
+        <v>131024457</v>
       </c>
       <c r="B44" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -5399,10 +5366,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>464376</v>
+        <v>464399</v>
       </c>
       <c r="R44" t="n">
-        <v>7042402</v>
+        <v>7042460</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5439,7 +5406,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5466,10 +5433,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131024457</v>
+        <v>131025466</v>
       </c>
       <c r="B45" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5495,16 +5462,24 @@
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>464399</v>
+        <v>464389</v>
       </c>
       <c r="R45" t="n">
-        <v>7042460</v>
+        <v>7042585</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5541,7 +5516,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, äldre, på en stående död gran med 20 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5552,16 +5527,41 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
@@ -5571,7 +5571,7 @@
         <v>131024459</v>
       </c>
       <c r="B46" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5673,7 +5673,7 @@
         <v>131025478</v>
       </c>
       <c r="B47" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>131025471</v>
       </c>
       <c r="B48" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5948,7 +5948,7 @@
         <v>131025482</v>
       </c>
       <c r="B49" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -6080,10 +6080,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131025524</v>
+        <v>131024506</v>
       </c>
       <c r="B50" t="n">
-        <v>79239</v>
+        <v>91828</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6091,34 +6091,30 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>464041</v>
+        <v>464426</v>
       </c>
       <c r="R50" t="n">
-        <v>7042631</v>
+        <v>7042565</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6153,11 +6149,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>På gamgran.</t>
-        </is>
-      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
@@ -6170,22 +6161,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131025511</v>
+        <v>131025495</v>
       </c>
       <c r="B51" t="n">
-        <v>79239</v>
+        <v>91828</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6193,23 +6184,19 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
@@ -6217,10 +6204,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>464483</v>
+        <v>463986</v>
       </c>
       <c r="R51" t="n">
-        <v>7042518</v>
+        <v>7042522</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6257,7 +6244,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>I stående död klen gran.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6284,10 +6271,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131025495</v>
+        <v>131025524</v>
       </c>
       <c r="B52" t="n">
-        <v>91824</v>
+        <v>79243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6295,19 +6282,23 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
@@ -6315,10 +6306,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>463986</v>
+        <v>464041</v>
       </c>
       <c r="R52" t="n">
-        <v>7042522</v>
+        <v>7042631</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6355,7 +6346,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>I stående död klen gran.</t>
+          <t>På gamgran.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6382,10 +6373,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131024506</v>
+        <v>131025511</v>
       </c>
       <c r="B53" t="n">
-        <v>91824</v>
+        <v>79243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6393,30 +6384,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>464426</v>
+        <v>464483</v>
       </c>
       <c r="R53" t="n">
-        <v>7042565</v>
+        <v>7042518</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6451,6 +6446,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
@@ -6463,22 +6463,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131024507</v>
+        <v>131024511</v>
       </c>
       <c r="B54" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6506,10 +6506,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>464395</v>
+        <v>463866</v>
       </c>
       <c r="R54" t="n">
-        <v>7042406</v>
+        <v>7042468</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6571,7 +6571,7 @@
         <v>131024510</v>
       </c>
       <c r="B55" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6661,10 +6661,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131024511</v>
+        <v>131024507</v>
       </c>
       <c r="B56" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6692,10 +6692,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>463866</v>
+        <v>464395</v>
       </c>
       <c r="R56" t="n">
-        <v>7042468</v>
+        <v>7042406</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6757,7 +6757,7 @@
         <v>131024463</v>
       </c>
       <c r="B57" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>131025483</v>
       </c>
       <c r="B58" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>131025469</v>
       </c>
       <c r="B59" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7126,10 +7126,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131025504</v>
+        <v>131024501</v>
       </c>
       <c r="B60" t="n">
-        <v>79239</v>
+        <v>91804</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7137,34 +7137,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>464204</v>
+        <v>464070</v>
       </c>
       <c r="R60" t="n">
-        <v>7042559</v>
+        <v>7042517</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7199,11 +7199,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>På gran.</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
@@ -7216,22 +7211,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131024501</v>
+        <v>131025504</v>
       </c>
       <c r="B61" t="n">
-        <v>91800</v>
+        <v>79243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7239,34 +7234,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>464070</v>
+        <v>464204</v>
       </c>
       <c r="R61" t="n">
-        <v>7042517</v>
+        <v>7042559</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7301,6 +7296,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>På gran.</t>
+        </is>
+      </c>
       <c r="AD61" t="b">
         <v>0</v>
       </c>
@@ -7313,22 +7313,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131024460</v>
+        <v>131025508</v>
       </c>
       <c r="B62" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7336,34 +7336,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>464385</v>
+        <v>464310</v>
       </c>
       <c r="R62" t="n">
-        <v>7042401</v>
+        <v>7042565</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7415,22 +7415,22 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131024450</v>
+        <v>131024460</v>
       </c>
       <c r="B63" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7462,10 +7462,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>464273</v>
+        <v>464385</v>
       </c>
       <c r="R63" t="n">
-        <v>7042500</v>
+        <v>7042401</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7529,10 +7529,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131025508</v>
+        <v>131024450</v>
       </c>
       <c r="B64" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7540,34 +7540,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>464310</v>
+        <v>464273</v>
       </c>
       <c r="R64" t="n">
-        <v>7042565</v>
+        <v>7042500</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7619,22 +7619,22 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131024456</v>
+        <v>131024509</v>
       </c>
       <c r="B65" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7642,23 +7642,19 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -7666,10 +7662,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>464439</v>
+        <v>464214</v>
       </c>
       <c r="R65" t="n">
-        <v>7042505</v>
+        <v>7042282</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7702,11 +7698,6 @@
       <c r="AA65" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7733,10 +7724,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131024509</v>
+        <v>131024456</v>
       </c>
       <c r="B66" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7744,19 +7735,23 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -7764,10 +7759,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>464214</v>
+        <v>464439</v>
       </c>
       <c r="R66" t="n">
-        <v>7042282</v>
+        <v>7042505</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7800,6 +7795,11 @@
       <c r="AA66" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7829,7 +7829,7 @@
         <v>131024494</v>
       </c>
       <c r="B67" t="n">
-        <v>57984</v>
+        <v>57988</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7935,10 +7935,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131025479</v>
+        <v>131025516</v>
       </c>
       <c r="B68" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7946,42 +7946,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>464380</v>
+        <v>464319</v>
       </c>
       <c r="R68" t="n">
-        <v>7042291</v>
+        <v>7042262</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8018,7 +8010,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD 20 cm).</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8029,31 +8021,6 @@
       </c>
       <c r="AG68" t="b">
         <v>0</v>
-      </c>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ68" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK68" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM68" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -8070,10 +8037,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131025516</v>
+        <v>131025479</v>
       </c>
       <c r="B69" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8081,34 +8048,42 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>464319</v>
+        <v>464380</v>
       </c>
       <c r="R69" t="n">
-        <v>7042262</v>
+        <v>7042291</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8145,7 +8120,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD 20 cm).</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8156,6 +8131,31 @@
       </c>
       <c r="AG69" t="b">
         <v>0</v>
+      </c>
+      <c r="AH69" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM69" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
@@ -8175,7 +8175,7 @@
         <v>131024472</v>
       </c>
       <c r="B70" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         <v>131024477</v>
       </c>
       <c r="B71" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         <v>131025481</v>
       </c>
       <c r="B72" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8514,7 +8514,7 @@
         <v>131024453</v>
       </c>
       <c r="B73" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8616,7 +8616,7 @@
         <v>131024451</v>
       </c>
       <c r="B74" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8718,7 +8718,7 @@
         <v>131025480</v>
       </c>
       <c r="B75" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>131025521</v>
       </c>
       <c r="B76" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8952,10 +8952,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131024470</v>
+        <v>131025492</v>
       </c>
       <c r="B77" t="n">
-        <v>57880</v>
+        <v>91804</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8963,34 +8963,41 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>464325</v>
+        <v>464400</v>
       </c>
       <c r="R77" t="n">
-        <v>7042334</v>
+        <v>7042294</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9027,7 +9034,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9036,18 +9043,44 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
+      </c>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
@@ -9057,7 +9090,7 @@
         <v>131025523</v>
       </c>
       <c r="B78" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9159,7 +9192,7 @@
         <v>131025503</v>
       </c>
       <c r="B79" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9258,10 +9291,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131025492</v>
+        <v>131024470</v>
       </c>
       <c r="B80" t="n">
-        <v>91800</v>
+        <v>57884</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9269,41 +9302,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>464400</v>
+        <v>464325</v>
       </c>
       <c r="R80" t="n">
-        <v>7042294</v>
+        <v>7042334</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9340,7 +9366,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9349,44 +9375,18 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
-      </c>
-      <c r="AH80" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ80" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK80" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM80" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO80" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
         <v>131025490</v>
       </c>
       <c r="B81" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9531,7 +9531,7 @@
         <v>131024461</v>
       </c>
       <c r="B82" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9630,10 +9630,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131025520</v>
+        <v>131025475</v>
       </c>
       <c r="B83" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9641,34 +9641,42 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>464027</v>
+        <v>464393</v>
       </c>
       <c r="R83" t="n">
-        <v>7042318</v>
+        <v>7042284</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9705,7 +9713,7 @@
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9716,6 +9724,31 @@
       </c>
       <c r="AG83" t="b">
         <v>0</v>
+      </c>
+      <c r="AH83" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ83" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM83" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO83" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
@@ -9732,10 +9765,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131024508</v>
+        <v>131025477</v>
       </c>
       <c r="B84" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9743,30 +9776,42 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>464083</v>
+        <v>464374</v>
       </c>
       <c r="R84" t="n">
-        <v>7042298</v>
+        <v>7042300</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9801,6 +9846,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran.</t>
+        </is>
+      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
@@ -9809,26 +9859,51 @@
       </c>
       <c r="AG84" t="b">
         <v>0</v>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM84" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO84" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131024505</v>
+        <v>131024473</v>
       </c>
       <c r="B85" t="n">
-        <v>91824</v>
+        <v>57884</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9836,19 +9911,23 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
@@ -9856,10 +9935,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>464276</v>
+        <v>464305</v>
       </c>
       <c r="R85" t="n">
-        <v>7042457</v>
+        <v>7042334</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9892,6 +9971,11 @@
       <c r="AA85" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9918,10 +10002,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131025475</v>
+        <v>131025520</v>
       </c>
       <c r="B86" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9929,42 +10013,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>464393</v>
+        <v>464027</v>
       </c>
       <c r="R86" t="n">
-        <v>7042284</v>
+        <v>7042318</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10001,7 +10077,7 @@
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10012,31 +10088,6 @@
       </c>
       <c r="AG86" t="b">
         <v>0</v>
-      </c>
-      <c r="AH86" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ86" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK86" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM86" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO86" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
@@ -10053,10 +10104,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131024473</v>
+        <v>131024505</v>
       </c>
       <c r="B87" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -10064,23 +10115,19 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
@@ -10088,10 +10135,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>464305</v>
+        <v>464276</v>
       </c>
       <c r="R87" t="n">
-        <v>7042334</v>
+        <v>7042457</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10124,11 +10171,6 @@
       <c r="AA87" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10155,10 +10197,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131025477</v>
+        <v>131024508</v>
       </c>
       <c r="B88" t="n">
-        <v>57880</v>
+        <v>91828</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -10166,42 +10208,30 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>464374</v>
+        <v>464083</v>
       </c>
       <c r="R88" t="n">
-        <v>7042300</v>
+        <v>7042298</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10236,11 +10266,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD88" t="b">
         <v>0</v>
       </c>
@@ -10249,51 +10274,26 @@
       </c>
       <c r="AG88" t="b">
         <v>0</v>
-      </c>
-      <c r="AH88" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ88" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK88" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM88" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO88" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131024475</v>
+        <v>131025496</v>
       </c>
       <c r="B89" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10301,34 +10301,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>464272</v>
+        <v>464485</v>
       </c>
       <c r="R89" t="n">
-        <v>7042273</v>
+        <v>7042454</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10380,22 +10380,22 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131024455</v>
+        <v>131025515</v>
       </c>
       <c r="B90" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10403,34 +10403,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>464454</v>
+        <v>464430</v>
       </c>
       <c r="R90" t="n">
-        <v>7042523</v>
+        <v>7042344</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10482,22 +10482,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131024466</v>
+        <v>131024455</v>
       </c>
       <c r="B91" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10529,10 +10529,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>464319</v>
+        <v>464454</v>
       </c>
       <c r="R91" t="n">
-        <v>7042385</v>
+        <v>7042523</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10596,10 +10596,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131025496</v>
+        <v>131024466</v>
       </c>
       <c r="B92" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10607,34 +10607,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>464485</v>
+        <v>464319</v>
       </c>
       <c r="R92" t="n">
-        <v>7042454</v>
+        <v>7042385</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10686,22 +10686,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131025515</v>
+        <v>131024475</v>
       </c>
       <c r="B93" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10709,34 +10709,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>464430</v>
+        <v>464272</v>
       </c>
       <c r="R93" t="n">
-        <v>7042344</v>
+        <v>7042273</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10788,12 +10788,12 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
@@ -10803,7 +10803,7 @@
         <v>131025473</v>
       </c>
       <c r="B94" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10943,7 +10943,7 @@
         <v>131024512</v>
       </c>
       <c r="B95" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -11033,10 +11033,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131024452</v>
+        <v>131025507</v>
       </c>
       <c r="B96" t="n">
-        <v>57880</v>
+        <v>79243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -11044,34 +11044,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>464339</v>
+        <v>464297</v>
       </c>
       <c r="R96" t="n">
-        <v>7042474</v>
+        <v>7042525</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Långväxta bålar på gran i barrblandskog.</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11123,22 +11123,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131025484</v>
+        <v>131024452</v>
       </c>
       <c r="B97" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -11164,24 +11164,16 @@
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>464099</v>
+        <v>464339</v>
       </c>
       <c r="R97" t="n">
-        <v>7042646</v>
+        <v>7042474</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11218,7 +11210,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, tydliga på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11229,51 +11221,26 @@
       </c>
       <c r="AG97" t="b">
         <v>0</v>
-      </c>
-      <c r="AH97" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ97" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK97" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM97" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO97" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131025507</v>
+        <v>131025484</v>
       </c>
       <c r="B98" t="n">
-        <v>79239</v>
+        <v>57884</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11281,34 +11248,42 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>464297</v>
+        <v>464099</v>
       </c>
       <c r="R98" t="n">
-        <v>7042525</v>
+        <v>7042646</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11345,7 +11320,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i barrblandskog.</t>
+          <t>Ringhack, äldre, tydliga på gran.</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11356,6 +11331,31 @@
       </c>
       <c r="AG98" t="b">
         <v>0</v>
+      </c>
+      <c r="AH98" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM98" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">

--- a/artfynd/A 62205-2025 artfynd.xlsx
+++ b/artfynd/A 62205-2025 artfynd.xlsx
@@ -2509,10 +2509,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131024468</v>
+        <v>131025525</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2520,34 +2520,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>464332</v>
+        <v>464067</v>
       </c>
       <c r="R19" t="n">
-        <v>7042344</v>
+        <v>7042585</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2599,19 +2599,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131024458</v>
+        <v>131024468</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2646,10 +2646,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>464405</v>
+        <v>464332</v>
       </c>
       <c r="R20" t="n">
-        <v>7042391</v>
+        <v>7042344</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2713,7 +2713,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131024464</v>
+        <v>131024458</v>
       </c>
       <c r="B21" t="n">
         <v>57884</v>
@@ -2748,10 +2748,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>464337</v>
+        <v>464405</v>
       </c>
       <c r="R21" t="n">
-        <v>7042380</v>
+        <v>7042391</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2788,7 +2788,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2815,7 +2815,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131025468</v>
+        <v>131024464</v>
       </c>
       <c r="B22" t="n">
         <v>57884</v>
@@ -2844,24 +2844,16 @@
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>464445</v>
+        <v>464337</v>
       </c>
       <c r="R22" t="n">
-        <v>7042578</v>
+        <v>7042380</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2898,7 +2890,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2909,51 +2901,26 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM22" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131025525</v>
+        <v>131025468</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2961,34 +2928,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>464067</v>
+        <v>464445</v>
       </c>
       <c r="R23" t="n">
-        <v>7042585</v>
+        <v>7042578</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3025,7 +3000,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3036,6 +3011,31 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -4069,7 +4069,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131024446</v>
+        <v>131024465</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4098,24 +4098,16 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>463828</v>
+        <v>464328</v>
       </c>
       <c r="R33" t="n">
-        <v>7042514</v>
+        <v>7042367</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4152,14 +4144,14 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Gammalt bohål i grantickerötad gran</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" t="b">
         <v>0</v>
@@ -4179,7 +4171,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131024465</v>
+        <v>131025464</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4208,16 +4200,24 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>464328</v>
+        <v>464210</v>
       </c>
       <c r="R34" t="n">
-        <v>7042367</v>
+        <v>7042574</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4265,23 +4265,48 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131025464</v>
+        <v>131024446</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4314,20 +4339,20 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>464210</v>
+        <v>463828</v>
       </c>
       <c r="R35" t="n">
-        <v>7042574</v>
+        <v>7042514</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4364,52 +4389,27 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Gammalt bohål i grantickerötad gran</t>
         </is>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131024460</v>
+        <v>131024450</v>
       </c>
       <c r="B63" t="n">
         <v>57884</v>
@@ -7462,10 +7462,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>464385</v>
+        <v>464273</v>
       </c>
       <c r="R63" t="n">
-        <v>7042401</v>
+        <v>7042500</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131024450</v>
+        <v>131024460</v>
       </c>
       <c r="B64" t="n">
         <v>57884</v>
@@ -7564,10 +7564,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>464273</v>
+        <v>464385</v>
       </c>
       <c r="R64" t="n">
-        <v>7042500</v>
+        <v>7042401</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8952,10 +8952,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131025492</v>
+        <v>131025490</v>
       </c>
       <c r="B77" t="n">
-        <v>91804</v>
+        <v>80349</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8963,28 +8963,28 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -8994,10 +8994,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>464400</v>
+        <v>463994</v>
       </c>
       <c r="R77" t="n">
-        <v>7042294</v>
+        <v>7042378</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9054,22 +9054,22 @@
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -9291,7 +9291,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131024470</v>
+        <v>131024461</v>
       </c>
       <c r="B80" t="n">
         <v>57884</v>
@@ -9326,10 +9326,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>464325</v>
+        <v>464377</v>
       </c>
       <c r="R80" t="n">
-        <v>7042334</v>
+        <v>7042402</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9366,7 +9366,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9393,10 +9393,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131025490</v>
+        <v>131025492</v>
       </c>
       <c r="B81" t="n">
-        <v>80349</v>
+        <v>91804</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9404,28 +9404,28 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N81" t="inlineStr"/>
@@ -9435,10 +9435,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>463994</v>
+        <v>464400</v>
       </c>
       <c r="R81" t="n">
-        <v>7042378</v>
+        <v>7042294</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9475,7 +9475,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9495,22 +9495,22 @@
       </c>
       <c r="AJ81" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK81" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM81" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO81" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT81" t="inlineStr"/>
@@ -9528,7 +9528,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131024461</v>
+        <v>131024470</v>
       </c>
       <c r="B82" t="n">
         <v>57884</v>
@@ -9563,10 +9563,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>464377</v>
+        <v>464325</v>
       </c>
       <c r="R82" t="n">
-        <v>7042402</v>
+        <v>7042334</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9630,10 +9630,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131025475</v>
+        <v>131025520</v>
       </c>
       <c r="B83" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9641,42 +9641,34 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>464393</v>
+        <v>464027</v>
       </c>
       <c r="R83" t="n">
-        <v>7042284</v>
+        <v>7042318</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9713,7 +9705,7 @@
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9724,31 +9716,6 @@
       </c>
       <c r="AG83" t="b">
         <v>0</v>
-      </c>
-      <c r="AH83" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ83" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK83" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM83" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO83" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
@@ -9765,7 +9732,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131025477</v>
+        <v>131025475</v>
       </c>
       <c r="B84" t="n">
         <v>57884</v>
@@ -9808,10 +9775,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>464374</v>
+        <v>464393</v>
       </c>
       <c r="R84" t="n">
-        <v>7042300</v>
+        <v>7042284</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9848,7 +9815,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9900,7 +9867,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131024473</v>
+        <v>131025477</v>
       </c>
       <c r="B85" t="n">
         <v>57884</v>
@@ -9929,16 +9896,24 @@
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>464305</v>
+        <v>464374</v>
       </c>
       <c r="R85" t="n">
-        <v>7042334</v>
+        <v>7042300</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9975,7 +9950,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9986,26 +9961,51 @@
       </c>
       <c r="AG85" t="b">
         <v>0</v>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM85" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131025520</v>
+        <v>131024505</v>
       </c>
       <c r="B86" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -10013,34 +10013,30 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>464027</v>
+        <v>464276</v>
       </c>
       <c r="R86" t="n">
-        <v>7042318</v>
+        <v>7042457</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10075,11 +10071,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
@@ -10092,19 +10083,19 @@
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131024505</v>
+        <v>131024508</v>
       </c>
       <c r="B87" t="n">
         <v>91828</v>
@@ -10135,10 +10126,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>464276</v>
+        <v>464083</v>
       </c>
       <c r="R87" t="n">
-        <v>7042457</v>
+        <v>7042298</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10197,10 +10188,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131024508</v>
+        <v>131024473</v>
       </c>
       <c r="B88" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -10208,19 +10199,23 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
@@ -10228,10 +10223,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>464083</v>
+        <v>464305</v>
       </c>
       <c r="R88" t="n">
-        <v>7042298</v>
+        <v>7042334</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10264,6 +10259,11 @@
       <c r="AA88" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10494,7 +10494,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131024455</v>
+        <v>131024475</v>
       </c>
       <c r="B91" t="n">
         <v>57884</v>
@@ -10529,10 +10529,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>464454</v>
+        <v>464272</v>
       </c>
       <c r="R91" t="n">
-        <v>7042523</v>
+        <v>7042273</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10596,7 +10596,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131024466</v>
+        <v>131024455</v>
       </c>
       <c r="B92" t="n">
         <v>57884</v>
@@ -10631,10 +10631,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>464319</v>
+        <v>464454</v>
       </c>
       <c r="R92" t="n">
-        <v>7042385</v>
+        <v>7042523</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10698,7 +10698,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131024475</v>
+        <v>131024466</v>
       </c>
       <c r="B93" t="n">
         <v>57884</v>
@@ -10733,10 +10733,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>464272</v>
+        <v>464319</v>
       </c>
       <c r="R93" t="n">
-        <v>7042273</v>
+        <v>7042385</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10800,10 +10800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131025473</v>
+        <v>131024512</v>
       </c>
       <c r="B94" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10811,42 +10811,30 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>464413</v>
+        <v>464059</v>
       </c>
       <c r="R94" t="n">
-        <v>7042312</v>
+        <v>7042514</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10881,11 +10869,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
-        </is>
-      </c>
       <c r="AD94" t="b">
         <v>0</v>
       </c>
@@ -10894,56 +10877,26 @@
       </c>
       <c r="AG94" t="b">
         <v>0</v>
-      </c>
-      <c r="AH94" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI94" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
-        </is>
-      </c>
-      <c r="AJ94" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK94" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM94" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO94" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131024512</v>
+        <v>131025473</v>
       </c>
       <c r="B95" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10951,30 +10904,42 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>464059</v>
+        <v>464413</v>
       </c>
       <c r="R95" t="n">
-        <v>7042514</v>
+        <v>7042312</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11009,6 +10974,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
+        </is>
+      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
@@ -11017,16 +10987,46 @@
       </c>
       <c r="AG95" t="b">
         <v>0</v>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
+        </is>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM95" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>

--- a/artfynd/A 62205-2025 artfynd.xlsx
+++ b/artfynd/A 62205-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131025505</v>
+        <v>131024454</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>464214</v>
+        <v>464321</v>
       </c>
       <c r="R2" t="n">
-        <v>7042578</v>
+        <v>7042482</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -770,19 +770,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131025514</v>
+        <v>131025505</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>464434</v>
+        <v>464214</v>
       </c>
       <c r="R3" t="n">
-        <v>7042377</v>
+        <v>7042578</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På flera granar vid en lucka.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131024454</v>
+        <v>131025514</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,34 +895,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>464321</v>
+        <v>464434</v>
       </c>
       <c r="R4" t="n">
-        <v>7042482</v>
+        <v>7042377</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar vid en lucka.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -974,22 +974,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131024469</v>
+        <v>131025513</v>
       </c>
       <c r="B5" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -997,34 +997,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>464325</v>
+        <v>464484</v>
       </c>
       <c r="R5" t="n">
-        <v>7042323</v>
+        <v>7042425</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1076,22 +1076,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131025467</v>
+        <v>131025526</v>
       </c>
       <c r="B6" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,42 +1099,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>464403</v>
+        <v>464101</v>
       </c>
       <c r="R6" t="n">
-        <v>7042578</v>
+        <v>7042665</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1171,7 +1163,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, tydliga på en gran.</t>
+          <t>På gamgran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1182,31 +1174,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1223,10 +1190,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131025513</v>
+        <v>131024469</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1234,34 +1201,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>464484</v>
+        <v>464325</v>
       </c>
       <c r="R7" t="n">
-        <v>7042425</v>
+        <v>7042323</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1298,7 +1265,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1313,22 +1280,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131025526</v>
+        <v>131025467</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1336,34 +1303,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>464101</v>
+        <v>464403</v>
       </c>
       <c r="R8" t="n">
-        <v>7042665</v>
+        <v>7042578</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1400,7 +1375,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>På gamgran.</t>
+          <t>Ringhack, färska och äldre, tydliga på en gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1411,6 +1386,31 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1427,10 +1427,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131025506</v>
+        <v>131025488</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1438,34 +1438,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>464253</v>
+        <v>463958</v>
       </c>
       <c r="R9" t="n">
-        <v>7042536</v>
+        <v>7042484</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1502,7 +1510,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran.</t>
+          <t>Hackspår i stambasen av en levande gran.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1513,6 +1521,31 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1529,10 +1562,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131025494</v>
+        <v>131025506</v>
       </c>
       <c r="B10" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1540,19 +1573,23 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1560,10 +1597,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>464471</v>
+        <v>464253</v>
       </c>
       <c r="R10" t="n">
-        <v>7042462</v>
+        <v>7042536</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1600,7 +1637,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>I granstubbe.</t>
+          <t>På en tydligt gammal gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -2035,10 +2072,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131024467</v>
+        <v>131025494</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,34 +2083,30 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>464322</v>
+        <v>464471</v>
       </c>
       <c r="R15" t="n">
-        <v>7042355</v>
+        <v>7042462</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2110,7 +2143,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>I granstubbe.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2125,22 +2158,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131025488</v>
+        <v>131024467</v>
       </c>
       <c r="B16" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2148,16 +2181,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2166,24 +2199,16 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>463958</v>
+        <v>464322</v>
       </c>
       <c r="R16" t="n">
-        <v>7042484</v>
+        <v>7042355</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2220,7 +2245,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Hackspår i stambasen av en levande gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2231,41 +2256,16 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
@@ -3052,10 +3052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131025528</v>
+        <v>131024476</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,34 +3063,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>464199</v>
+        <v>464255</v>
       </c>
       <c r="R24" t="n">
-        <v>7042793</v>
+        <v>7042273</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3142,19 +3142,19 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131024476</v>
+        <v>131025474</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3183,16 +3183,24 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>464255</v>
+        <v>464391</v>
       </c>
       <c r="R25" t="n">
-        <v>7042273</v>
+        <v>7042299</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3229,7 +3237,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3240,23 +3248,48 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131024449</v>
+        <v>131025470</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3285,16 +3318,24 @@
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>464183</v>
+        <v>464484</v>
       </c>
       <c r="R26" t="n">
-        <v>7042531</v>
+        <v>7042508</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3331,7 +3372,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3342,23 +3383,48 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131024474</v>
+        <v>131024449</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3393,10 +3459,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>464280</v>
+        <v>464183</v>
       </c>
       <c r="R27" t="n">
-        <v>7042322</v>
+        <v>7042531</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3433,7 +3499,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3460,7 +3526,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131025474</v>
+        <v>131024474</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3489,24 +3555,16 @@
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>464391</v>
+        <v>464280</v>
       </c>
       <c r="R28" t="n">
-        <v>7042299</v>
+        <v>7042322</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3543,7 +3601,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3554,48 +3612,23 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AH28" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM28" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131025470</v>
+        <v>131025485</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3638,10 +3671,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>464484</v>
+        <v>464186</v>
       </c>
       <c r="R29" t="n">
-        <v>7042508</v>
+        <v>7042779</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3730,10 +3763,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131025485</v>
+        <v>131025528</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3741,42 +3774,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>464186</v>
+        <v>464199</v>
       </c>
       <c r="R30" t="n">
-        <v>7042779</v>
+        <v>7042793</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3813,7 +3838,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3824,31 +3849,6 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4171,7 +4171,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131025464</v>
+        <v>131024446</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4204,20 +4204,20 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>464210</v>
+        <v>463828</v>
       </c>
       <c r="R34" t="n">
-        <v>7042574</v>
+        <v>7042514</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4254,59 +4254,34 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Gammalt bohål i grantickerötad gran</t>
         </is>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AH34" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM34" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131024446</v>
+        <v>131025464</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4339,20 +4314,20 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>gammalt bo</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>463828</v>
+        <v>464210</v>
       </c>
       <c r="R35" t="n">
-        <v>7042514</v>
+        <v>7042574</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4389,37 +4364,62 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Gammalt bohål i grantickerötad gran</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131025465</v>
+        <v>131025517</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4427,42 +4427,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>464268</v>
+        <v>464199</v>
       </c>
       <c r="R36" t="n">
-        <v>7042527</v>
+        <v>7042210</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4510,31 +4502,6 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AH36" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM36" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4551,10 +4518,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131025472</v>
+        <v>131025527</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4562,42 +4529,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>464419</v>
+        <v>464174</v>
       </c>
       <c r="R37" t="n">
-        <v>7042316</v>
+        <v>7042780</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4634,7 +4593,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4645,31 +4604,6 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4821,10 +4755,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131025517</v>
+        <v>131025465</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4832,34 +4766,42 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>464199</v>
+        <v>464268</v>
       </c>
       <c r="R39" t="n">
-        <v>7042210</v>
+        <v>7042527</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4896,7 +4838,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4907,6 +4849,31 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -4923,10 +4890,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131025527</v>
+        <v>131024448</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4934,34 +4901,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>464174</v>
+        <v>464165</v>
       </c>
       <c r="R40" t="n">
-        <v>7042780</v>
+        <v>7042546</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4998,7 +4965,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5013,19 +4980,19 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131024448</v>
+        <v>131024478</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -5060,10 +5027,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>464165</v>
+        <v>464232</v>
       </c>
       <c r="R41" t="n">
-        <v>7042546</v>
+        <v>7042762</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5127,7 +5094,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131024478</v>
+        <v>131025472</v>
       </c>
       <c r="B42" t="n">
         <v>57884</v>
@@ -5156,16 +5123,24 @@
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>464232</v>
+        <v>464419</v>
       </c>
       <c r="R42" t="n">
-        <v>7042762</v>
+        <v>7042316</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5202,7 +5177,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5213,16 +5188,41 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
@@ -5670,10 +5670,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131025478</v>
+        <v>131024506</v>
       </c>
       <c r="B47" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5681,42 +5681,30 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>464380</v>
+        <v>464426</v>
       </c>
       <c r="R47" t="n">
-        <v>7042301</v>
+        <v>7042565</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5751,11 +5739,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, på stambasen av en levande gran. Medelhögt livsmiljövärde för tretåig hackspett på fyndplatsen baserat på volym stående död ved.</t>
-        </is>
-      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
@@ -5764,51 +5747,26 @@
       </c>
       <c r="AG47" t="b">
         <v>0</v>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131025471</v>
+        <v>131025524</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5816,42 +5774,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>464444</v>
+        <v>464041</v>
       </c>
       <c r="R48" t="n">
-        <v>7042363</v>
+        <v>7042631</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5888,7 +5838,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en böjd gran.</t>
+          <t>På gamgran.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5899,36 +5849,6 @@
       </c>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI48" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
-        </is>
-      </c>
-      <c r="AJ48" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM48" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -5945,10 +5865,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131025482</v>
+        <v>131025511</v>
       </c>
       <c r="B49" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5956,42 +5876,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>464034</v>
+        <v>464483</v>
       </c>
       <c r="R49" t="n">
-        <v>7042322</v>
+        <v>7042518</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6028,7 +5940,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6039,31 +5951,6 @@
       </c>
       <c r="AG49" t="b">
         <v>0</v>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM49" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
@@ -6080,7 +5967,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131024506</v>
+        <v>131025495</v>
       </c>
       <c r="B50" t="n">
         <v>91828</v>
@@ -6107,14 +5994,14 @@
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>464426</v>
+        <v>463986</v>
       </c>
       <c r="R50" t="n">
-        <v>7042565</v>
+        <v>7042522</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6149,6 +6036,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>I stående död klen gran.</t>
+        </is>
+      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
@@ -6161,22 +6053,22 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131025495</v>
+        <v>131025478</v>
       </c>
       <c r="B51" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6184,30 +6076,42 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>463986</v>
+        <v>464380</v>
       </c>
       <c r="R51" t="n">
-        <v>7042522</v>
+        <v>7042301</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6244,7 +6148,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>I stående död klen gran.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en levande gran. Medelhögt livsmiljövärde för tretåig hackspett på fyndplatsen baserat på volym stående död ved.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6255,6 +6159,31 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
@@ -6271,10 +6200,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131025524</v>
+        <v>131025471</v>
       </c>
       <c r="B52" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6282,34 +6211,42 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>464041</v>
+        <v>464444</v>
       </c>
       <c r="R52" t="n">
-        <v>7042631</v>
+        <v>7042363</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6346,7 +6283,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>På gamgran.</t>
+          <t>Ringhack, äldre, på stambasen av en böjd gran.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6357,6 +6294,36 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6373,10 +6340,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131025511</v>
+        <v>131025482</v>
       </c>
       <c r="B53" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -6384,34 +6351,42 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>464483</v>
+        <v>464034</v>
       </c>
       <c r="R53" t="n">
-        <v>7042518</v>
+        <v>7042322</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6448,7 +6423,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6459,6 +6434,31 @@
       </c>
       <c r="AG53" t="b">
         <v>0</v>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ53" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK53" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM53" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO53" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
@@ -6475,10 +6475,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131024511</v>
+        <v>131024501</v>
       </c>
       <c r="B54" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6486,19 +6486,23 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6506,10 +6510,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>463866</v>
+        <v>464070</v>
       </c>
       <c r="R54" t="n">
-        <v>7042468</v>
+        <v>7042517</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6568,7 +6572,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131024510</v>
+        <v>131024511</v>
       </c>
       <c r="B55" t="n">
         <v>91828</v>
@@ -6599,10 +6603,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>464031</v>
+        <v>463866</v>
       </c>
       <c r="R55" t="n">
-        <v>7042403</v>
+        <v>7042468</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6661,7 +6665,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131024507</v>
+        <v>131024510</v>
       </c>
       <c r="B56" t="n">
         <v>91828</v>
@@ -6692,10 +6696,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>464395</v>
+        <v>464031</v>
       </c>
       <c r="R56" t="n">
-        <v>7042406</v>
+        <v>7042403</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6754,10 +6758,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131024463</v>
+        <v>131024507</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6765,23 +6769,19 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
@@ -6789,10 +6789,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>464371</v>
+        <v>464395</v>
       </c>
       <c r="R57" t="n">
-        <v>7042397</v>
+        <v>7042406</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6825,11 +6825,6 @@
       <c r="AA57" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6856,10 +6851,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131025483</v>
+        <v>131025504</v>
       </c>
       <c r="B58" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6867,42 +6862,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>464021</v>
+        <v>464204</v>
       </c>
       <c r="R58" t="n">
-        <v>7042325</v>
+        <v>7042559</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6939,7 +6926,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Ringhack, färska, längs minst 6 meter på en gran ca 4 meter från strandkanten. Rikligt med spår av rinnande kåda/sav på granens stam.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6950,31 +6937,6 @@
       </c>
       <c r="AG58" t="b">
         <v>0</v>
-      </c>
-      <c r="AH58" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ58" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
@@ -6991,7 +6953,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131025469</v>
+        <v>131024463</v>
       </c>
       <c r="B59" t="n">
         <v>57884</v>
@@ -7020,24 +6982,16 @@
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>464464</v>
+        <v>464371</v>
       </c>
       <c r="R59" t="n">
-        <v>7042544</v>
+        <v>7042397</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7074,7 +7028,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en granhögstubbe.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7085,51 +7039,26 @@
       </c>
       <c r="AG59" t="b">
         <v>0</v>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ59" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT59" t="inlineStr"/>
       <c r="AW59" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX59" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131024501</v>
+        <v>131025483</v>
       </c>
       <c r="B60" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7137,34 +7066,42 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>464070</v>
+        <v>464021</v>
       </c>
       <c r="R60" t="n">
-        <v>7042517</v>
+        <v>7042325</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7199,6 +7136,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, längs minst 6 meter på en gran ca 4 meter från strandkanten. Rikligt med spår av rinnande kåda/sav på granens stam.</t>
+        </is>
+      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
@@ -7207,26 +7149,51 @@
       </c>
       <c r="AG60" t="b">
         <v>0</v>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131025504</v>
+        <v>131025469</v>
       </c>
       <c r="B61" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7234,34 +7201,42 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>464204</v>
+        <v>464464</v>
       </c>
       <c r="R61" t="n">
-        <v>7042559</v>
+        <v>7042544</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7298,7 +7273,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, äldre, på en granhögstubbe.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7309,6 +7284,31 @@
       </c>
       <c r="AG61" t="b">
         <v>0</v>
+      </c>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM61" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
@@ -7427,7 +7427,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131024450</v>
+        <v>131024460</v>
       </c>
       <c r="B63" t="n">
         <v>57884</v>
@@ -7462,10 +7462,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>464273</v>
+        <v>464385</v>
       </c>
       <c r="R63" t="n">
-        <v>7042500</v>
+        <v>7042401</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131024460</v>
+        <v>131024450</v>
       </c>
       <c r="B64" t="n">
         <v>57884</v>
@@ -7564,10 +7564,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>464385</v>
+        <v>464273</v>
       </c>
       <c r="R64" t="n">
-        <v>7042401</v>
+        <v>7042500</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7631,10 +7631,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131024509</v>
+        <v>131024456</v>
       </c>
       <c r="B65" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7642,19 +7642,23 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -7662,10 +7666,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>464214</v>
+        <v>464439</v>
       </c>
       <c r="R65" t="n">
-        <v>7042282</v>
+        <v>7042505</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7698,6 +7702,11 @@
       <c r="AA65" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7724,27 +7733,27 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131024456</v>
+        <v>131024494</v>
       </c>
       <c r="B66" t="n">
-        <v>57884</v>
+        <v>57988</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>103031</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Perisoreus infaustus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -7752,17 +7761,29 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr"/>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>464439</v>
+        <v>464304</v>
       </c>
       <c r="R66" t="n">
-        <v>7042505</v>
+        <v>7042379</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7795,11 +7816,6 @@
       <c r="AA66" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7826,57 +7842,41 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131024494</v>
+        <v>131024509</v>
       </c>
       <c r="B67" t="n">
-        <v>57988</v>
+        <v>91828</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>103031</v>
+        <v>5432</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr"/>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>464304</v>
+        <v>464214</v>
       </c>
       <c r="R67" t="n">
-        <v>7042379</v>
+        <v>7042282</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8511,10 +8511,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131024453</v>
+        <v>131025521</v>
       </c>
       <c r="B73" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8522,34 +8522,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>464327</v>
+        <v>464007</v>
       </c>
       <c r="R73" t="n">
-        <v>7042477</v>
+        <v>7042409</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8601,19 +8601,19 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131024451</v>
+        <v>131024453</v>
       </c>
       <c r="B74" t="n">
         <v>57884</v>
@@ -8648,10 +8648,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>464275</v>
+        <v>464327</v>
       </c>
       <c r="R74" t="n">
-        <v>7042455</v>
+        <v>7042477</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131025480</v>
+        <v>131024451</v>
       </c>
       <c r="B75" t="n">
         <v>57884</v>
@@ -8744,24 +8744,16 @@
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>464378</v>
+        <v>464275</v>
       </c>
       <c r="R75" t="n">
-        <v>7042302</v>
+        <v>7042455</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8798,7 +8790,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD &gt;10cm).</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8809,51 +8801,26 @@
       </c>
       <c r="AG75" t="b">
         <v>0</v>
-      </c>
-      <c r="AH75" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ75" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK75" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM75" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO75" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131025521</v>
+        <v>131025480</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8861,34 +8828,42 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>464007</v>
+        <v>464378</v>
       </c>
       <c r="R76" t="n">
-        <v>7042409</v>
+        <v>7042302</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8925,7 +8900,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD &gt;10cm).</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8936,6 +8911,31 @@
       </c>
       <c r="AG76" t="b">
         <v>0</v>
+      </c>
+      <c r="AH76" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
@@ -8952,10 +8952,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131025490</v>
+        <v>131025492</v>
       </c>
       <c r="B77" t="n">
-        <v>80349</v>
+        <v>91804</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8963,28 +8963,28 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -8994,10 +8994,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>463994</v>
+        <v>464400</v>
       </c>
       <c r="R77" t="n">
-        <v>7042378</v>
+        <v>7042294</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9054,22 +9054,22 @@
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -9291,10 +9291,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131024461</v>
+        <v>131025490</v>
       </c>
       <c r="B80" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9302,34 +9302,41 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>464377</v>
+        <v>463994</v>
       </c>
       <c r="R80" t="n">
-        <v>7042402</v>
+        <v>7042378</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9366,7 +9373,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9375,28 +9382,54 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
+      </c>
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM80" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131025492</v>
+        <v>131024470</v>
       </c>
       <c r="B81" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9404,41 +9437,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>464400</v>
+        <v>464325</v>
       </c>
       <c r="R81" t="n">
-        <v>7042294</v>
+        <v>7042334</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9475,7 +9501,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9484,51 +9510,25 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
-      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
-      </c>
-      <c r="AH81" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ81" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK81" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM81" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131024470</v>
+        <v>131024461</v>
       </c>
       <c r="B82" t="n">
         <v>57884</v>
@@ -9563,10 +9563,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>464325</v>
+        <v>464377</v>
       </c>
       <c r="R82" t="n">
-        <v>7042334</v>
+        <v>7042402</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9732,10 +9732,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131025475</v>
+        <v>131024505</v>
       </c>
       <c r="B84" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9743,42 +9743,30 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>464393</v>
+        <v>464276</v>
       </c>
       <c r="R84" t="n">
-        <v>7042284</v>
+        <v>7042457</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9813,11 +9801,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
@@ -9826,51 +9809,26 @@
       </c>
       <c r="AG84" t="b">
         <v>0</v>
-      </c>
-      <c r="AH84" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ84" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK84" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM84" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO84" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131025477</v>
+        <v>131024508</v>
       </c>
       <c r="B85" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9878,42 +9836,30 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>464374</v>
+        <v>464083</v>
       </c>
       <c r="R85" t="n">
-        <v>7042300</v>
+        <v>7042298</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9948,11 +9894,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
@@ -9961,51 +9902,26 @@
       </c>
       <c r="AG85" t="b">
         <v>0</v>
-      </c>
-      <c r="AH85" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ85" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK85" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM85" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO85" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131024505</v>
+        <v>131025475</v>
       </c>
       <c r="B86" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -10013,30 +9929,42 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>464276</v>
+        <v>464393</v>
       </c>
       <c r="R86" t="n">
-        <v>7042457</v>
+        <v>7042284</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10071,6 +9999,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
@@ -10079,26 +10012,51 @@
       </c>
       <c r="AG86" t="b">
         <v>0</v>
+      </c>
+      <c r="AH86" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM86" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131024508</v>
+        <v>131024473</v>
       </c>
       <c r="B87" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -10106,19 +10064,23 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
@@ -10126,10 +10088,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>464083</v>
+        <v>464305</v>
       </c>
       <c r="R87" t="n">
-        <v>7042298</v>
+        <v>7042334</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10162,6 +10124,11 @@
       <c r="AA87" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10188,7 +10155,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131024473</v>
+        <v>131025477</v>
       </c>
       <c r="B88" t="n">
         <v>57884</v>
@@ -10217,16 +10184,24 @@
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>464305</v>
+        <v>464374</v>
       </c>
       <c r="R88" t="n">
-        <v>7042334</v>
+        <v>7042300</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10263,7 +10238,7 @@
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10274,16 +10249,41 @@
       </c>
       <c r="AG88" t="b">
         <v>0</v>
+      </c>
+      <c r="AH88" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM88" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO88" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
@@ -10494,7 +10494,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131024475</v>
+        <v>131024455</v>
       </c>
       <c r="B91" t="n">
         <v>57884</v>
@@ -10529,10 +10529,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>464272</v>
+        <v>464454</v>
       </c>
       <c r="R91" t="n">
-        <v>7042273</v>
+        <v>7042523</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10596,7 +10596,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131024455</v>
+        <v>131024466</v>
       </c>
       <c r="B92" t="n">
         <v>57884</v>
@@ -10631,10 +10631,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>464454</v>
+        <v>464319</v>
       </c>
       <c r="R92" t="n">
-        <v>7042523</v>
+        <v>7042385</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10698,7 +10698,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131024466</v>
+        <v>131024475</v>
       </c>
       <c r="B93" t="n">
         <v>57884</v>
@@ -10733,10 +10733,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>464319</v>
+        <v>464272</v>
       </c>
       <c r="R93" t="n">
-        <v>7042385</v>
+        <v>7042273</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10800,10 +10800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131024512</v>
+        <v>131025473</v>
       </c>
       <c r="B94" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10811,30 +10811,42 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>464059</v>
+        <v>464413</v>
       </c>
       <c r="R94" t="n">
-        <v>7042514</v>
+        <v>7042312</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10869,6 +10881,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
+        </is>
+      </c>
       <c r="AD94" t="b">
         <v>0</v>
       </c>
@@ -10877,26 +10894,56 @@
       </c>
       <c r="AG94" t="b">
         <v>0</v>
+      </c>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI94" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131025473</v>
+        <v>131024512</v>
       </c>
       <c r="B95" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10904,42 +10951,30 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>464413</v>
+        <v>464059</v>
       </c>
       <c r="R95" t="n">
-        <v>7042312</v>
+        <v>7042514</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10974,11 +11009,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
-        </is>
-      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
@@ -10987,56 +11017,26 @@
       </c>
       <c r="AG95" t="b">
         <v>0</v>
-      </c>
-      <c r="AH95" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI95" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
-        </is>
-      </c>
-      <c r="AJ95" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK95" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM95" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO95" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131025507</v>
+        <v>131024452</v>
       </c>
       <c r="B96" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -11044,34 +11044,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>464297</v>
+        <v>464339</v>
       </c>
       <c r="R96" t="n">
-        <v>7042525</v>
+        <v>7042474</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i barrblandskog.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11123,19 +11123,19 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131024452</v>
+        <v>131025484</v>
       </c>
       <c r="B97" t="n">
         <v>57884</v>
@@ -11164,16 +11164,24 @@
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>464339</v>
+        <v>464099</v>
       </c>
       <c r="R97" t="n">
-        <v>7042474</v>
+        <v>7042646</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11210,7 +11218,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, tydliga på gran.</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11221,26 +11229,51 @@
       </c>
       <c r="AG97" t="b">
         <v>0</v>
+      </c>
+      <c r="AH97" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM97" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131025484</v>
+        <v>131025507</v>
       </c>
       <c r="B98" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11248,42 +11281,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>464099</v>
+        <v>464297</v>
       </c>
       <c r="R98" t="n">
-        <v>7042646</v>
+        <v>7042525</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11320,7 +11345,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, tydliga på gran.</t>
+          <t>Långväxta bålar på gran i barrblandskog.</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11331,31 +11356,6 @@
       </c>
       <c r="AG98" t="b">
         <v>0</v>
-      </c>
-      <c r="AH98" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ98" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK98" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM98" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO98" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">

--- a/artfynd/A 62205-2025 artfynd.xlsx
+++ b/artfynd/A 62205-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131024454</v>
+        <v>131025505</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>464321</v>
+        <v>464214</v>
       </c>
       <c r="R2" t="n">
-        <v>7042482</v>
+        <v>7042578</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -770,19 +770,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131025505</v>
+        <v>131025514</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>464214</v>
+        <v>464434</v>
       </c>
       <c r="R3" t="n">
-        <v>7042578</v>
+        <v>7042377</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På flera granar vid en lucka.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131025514</v>
+        <v>131024454</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,34 +895,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>464434</v>
+        <v>464321</v>
       </c>
       <c r="R4" t="n">
-        <v>7042377</v>
+        <v>7042482</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På flera granar vid en lucka.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -974,12 +974,12 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131025510</v>
+        <v>131024468</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2418,34 +2418,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>464463</v>
+        <v>464332</v>
       </c>
       <c r="R18" t="n">
-        <v>7042542</v>
+        <v>7042344</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2497,22 +2497,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131025525</v>
+        <v>131024458</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2520,34 +2520,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>464067</v>
+        <v>464405</v>
       </c>
       <c r="R19" t="n">
-        <v>7042585</v>
+        <v>7042391</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2599,19 +2599,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131024468</v>
+        <v>131024464</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2646,10 +2646,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>464332</v>
+        <v>464337</v>
       </c>
       <c r="R20" t="n">
-        <v>7042344</v>
+        <v>7042380</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131024458</v>
+        <v>131025468</v>
       </c>
       <c r="B21" t="n">
         <v>57884</v>
@@ -2742,16 +2742,24 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>464405</v>
+        <v>464445</v>
       </c>
       <c r="R21" t="n">
-        <v>7042391</v>
+        <v>7042578</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2788,7 +2796,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2799,26 +2807,51 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131024464</v>
+        <v>131025510</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2826,34 +2859,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>464337</v>
+        <v>464463</v>
       </c>
       <c r="R22" t="n">
-        <v>7042380</v>
+        <v>7042542</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2890,7 +2923,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2905,22 +2938,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131025468</v>
+        <v>131025525</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2928,42 +2961,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>464445</v>
+        <v>464067</v>
       </c>
       <c r="R23" t="n">
-        <v>7042578</v>
+        <v>7042585</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3000,7 +3025,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3011,31 +3036,6 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -6572,10 +6572,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131024511</v>
+        <v>131024463</v>
       </c>
       <c r="B55" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6583,19 +6583,23 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6603,10 +6607,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>463866</v>
+        <v>464371</v>
       </c>
       <c r="R55" t="n">
-        <v>7042468</v>
+        <v>7042397</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6639,6 +6643,11 @@
       <c r="AA55" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6665,10 +6674,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131024510</v>
+        <v>131025483</v>
       </c>
       <c r="B56" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6676,30 +6685,42 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>464031</v>
+        <v>464021</v>
       </c>
       <c r="R56" t="n">
-        <v>7042403</v>
+        <v>7042325</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6734,6 +6755,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, längs minst 6 meter på en gran ca 4 meter från strandkanten. Rikligt med spår av rinnande kåda/sav på granens stam.</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -6742,26 +6768,51 @@
       </c>
       <c r="AG56" t="b">
         <v>0</v>
+      </c>
+      <c r="AH56" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ56" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK56" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM56" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO56" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131024507</v>
+        <v>131025469</v>
       </c>
       <c r="B57" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6769,30 +6820,42 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>464395</v>
+        <v>464464</v>
       </c>
       <c r="R57" t="n">
-        <v>7042406</v>
+        <v>7042544</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6827,6 +6890,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
@@ -6835,26 +6903,51 @@
       </c>
       <c r="AG57" t="b">
         <v>0</v>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131025504</v>
+        <v>131024511</v>
       </c>
       <c r="B58" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6862,34 +6955,30 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>464204</v>
+        <v>463866</v>
       </c>
       <c r="R58" t="n">
-        <v>7042559</v>
+        <v>7042468</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6924,11 +7013,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>På gran.</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -6941,22 +7025,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131024463</v>
+        <v>131024510</v>
       </c>
       <c r="B59" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6964,23 +7048,19 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -6988,10 +7068,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>464371</v>
+        <v>464031</v>
       </c>
       <c r="R59" t="n">
-        <v>7042397</v>
+        <v>7042403</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7024,11 +7104,6 @@
       <c r="AA59" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7055,10 +7130,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131025483</v>
+        <v>131024507</v>
       </c>
       <c r="B60" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7066,42 +7141,30 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>464021</v>
+        <v>464395</v>
       </c>
       <c r="R60" t="n">
-        <v>7042325</v>
+        <v>7042406</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7136,11 +7199,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>Ringhack, färska, längs minst 6 meter på en gran ca 4 meter från strandkanten. Rikligt med spår av rinnande kåda/sav på granens stam.</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
@@ -7149,51 +7207,26 @@
       </c>
       <c r="AG60" t="b">
         <v>0</v>
-      </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ60" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK60" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM60" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO60" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131025469</v>
+        <v>131025504</v>
       </c>
       <c r="B61" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7201,42 +7234,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>464464</v>
+        <v>464204</v>
       </c>
       <c r="R61" t="n">
-        <v>7042544</v>
+        <v>7042559</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7273,7 +7298,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en granhögstubbe.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7284,31 +7309,6 @@
       </c>
       <c r="AG61" t="b">
         <v>0</v>
-      </c>
-      <c r="AH61" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ61" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK61" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM61" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO61" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
@@ -8511,10 +8511,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131025521</v>
+        <v>131024453</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8522,34 +8522,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>464007</v>
+        <v>464327</v>
       </c>
       <c r="R73" t="n">
-        <v>7042409</v>
+        <v>7042477</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8601,19 +8601,19 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131024453</v>
+        <v>131024451</v>
       </c>
       <c r="B74" t="n">
         <v>57884</v>
@@ -8648,10 +8648,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>464327</v>
+        <v>464275</v>
       </c>
       <c r="R74" t="n">
-        <v>7042477</v>
+        <v>7042455</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131024451</v>
+        <v>131025480</v>
       </c>
       <c r="B75" t="n">
         <v>57884</v>
@@ -8744,16 +8744,24 @@
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>464275</v>
+        <v>464378</v>
       </c>
       <c r="R75" t="n">
-        <v>7042455</v>
+        <v>7042302</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8790,7 +8798,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD &gt;10cm).</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8801,26 +8809,51 @@
       </c>
       <c r="AG75" t="b">
         <v>0</v>
+      </c>
+      <c r="AH75" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ75" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK75" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM75" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO75" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131025480</v>
+        <v>131025521</v>
       </c>
       <c r="B76" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8828,42 +8861,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>464378</v>
+        <v>464007</v>
       </c>
       <c r="R76" t="n">
-        <v>7042302</v>
+        <v>7042409</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8900,7 +8925,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD &gt;10cm).</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8911,31 +8936,6 @@
       </c>
       <c r="AG76" t="b">
         <v>0</v>
-      </c>
-      <c r="AH76" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ76" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK76" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO76" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
@@ -10800,10 +10800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131025473</v>
+        <v>131024512</v>
       </c>
       <c r="B94" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10811,42 +10811,30 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>464413</v>
+        <v>464059</v>
       </c>
       <c r="R94" t="n">
-        <v>7042312</v>
+        <v>7042514</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10881,11 +10869,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
-        </is>
-      </c>
       <c r="AD94" t="b">
         <v>0</v>
       </c>
@@ -10894,56 +10877,26 @@
       </c>
       <c r="AG94" t="b">
         <v>0</v>
-      </c>
-      <c r="AH94" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI94" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
-        </is>
-      </c>
-      <c r="AJ94" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK94" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM94" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO94" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131024512</v>
+        <v>131025473</v>
       </c>
       <c r="B95" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10951,30 +10904,42 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>464059</v>
+        <v>464413</v>
       </c>
       <c r="R95" t="n">
-        <v>7042514</v>
+        <v>7042312</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11009,6 +10974,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
+        </is>
+      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
@@ -11017,16 +10987,46 @@
       </c>
       <c r="AG95" t="b">
         <v>0</v>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
+        </is>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM95" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>

--- a/artfynd/A 62205-2025 artfynd.xlsx
+++ b/artfynd/A 62205-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131025505</v>
+        <v>131024454</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>464214</v>
+        <v>464321</v>
       </c>
       <c r="R2" t="n">
-        <v>7042578</v>
+        <v>7042482</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -770,19 +770,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131025514</v>
+        <v>131025505</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>464434</v>
+        <v>464214</v>
       </c>
       <c r="R3" t="n">
-        <v>7042377</v>
+        <v>7042578</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På flera granar vid en lucka.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131024454</v>
+        <v>131025514</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,34 +895,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>464321</v>
+        <v>464434</v>
       </c>
       <c r="R4" t="n">
-        <v>7042482</v>
+        <v>7042377</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar vid en lucka.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -974,12 +974,12 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131025488</v>
+        <v>131024467</v>
       </c>
       <c r="B9" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1438,16 +1438,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1456,24 +1456,16 @@
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>463958</v>
+        <v>464322</v>
       </c>
       <c r="R9" t="n">
-        <v>7042484</v>
+        <v>7042355</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1510,7 +1502,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Hackspår i stambasen av en levande gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1521,41 +1513,16 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM9" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
@@ -2072,10 +2039,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131025494</v>
+        <v>131025488</v>
       </c>
       <c r="B15" t="n">
-        <v>91828</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2083,30 +2050,42 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>464471</v>
+        <v>463958</v>
       </c>
       <c r="R15" t="n">
-        <v>7042462</v>
+        <v>7042484</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2143,7 +2122,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>I granstubbe.</t>
+          <t>Hackspår i stambasen av en levande gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2154,6 +2133,31 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2170,10 +2174,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131024467</v>
+        <v>131025494</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,34 +2185,30 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>464322</v>
+        <v>464471</v>
       </c>
       <c r="R16" t="n">
-        <v>7042355</v>
+        <v>7042462</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2245,7 +2245,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>I granstubbe.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2260,12 +2260,12 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
@@ -2407,10 +2407,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131024468</v>
+        <v>131025510</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2418,34 +2418,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>464332</v>
+        <v>464463</v>
       </c>
       <c r="R18" t="n">
-        <v>7042344</v>
+        <v>7042542</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2497,19 +2497,19 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131024458</v>
+        <v>131024468</v>
       </c>
       <c r="B19" t="n">
         <v>57884</v>
@@ -2544,10 +2544,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>464405</v>
+        <v>464332</v>
       </c>
       <c r="R19" t="n">
-        <v>7042391</v>
+        <v>7042344</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2611,7 +2611,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131024464</v>
+        <v>131024458</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2646,10 +2646,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>464337</v>
+        <v>464405</v>
       </c>
       <c r="R20" t="n">
-        <v>7042380</v>
+        <v>7042391</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2713,7 +2713,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131025468</v>
+        <v>131024464</v>
       </c>
       <c r="B21" t="n">
         <v>57884</v>
@@ -2742,24 +2742,16 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>464445</v>
+        <v>464337</v>
       </c>
       <c r="R21" t="n">
-        <v>7042578</v>
+        <v>7042380</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2796,7 +2788,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2807,48 +2799,23 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131025510</v>
+        <v>131025525</v>
       </c>
       <c r="B22" t="n">
         <v>79243</v>
@@ -2883,10 +2850,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>464463</v>
+        <v>464067</v>
       </c>
       <c r="R22" t="n">
-        <v>7042542</v>
+        <v>7042585</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2923,7 +2890,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2950,10 +2917,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131025525</v>
+        <v>131025468</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2961,34 +2928,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>464067</v>
+        <v>464445</v>
       </c>
       <c r="R23" t="n">
-        <v>7042585</v>
+        <v>7042578</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3025,7 +3000,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3036,6 +3011,31 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3628,10 +3628,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131025485</v>
+        <v>131025528</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3639,42 +3639,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>464186</v>
+        <v>464199</v>
       </c>
       <c r="R29" t="n">
-        <v>7042779</v>
+        <v>7042793</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3711,7 +3703,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3722,31 +3714,6 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO29" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -3763,10 +3730,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131025528</v>
+        <v>131025485</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3774,34 +3741,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>464199</v>
+        <v>464186</v>
       </c>
       <c r="R30" t="n">
-        <v>7042793</v>
+        <v>7042779</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3838,7 +3813,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3849,6 +3824,31 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -4620,10 +4620,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131025489</v>
+        <v>131025465</v>
       </c>
       <c r="B38" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4631,28 +4631,29 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
@@ -4662,10 +4663,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>464035</v>
+        <v>464268</v>
       </c>
       <c r="R38" t="n">
-        <v>7042354</v>
+        <v>7042527</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4702,7 +4703,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Växer på en grov gammal sälg.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4711,33 +4712,32 @@
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
       <c r="AH38" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr"/>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131025465</v>
+        <v>131024448</v>
       </c>
       <c r="B39" t="n">
         <v>57884</v>
@@ -4784,24 +4784,16 @@
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>464268</v>
+        <v>464165</v>
       </c>
       <c r="R39" t="n">
-        <v>7042527</v>
+        <v>7042546</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4838,7 +4830,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4849,48 +4841,23 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AH39" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM39" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131024448</v>
+        <v>131024478</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4925,10 +4892,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>464165</v>
+        <v>464232</v>
       </c>
       <c r="R40" t="n">
-        <v>7042546</v>
+        <v>7042762</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4992,7 +4959,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131024478</v>
+        <v>131025472</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -5021,16 +4988,24 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>464232</v>
+        <v>464419</v>
       </c>
       <c r="R41" t="n">
-        <v>7042762</v>
+        <v>7042316</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5067,7 +5042,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5078,26 +5053,51 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131025472</v>
+        <v>131025489</v>
       </c>
       <c r="B42" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5105,29 +5105,28 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -5137,10 +5136,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>464419</v>
+        <v>464035</v>
       </c>
       <c r="R42" t="n">
-        <v>7042316</v>
+        <v>7042354</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5177,7 +5176,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Växer på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5186,6 +5185,7 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5196,22 +5196,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131025524</v>
+        <v>131025478</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5774,34 +5774,42 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>464041</v>
+        <v>464380</v>
       </c>
       <c r="R48" t="n">
-        <v>7042631</v>
+        <v>7042301</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5838,7 +5846,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>På gamgran.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en levande gran. Medelhögt livsmiljövärde för tretåig hackspett på fyndplatsen baserat på volym stående död ved.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5849,6 +5857,31 @@
       </c>
       <c r="AG48" t="b">
         <v>0</v>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -5865,7 +5898,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131025511</v>
+        <v>131025524</v>
       </c>
       <c r="B49" t="n">
         <v>79243</v>
@@ -5900,10 +5933,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>464483</v>
+        <v>464041</v>
       </c>
       <c r="R49" t="n">
-        <v>7042518</v>
+        <v>7042631</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5940,7 +5973,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På gamgran.</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5967,10 +6000,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131025495</v>
+        <v>131025482</v>
       </c>
       <c r="B50" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5978,30 +6011,42 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>463986</v>
+        <v>464034</v>
       </c>
       <c r="R50" t="n">
-        <v>7042522</v>
+        <v>7042322</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6038,7 +6083,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>I stående död klen gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6049,6 +6094,31 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
+      </c>
+      <c r="AH50" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK50" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
@@ -6065,10 +6135,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131025478</v>
+        <v>131025511</v>
       </c>
       <c r="B51" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6076,42 +6146,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>464380</v>
+        <v>464483</v>
       </c>
       <c r="R51" t="n">
-        <v>7042301</v>
+        <v>7042518</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6148,7 +6210,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en levande gran. Medelhögt livsmiljövärde för tretåig hackspett på fyndplatsen baserat på volym stående död ved.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6159,31 +6221,6 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ51" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK51" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
@@ -6200,10 +6237,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131025471</v>
+        <v>131025495</v>
       </c>
       <c r="B52" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6211,42 +6248,30 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>464444</v>
+        <v>463986</v>
       </c>
       <c r="R52" t="n">
-        <v>7042363</v>
+        <v>7042522</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6283,7 +6308,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en böjd gran.</t>
+          <t>I stående död klen gran.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6294,36 +6319,6 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
-      </c>
-      <c r="AH52" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI52" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
-        </is>
-      </c>
-      <c r="AJ52" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM52" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6340,7 +6335,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131025482</v>
+        <v>131025471</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -6383,10 +6378,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>464034</v>
+        <v>464444</v>
       </c>
       <c r="R53" t="n">
-        <v>7042322</v>
+        <v>7042363</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6423,7 +6418,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack, äldre, på stambasen av en böjd gran.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6438,6 +6433,11 @@
       <c r="AH53" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
         </is>
       </c>
       <c r="AJ53" t="inlineStr">
@@ -6475,10 +6475,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131024501</v>
+        <v>131024510</v>
       </c>
       <c r="B54" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6486,23 +6486,19 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6510,10 +6506,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>464070</v>
+        <v>464031</v>
       </c>
       <c r="R54" t="n">
-        <v>7042517</v>
+        <v>7042403</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6809,10 +6805,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131025469</v>
+        <v>131025504</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6820,42 +6816,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>464464</v>
+        <v>464204</v>
       </c>
       <c r="R57" t="n">
-        <v>7042544</v>
+        <v>7042559</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6892,7 +6880,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en granhögstubbe.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6903,31 +6891,6 @@
       </c>
       <c r="AG57" t="b">
         <v>0</v>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
@@ -6944,10 +6907,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131024511</v>
+        <v>131025469</v>
       </c>
       <c r="B58" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6955,30 +6918,42 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>463866</v>
+        <v>464464</v>
       </c>
       <c r="R58" t="n">
-        <v>7042468</v>
+        <v>7042544</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7013,6 +6988,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -7021,23 +7001,48 @@
       </c>
       <c r="AG58" t="b">
         <v>0</v>
+      </c>
+      <c r="AH58" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ58" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK58" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM58" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO58" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131024510</v>
+        <v>131024511</v>
       </c>
       <c r="B59" t="n">
         <v>91828</v>
@@ -7068,10 +7073,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>464031</v>
+        <v>463866</v>
       </c>
       <c r="R59" t="n">
-        <v>7042403</v>
+        <v>7042468</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7130,10 +7135,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131024507</v>
+        <v>131024501</v>
       </c>
       <c r="B60" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7141,19 +7146,23 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7161,10 +7170,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>464395</v>
+        <v>464070</v>
       </c>
       <c r="R60" t="n">
-        <v>7042406</v>
+        <v>7042517</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7223,10 +7232,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131025504</v>
+        <v>131024507</v>
       </c>
       <c r="B61" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7234,34 +7243,30 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>464204</v>
+        <v>464395</v>
       </c>
       <c r="R61" t="n">
-        <v>7042559</v>
+        <v>7042406</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7296,11 +7301,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>På gran.</t>
-        </is>
-      </c>
       <c r="AD61" t="b">
         <v>0</v>
       </c>
@@ -7313,22 +7313,22 @@
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131025508</v>
+        <v>131024460</v>
       </c>
       <c r="B62" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7336,34 +7336,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>464310</v>
+        <v>464385</v>
       </c>
       <c r="R62" t="n">
-        <v>7042565</v>
+        <v>7042401</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7415,19 +7415,19 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131024460</v>
+        <v>131024450</v>
       </c>
       <c r="B63" t="n">
         <v>57884</v>
@@ -7462,10 +7462,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>464385</v>
+        <v>464273</v>
       </c>
       <c r="R63" t="n">
-        <v>7042401</v>
+        <v>7042500</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7529,10 +7529,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131024450</v>
+        <v>131025508</v>
       </c>
       <c r="B64" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7540,34 +7540,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>464273</v>
+        <v>464310</v>
       </c>
       <c r="R64" t="n">
-        <v>7042500</v>
+        <v>7042565</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7619,39 +7619,39 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131024456</v>
+        <v>131024494</v>
       </c>
       <c r="B65" t="n">
-        <v>57884</v>
+        <v>57988</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>103031</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Perisoreus infaustus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -7659,17 +7659,29 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr"/>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>464439</v>
+        <v>464304</v>
       </c>
       <c r="R65" t="n">
-        <v>7042505</v>
+        <v>7042379</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7702,11 +7714,6 @@
       <c r="AA65" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7733,57 +7740,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131024494</v>
+        <v>131024509</v>
       </c>
       <c r="B66" t="n">
-        <v>57988</v>
+        <v>91828</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>103031</v>
+        <v>5432</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>464304</v>
+        <v>464214</v>
       </c>
       <c r="R66" t="n">
-        <v>7042379</v>
+        <v>7042282</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7842,10 +7833,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131024509</v>
+        <v>131024456</v>
       </c>
       <c r="B67" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7853,19 +7844,23 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -7873,10 +7868,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>464214</v>
+        <v>464439</v>
       </c>
       <c r="R67" t="n">
-        <v>7042282</v>
+        <v>7042505</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7909,6 +7904,11 @@
       <c r="AA67" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7935,10 +7935,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131025516</v>
+        <v>131025479</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7946,34 +7946,42 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>464319</v>
+        <v>464380</v>
       </c>
       <c r="R68" t="n">
-        <v>7042262</v>
+        <v>7042291</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8010,7 +8018,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD 20 cm).</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8021,6 +8029,31 @@
       </c>
       <c r="AG68" t="b">
         <v>0</v>
+      </c>
+      <c r="AH68" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM68" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -8037,10 +8070,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131025479</v>
+        <v>131025516</v>
       </c>
       <c r="B69" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8048,42 +8081,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>464380</v>
+        <v>464319</v>
       </c>
       <c r="R69" t="n">
-        <v>7042291</v>
+        <v>7042262</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8120,7 +8145,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD 20 cm).</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8131,31 +8156,6 @@
       </c>
       <c r="AG69" t="b">
         <v>0</v>
-      </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ69" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK69" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM69" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO69" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
@@ -8613,10 +8613,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131024451</v>
+        <v>131025521</v>
       </c>
       <c r="B74" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8624,34 +8624,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>464275</v>
+        <v>464007</v>
       </c>
       <c r="R74" t="n">
-        <v>7042455</v>
+        <v>7042409</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8688,7 +8688,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8703,19 +8703,19 @@
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131025480</v>
+        <v>131024451</v>
       </c>
       <c r="B75" t="n">
         <v>57884</v>
@@ -8744,24 +8744,16 @@
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>464378</v>
+        <v>464275</v>
       </c>
       <c r="R75" t="n">
-        <v>7042302</v>
+        <v>7042455</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8798,7 +8790,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD &gt;10cm).</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8809,51 +8801,26 @@
       </c>
       <c r="AG75" t="b">
         <v>0</v>
-      </c>
-      <c r="AH75" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ75" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK75" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM75" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO75" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131025521</v>
+        <v>131025480</v>
       </c>
       <c r="B76" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8861,34 +8828,42 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>464007</v>
+        <v>464378</v>
       </c>
       <c r="R76" t="n">
-        <v>7042409</v>
+        <v>7042302</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8925,7 +8900,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD &gt;10cm).</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8936,6 +8911,31 @@
       </c>
       <c r="AG76" t="b">
         <v>0</v>
+      </c>
+      <c r="AH76" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
@@ -8952,10 +8952,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131025492</v>
+        <v>131025523</v>
       </c>
       <c r="B77" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8963,41 +8963,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>464400</v>
+        <v>463999</v>
       </c>
       <c r="R77" t="n">
-        <v>7042294</v>
+        <v>7042559</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9034,7 +9027,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9043,34 +9036,8 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
-      </c>
-      <c r="AH77" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ77" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK77" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM77" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO77" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
@@ -9087,10 +9054,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131025523</v>
+        <v>131025492</v>
       </c>
       <c r="B78" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9098,34 +9065,41 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>463999</v>
+        <v>464400</v>
       </c>
       <c r="R78" t="n">
-        <v>7042559</v>
+        <v>7042294</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9162,7 +9136,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9171,8 +9145,34 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
+      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
+      </c>
+      <c r="AH78" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM78" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
@@ -9291,10 +9291,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131025490</v>
+        <v>131024470</v>
       </c>
       <c r="B80" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9302,41 +9302,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>463994</v>
+        <v>464325</v>
       </c>
       <c r="R80" t="n">
-        <v>7042378</v>
+        <v>7042334</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9373,7 +9366,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9382,51 +9375,25 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
-      </c>
-      <c r="AH80" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ80" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK80" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM80" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO80" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131024470</v>
+        <v>131024461</v>
       </c>
       <c r="B81" t="n">
         <v>57884</v>
@@ -9461,10 +9428,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>464325</v>
+        <v>464377</v>
       </c>
       <c r="R81" t="n">
-        <v>7042334</v>
+        <v>7042402</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9501,7 +9468,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9528,10 +9495,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131024461</v>
+        <v>131025490</v>
       </c>
       <c r="B82" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9539,34 +9506,41 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>464377</v>
+        <v>463994</v>
       </c>
       <c r="R82" t="n">
-        <v>7042402</v>
+        <v>7042378</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9603,7 +9577,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9612,28 +9586,54 @@
       <c r="AE82" t="b">
         <v>0</v>
       </c>
+      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
+      </c>
+      <c r="AH82" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM82" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO82" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131025520</v>
+        <v>131024505</v>
       </c>
       <c r="B83" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9641,34 +9641,30 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>464027</v>
+        <v>464276</v>
       </c>
       <c r="R83" t="n">
-        <v>7042318</v>
+        <v>7042457</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9703,11 +9699,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD83" t="b">
         <v>0</v>
       </c>
@@ -9720,19 +9711,19 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131024505</v>
+        <v>131024508</v>
       </c>
       <c r="B84" t="n">
         <v>91828</v>
@@ -9763,10 +9754,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>464276</v>
+        <v>464083</v>
       </c>
       <c r="R84" t="n">
-        <v>7042457</v>
+        <v>7042298</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9825,10 +9816,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131024508</v>
+        <v>131025520</v>
       </c>
       <c r="B85" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9836,30 +9827,34 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>464083</v>
+        <v>464027</v>
       </c>
       <c r="R85" t="n">
-        <v>7042298</v>
+        <v>7042318</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9894,6 +9889,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
@@ -9906,12 +9906,12 @@
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
@@ -10392,10 +10392,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131025515</v>
+        <v>131024475</v>
       </c>
       <c r="B90" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10403,34 +10403,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>464430</v>
+        <v>464272</v>
       </c>
       <c r="R90" t="n">
-        <v>7042344</v>
+        <v>7042273</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10482,22 +10482,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131024455</v>
+        <v>131025515</v>
       </c>
       <c r="B91" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10505,34 +10505,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>464454</v>
+        <v>464430</v>
       </c>
       <c r="R91" t="n">
-        <v>7042523</v>
+        <v>7042344</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10584,19 +10584,19 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131024466</v>
+        <v>131024455</v>
       </c>
       <c r="B92" t="n">
         <v>57884</v>
@@ -10631,10 +10631,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>464319</v>
+        <v>464454</v>
       </c>
       <c r="R92" t="n">
-        <v>7042385</v>
+        <v>7042523</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10698,7 +10698,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131024475</v>
+        <v>131024466</v>
       </c>
       <c r="B93" t="n">
         <v>57884</v>
@@ -10733,10 +10733,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>464272</v>
+        <v>464319</v>
       </c>
       <c r="R93" t="n">
-        <v>7042273</v>
+        <v>7042385</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10800,10 +10800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131024512</v>
+        <v>131025473</v>
       </c>
       <c r="B94" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10811,30 +10811,42 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>464059</v>
+        <v>464413</v>
       </c>
       <c r="R94" t="n">
-        <v>7042514</v>
+        <v>7042312</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10869,6 +10881,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
+        </is>
+      </c>
       <c r="AD94" t="b">
         <v>0</v>
       </c>
@@ -10877,26 +10894,56 @@
       </c>
       <c r="AG94" t="b">
         <v>0</v>
+      </c>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI94" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131025473</v>
+        <v>131024512</v>
       </c>
       <c r="B95" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10904,42 +10951,30 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>464413</v>
+        <v>464059</v>
       </c>
       <c r="R95" t="n">
-        <v>7042312</v>
+        <v>7042514</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10974,11 +11009,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
-        </is>
-      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
@@ -10987,56 +11017,26 @@
       </c>
       <c r="AG95" t="b">
         <v>0</v>
-      </c>
-      <c r="AH95" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI95" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
-        </is>
-      </c>
-      <c r="AJ95" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK95" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM95" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO95" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131024452</v>
+        <v>131025507</v>
       </c>
       <c r="B96" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -11044,34 +11044,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>464339</v>
+        <v>464297</v>
       </c>
       <c r="R96" t="n">
-        <v>7042474</v>
+        <v>7042525</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11108,7 +11108,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Långväxta bålar på gran i barrblandskog.</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11123,19 +11123,19 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131025484</v>
+        <v>131024452</v>
       </c>
       <c r="B97" t="n">
         <v>57884</v>
@@ -11164,24 +11164,16 @@
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>464099</v>
+        <v>464339</v>
       </c>
       <c r="R97" t="n">
-        <v>7042646</v>
+        <v>7042474</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11218,7 +11210,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, tydliga på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11229,51 +11221,26 @@
       </c>
       <c r="AG97" t="b">
         <v>0</v>
-      </c>
-      <c r="AH97" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ97" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK97" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM97" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO97" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131025507</v>
+        <v>131025484</v>
       </c>
       <c r="B98" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -11281,34 +11248,42 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>464297</v>
+        <v>464099</v>
       </c>
       <c r="R98" t="n">
-        <v>7042525</v>
+        <v>7042646</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11345,7 +11320,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i barrblandskog.</t>
+          <t>Ringhack, äldre, tydliga på gran.</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11356,6 +11331,31 @@
       </c>
       <c r="AG98" t="b">
         <v>0</v>
+      </c>
+      <c r="AH98" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM98" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">

--- a/artfynd/A 62205-2025 artfynd.xlsx
+++ b/artfynd/A 62205-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131024454</v>
+        <v>131025505</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>464321</v>
+        <v>464214</v>
       </c>
       <c r="R2" t="n">
-        <v>7042482</v>
+        <v>7042578</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -770,19 +770,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131025505</v>
+        <v>131025514</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>464214</v>
+        <v>464434</v>
       </c>
       <c r="R3" t="n">
-        <v>7042578</v>
+        <v>7042377</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På flera granar vid en lucka.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131025514</v>
+        <v>131024454</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,34 +895,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>464434</v>
+        <v>464321</v>
       </c>
       <c r="R4" t="n">
-        <v>7042377</v>
+        <v>7042482</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På flera granar vid en lucka.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -974,12 +974,12 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131024467</v>
+        <v>131025494</v>
       </c>
       <c r="B9" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1438,34 +1438,30 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>464322</v>
+        <v>464471</v>
       </c>
       <c r="R9" t="n">
-        <v>7042355</v>
+        <v>7042462</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1502,7 +1498,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>I granstubbe.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1517,12 +1513,12 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
@@ -2174,10 +2170,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131025494</v>
+        <v>131025463</v>
       </c>
       <c r="B16" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2185,30 +2181,42 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>464471</v>
+        <v>464211</v>
       </c>
       <c r="R16" t="n">
-        <v>7042462</v>
+        <v>7042581</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2245,7 +2253,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>I granstubbe.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2256,6 +2264,31 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2272,7 +2305,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131025463</v>
+        <v>131024467</v>
       </c>
       <c r="B17" t="n">
         <v>57884</v>
@@ -2301,24 +2334,16 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>464211</v>
+        <v>464322</v>
       </c>
       <c r="R17" t="n">
-        <v>7042581</v>
+        <v>7042355</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2355,7 +2380,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2366,41 +2391,16 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -2509,10 +2509,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131024468</v>
+        <v>131025525</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2520,34 +2520,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>464332</v>
+        <v>464067</v>
       </c>
       <c r="R19" t="n">
-        <v>7042344</v>
+        <v>7042585</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2599,19 +2599,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131024458</v>
+        <v>131025468</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2640,16 +2640,24 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>464405</v>
+        <v>464445</v>
       </c>
       <c r="R20" t="n">
-        <v>7042391</v>
+        <v>7042578</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2686,7 +2694,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2697,23 +2705,48 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AH20" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM20" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131024464</v>
+        <v>131024468</v>
       </c>
       <c r="B21" t="n">
         <v>57884</v>
@@ -2748,10 +2781,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>464337</v>
+        <v>464332</v>
       </c>
       <c r="R21" t="n">
-        <v>7042380</v>
+        <v>7042344</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2815,10 +2848,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131025525</v>
+        <v>131024458</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2826,34 +2859,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>464067</v>
+        <v>464405</v>
       </c>
       <c r="R22" t="n">
-        <v>7042585</v>
+        <v>7042391</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2890,7 +2923,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2905,19 +2938,19 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131025468</v>
+        <v>131024464</v>
       </c>
       <c r="B23" t="n">
         <v>57884</v>
@@ -2946,24 +2979,16 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>464445</v>
+        <v>464337</v>
       </c>
       <c r="R23" t="n">
-        <v>7042578</v>
+        <v>7042380</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3000,7 +3025,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3011,51 +3036,26 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AH23" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM23" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131024476</v>
+        <v>131025528</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,34 +3063,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>464255</v>
+        <v>464199</v>
       </c>
       <c r="R24" t="n">
-        <v>7042273</v>
+        <v>7042793</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3142,12 +3142,12 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
@@ -3424,7 +3424,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131024449</v>
+        <v>131025485</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3453,16 +3453,24 @@
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>464183</v>
+        <v>464186</v>
       </c>
       <c r="R27" t="n">
-        <v>7042531</v>
+        <v>7042779</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3499,7 +3507,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3510,23 +3518,48 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131024474</v>
+        <v>131024476</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3561,10 +3594,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>464280</v>
+        <v>464255</v>
       </c>
       <c r="R28" t="n">
-        <v>7042322</v>
+        <v>7042273</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3628,10 +3661,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131025528</v>
+        <v>131024449</v>
       </c>
       <c r="B29" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3639,34 +3672,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>464199</v>
+        <v>464183</v>
       </c>
       <c r="R29" t="n">
-        <v>7042793</v>
+        <v>7042531</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3703,7 +3736,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3718,19 +3751,19 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131025485</v>
+        <v>131024474</v>
       </c>
       <c r="B30" t="n">
         <v>57884</v>
@@ -3759,24 +3792,16 @@
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>464186</v>
+        <v>464280</v>
       </c>
       <c r="R30" t="n">
-        <v>7042779</v>
+        <v>7042322</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3813,7 +3838,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3824,41 +3849,16 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131024465</v>
+        <v>131025464</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4098,16 +4098,24 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>464328</v>
+        <v>464210</v>
       </c>
       <c r="R33" t="n">
-        <v>7042367</v>
+        <v>7042574</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4144,7 +4152,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4155,23 +4163,48 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
+      </c>
+      <c r="AH33" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM33" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131024446</v>
+        <v>131024465</v>
       </c>
       <c r="B34" t="n">
         <v>57884</v>
@@ -4200,24 +4233,16 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>463828</v>
+        <v>464328</v>
       </c>
       <c r="R34" t="n">
-        <v>7042514</v>
+        <v>7042367</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4254,14 +4279,14 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Gammalt bohål i grantickerötad gran</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" t="b">
         <v>0</v>
@@ -4281,7 +4306,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131025464</v>
+        <v>131024446</v>
       </c>
       <c r="B35" t="n">
         <v>57884</v>
@@ -4314,20 +4339,20 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>gammalt bo</t>
         </is>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>464210</v>
+        <v>463828</v>
       </c>
       <c r="R35" t="n">
-        <v>7042574</v>
+        <v>7042514</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4364,62 +4389,37 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Gammalt bohål i grantickerötad gran</t>
         </is>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AH35" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM35" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131025517</v>
+        <v>131025465</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4427,34 +4427,42 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>464199</v>
+        <v>464268</v>
       </c>
       <c r="R36" t="n">
-        <v>7042210</v>
+        <v>7042527</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4491,7 +4499,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4502,6 +4510,31 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4518,10 +4551,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131025527</v>
+        <v>131025489</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4529,34 +4562,41 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>464174</v>
+        <v>464035</v>
       </c>
       <c r="R37" t="n">
-        <v>7042780</v>
+        <v>7042354</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4593,7 +4633,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>Växer på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4602,8 +4642,34 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4620,10 +4686,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131025465</v>
+        <v>131025517</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4631,42 +4697,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>464268</v>
+        <v>464199</v>
       </c>
       <c r="R38" t="n">
-        <v>7042527</v>
+        <v>7042210</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4703,7 +4761,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4714,31 +4772,6 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AH38" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM38" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -4755,10 +4788,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131024448</v>
+        <v>131025527</v>
       </c>
       <c r="B39" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4766,34 +4799,34 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>464165</v>
+        <v>464174</v>
       </c>
       <c r="R39" t="n">
-        <v>7042546</v>
+        <v>7042780</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4830,7 +4863,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4845,19 +4878,19 @@
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX39" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131024478</v>
+        <v>131024448</v>
       </c>
       <c r="B40" t="n">
         <v>57884</v>
@@ -4892,10 +4925,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>464232</v>
+        <v>464165</v>
       </c>
       <c r="R40" t="n">
-        <v>7042762</v>
+        <v>7042546</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4959,7 +4992,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131025472</v>
+        <v>131024478</v>
       </c>
       <c r="B41" t="n">
         <v>57884</v>
@@ -4988,24 +5021,16 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>464419</v>
+        <v>464232</v>
       </c>
       <c r="R41" t="n">
-        <v>7042316</v>
+        <v>7042762</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5042,7 +5067,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5053,51 +5078,26 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131025489</v>
+        <v>131025472</v>
       </c>
       <c r="B42" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5105,28 +5105,29 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N42" t="inlineStr"/>
@@ -5136,10 +5137,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>464035</v>
+        <v>464419</v>
       </c>
       <c r="R42" t="n">
-        <v>7042354</v>
+        <v>7042316</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5176,7 +5177,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Växer på en grov gammal sälg.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5185,7 +5186,6 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5196,22 +5196,22 @@
       </c>
       <c r="AJ42" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT42" t="inlineStr"/>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131024462</v>
+        <v>131025466</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -5258,16 +5258,24 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>464376</v>
+        <v>464389</v>
       </c>
       <c r="R43" t="n">
-        <v>7042402</v>
+        <v>7042585</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5304,7 +5312,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på en stående död gran med 20 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5315,23 +5323,48 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131024457</v>
+        <v>131024462</v>
       </c>
       <c r="B44" t="n">
         <v>57884</v>
@@ -5366,10 +5399,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>464399</v>
+        <v>464376</v>
       </c>
       <c r="R44" t="n">
-        <v>7042460</v>
+        <v>7042402</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5406,7 +5439,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5433,7 +5466,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131025466</v>
+        <v>131024457</v>
       </c>
       <c r="B45" t="n">
         <v>57884</v>
@@ -5462,24 +5495,16 @@
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>464389</v>
+        <v>464399</v>
       </c>
       <c r="R45" t="n">
-        <v>7042585</v>
+        <v>7042460</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5516,7 +5541,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en stående död gran med 20 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5527,41 +5552,16 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
-      </c>
-      <c r="AH45" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ45" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK45" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM45" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO45" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131025478</v>
+        <v>131025495</v>
       </c>
       <c r="B48" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5774,42 +5774,30 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>464380</v>
+        <v>463986</v>
       </c>
       <c r="R48" t="n">
-        <v>7042301</v>
+        <v>7042522</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5846,7 +5834,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en levande gran. Medelhögt livsmiljövärde för tretåig hackspett på fyndplatsen baserat på volym stående död ved.</t>
+          <t>I stående död klen gran.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5857,31 +5845,6 @@
       </c>
       <c r="AG48" t="b">
         <v>0</v>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ48" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM48" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
@@ -6000,10 +5963,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131025482</v>
+        <v>131025511</v>
       </c>
       <c r="B50" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -6011,42 +5974,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>464034</v>
+        <v>464483</v>
       </c>
       <c r="R50" t="n">
-        <v>7042322</v>
+        <v>7042518</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6083,7 +6038,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6094,31 +6049,6 @@
       </c>
       <c r="AG50" t="b">
         <v>0</v>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ50" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK50" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
@@ -6135,10 +6065,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>131025511</v>
+        <v>131025478</v>
       </c>
       <c r="B51" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -6146,34 +6076,42 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>464483</v>
+        <v>464380</v>
       </c>
       <c r="R51" t="n">
-        <v>7042518</v>
+        <v>7042301</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6210,7 +6148,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en levande gran. Medelhögt livsmiljövärde för tretåig hackspett på fyndplatsen baserat på volym stående död ved.</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6221,6 +6159,31 @@
       </c>
       <c r="AG51" t="b">
         <v>0</v>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
@@ -6237,10 +6200,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131025495</v>
+        <v>131025482</v>
       </c>
       <c r="B52" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -6248,30 +6211,42 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>463986</v>
+        <v>464034</v>
       </c>
       <c r="R52" t="n">
-        <v>7042522</v>
+        <v>7042322</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6308,7 +6283,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>I stående död klen gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6319,6 +6294,31 @@
       </c>
       <c r="AG52" t="b">
         <v>0</v>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT52" t="inlineStr"/>
       <c r="AW52" t="inlineStr">
@@ -6475,10 +6475,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131024510</v>
+        <v>131024501</v>
       </c>
       <c r="B54" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6486,19 +6486,23 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6506,10 +6510,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>464031</v>
+        <v>464070</v>
       </c>
       <c r="R54" t="n">
-        <v>7042403</v>
+        <v>7042517</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6568,10 +6572,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131024463</v>
+        <v>131025504</v>
       </c>
       <c r="B55" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6579,34 +6583,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>464371</v>
+        <v>464204</v>
       </c>
       <c r="R55" t="n">
-        <v>7042397</v>
+        <v>7042559</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6643,7 +6647,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6658,12 +6662,12 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
@@ -6805,10 +6809,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131025504</v>
+        <v>131025469</v>
       </c>
       <c r="B57" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6816,34 +6820,42 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>464204</v>
+        <v>464464</v>
       </c>
       <c r="R57" t="n">
-        <v>7042559</v>
+        <v>7042544</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6880,7 +6892,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, äldre, på en granhögstubbe.</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6891,6 +6903,31 @@
       </c>
       <c r="AG57" t="b">
         <v>0</v>
+      </c>
+      <c r="AH57" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ57" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK57" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM57" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO57" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
@@ -6907,7 +6944,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131025469</v>
+        <v>131024463</v>
       </c>
       <c r="B58" t="n">
         <v>57884</v>
@@ -6936,24 +6973,16 @@
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>464464</v>
+        <v>464371</v>
       </c>
       <c r="R58" t="n">
-        <v>7042544</v>
+        <v>7042397</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6990,7 +7019,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en granhögstubbe.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7001,41 +7030,16 @@
       </c>
       <c r="AG58" t="b">
         <v>0</v>
-      </c>
-      <c r="AH58" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ58" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK58" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM58" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO58" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
@@ -7135,10 +7139,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131024501</v>
+        <v>131024510</v>
       </c>
       <c r="B60" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7146,23 +7150,19 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
@@ -7170,10 +7170,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>464070</v>
+        <v>464031</v>
       </c>
       <c r="R60" t="n">
-        <v>7042517</v>
+        <v>7042403</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7325,10 +7325,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>131024460</v>
+        <v>131025508</v>
       </c>
       <c r="B62" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7336,34 +7336,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>464385</v>
+        <v>464310</v>
       </c>
       <c r="R62" t="n">
-        <v>7042401</v>
+        <v>7042565</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7415,19 +7415,19 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131024450</v>
+        <v>131024460</v>
       </c>
       <c r="B63" t="n">
         <v>57884</v>
@@ -7462,10 +7462,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>464273</v>
+        <v>464385</v>
       </c>
       <c r="R63" t="n">
-        <v>7042500</v>
+        <v>7042401</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7529,10 +7529,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131025508</v>
+        <v>131024450</v>
       </c>
       <c r="B64" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7540,34 +7540,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>464310</v>
+        <v>464273</v>
       </c>
       <c r="R64" t="n">
-        <v>7042565</v>
+        <v>7042500</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7619,12 +7619,12 @@
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr"/>
@@ -8172,7 +8172,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131024472</v>
+        <v>131025481</v>
       </c>
       <c r="B70" t="n">
         <v>57884</v>
@@ -8201,16 +8201,24 @@
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>464305</v>
+        <v>464066</v>
       </c>
       <c r="R70" t="n">
-        <v>7042324</v>
+        <v>7042307</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8247,7 +8255,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8258,23 +8266,48 @@
       </c>
       <c r="AG70" t="b">
         <v>0</v>
+      </c>
+      <c r="AH70" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ70" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK70" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM70" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO70" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131024477</v>
+        <v>131024472</v>
       </c>
       <c r="B71" t="n">
         <v>57884</v>
@@ -8309,10 +8342,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>464028</v>
+        <v>464305</v>
       </c>
       <c r="R71" t="n">
-        <v>7042322</v>
+        <v>7042324</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8376,7 +8409,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131025481</v>
+        <v>131024477</v>
       </c>
       <c r="B72" t="n">
         <v>57884</v>
@@ -8405,24 +8438,16 @@
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>464066</v>
+        <v>464028</v>
       </c>
       <c r="R72" t="n">
-        <v>7042307</v>
+        <v>7042322</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8459,7 +8484,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8470,51 +8495,26 @@
       </c>
       <c r="AG72" t="b">
         <v>0</v>
-      </c>
-      <c r="AH72" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ72" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK72" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM72" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO72" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>131024453</v>
+        <v>131025521</v>
       </c>
       <c r="B73" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8522,34 +8522,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>464327</v>
+        <v>464007</v>
       </c>
       <c r="R73" t="n">
-        <v>7042477</v>
+        <v>7042409</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8601,22 +8601,22 @@
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131025521</v>
+        <v>131025480</v>
       </c>
       <c r="B74" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -8624,34 +8624,42 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>464007</v>
+        <v>464378</v>
       </c>
       <c r="R74" t="n">
-        <v>7042409</v>
+        <v>7042302</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8688,7 +8696,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD &gt;10cm).</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8699,6 +8707,31 @@
       </c>
       <c r="AG74" t="b">
         <v>0</v>
+      </c>
+      <c r="AH74" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ74" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK74" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM74" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO74" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
@@ -8715,7 +8748,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131024451</v>
+        <v>131024453</v>
       </c>
       <c r="B75" t="n">
         <v>57884</v>
@@ -8750,10 +8783,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>464275</v>
+        <v>464327</v>
       </c>
       <c r="R75" t="n">
-        <v>7042455</v>
+        <v>7042477</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8817,7 +8850,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131025480</v>
+        <v>131024451</v>
       </c>
       <c r="B76" t="n">
         <v>57884</v>
@@ -8846,24 +8879,16 @@
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>464378</v>
+        <v>464275</v>
       </c>
       <c r="R76" t="n">
-        <v>7042302</v>
+        <v>7042455</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8900,7 +8925,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD &gt;10cm).</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8911,51 +8936,26 @@
       </c>
       <c r="AG76" t="b">
         <v>0</v>
-      </c>
-      <c r="AH76" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ76" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK76" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM76" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO76" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131025523</v>
+        <v>131025492</v>
       </c>
       <c r="B77" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8963,34 +8963,41 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>463999</v>
+        <v>464400</v>
       </c>
       <c r="R77" t="n">
-        <v>7042559</v>
+        <v>7042294</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9027,7 +9034,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9036,8 +9043,34 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
+      </c>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
@@ -9054,10 +9087,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131025492</v>
+        <v>131025490</v>
       </c>
       <c r="B78" t="n">
-        <v>91804</v>
+        <v>80349</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9065,28 +9098,28 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -9096,10 +9129,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>464400</v>
+        <v>463994</v>
       </c>
       <c r="R78" t="n">
-        <v>7042294</v>
+        <v>7042378</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9136,7 +9169,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9156,22 +9189,22 @@
       </c>
       <c r="AJ78" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK78" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM78" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -9189,7 +9222,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131025503</v>
+        <v>131025523</v>
       </c>
       <c r="B79" t="n">
         <v>79243</v>
@@ -9224,10 +9257,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>464158</v>
+        <v>463999</v>
       </c>
       <c r="R79" t="n">
-        <v>7042548</v>
+        <v>7042559</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9264,7 +9297,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9291,10 +9324,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131024470</v>
+        <v>131025503</v>
       </c>
       <c r="B80" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9302,34 +9335,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>464325</v>
+        <v>464158</v>
       </c>
       <c r="R80" t="n">
-        <v>7042334</v>
+        <v>7042548</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9366,7 +9399,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9381,19 +9414,19 @@
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131024461</v>
+        <v>131024470</v>
       </c>
       <c r="B81" t="n">
         <v>57884</v>
@@ -9428,10 +9461,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>464377</v>
+        <v>464325</v>
       </c>
       <c r="R81" t="n">
-        <v>7042402</v>
+        <v>7042334</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9468,7 +9501,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9495,10 +9528,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131025490</v>
+        <v>131024461</v>
       </c>
       <c r="B82" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9506,41 +9539,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>463994</v>
+        <v>464377</v>
       </c>
       <c r="R82" t="n">
-        <v>7042378</v>
+        <v>7042402</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9577,7 +9603,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9586,44 +9612,18 @@
       <c r="AE82" t="b">
         <v>0</v>
       </c>
-      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
-      </c>
-      <c r="AH82" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ82" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK82" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM82" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO82" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
@@ -10053,7 +10053,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131024473</v>
+        <v>131025477</v>
       </c>
       <c r="B87" t="n">
         <v>57884</v>
@@ -10082,16 +10082,24 @@
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>464305</v>
+        <v>464374</v>
       </c>
       <c r="R87" t="n">
-        <v>7042334</v>
+        <v>7042300</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10128,7 +10136,7 @@
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10139,23 +10147,48 @@
       </c>
       <c r="AG87" t="b">
         <v>0</v>
+      </c>
+      <c r="AH87" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131025477</v>
+        <v>131024473</v>
       </c>
       <c r="B88" t="n">
         <v>57884</v>
@@ -10184,24 +10217,16 @@
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>464374</v>
+        <v>464305</v>
       </c>
       <c r="R88" t="n">
-        <v>7042300</v>
+        <v>7042334</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10238,7 +10263,7 @@
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10249,41 +10274,16 @@
       </c>
       <c r="AG88" t="b">
         <v>0</v>
-      </c>
-      <c r="AH88" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ88" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK88" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM88" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO88" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
@@ -10392,10 +10392,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131024475</v>
+        <v>131025515</v>
       </c>
       <c r="B90" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10403,34 +10403,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>464272</v>
+        <v>464430</v>
       </c>
       <c r="R90" t="n">
-        <v>7042273</v>
+        <v>7042344</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10482,22 +10482,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131025515</v>
+        <v>131024475</v>
       </c>
       <c r="B91" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10505,34 +10505,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>464430</v>
+        <v>464272</v>
       </c>
       <c r="R91" t="n">
-        <v>7042344</v>
+        <v>7042273</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10584,12 +10584,12 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131024452</v>
+        <v>131025484</v>
       </c>
       <c r="B97" t="n">
         <v>57884</v>
@@ -11164,16 +11164,24 @@
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>464339</v>
+        <v>464099</v>
       </c>
       <c r="R97" t="n">
-        <v>7042474</v>
+        <v>7042646</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11210,7 +11218,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, tydliga på gran.</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11221,23 +11229,48 @@
       </c>
       <c r="AG97" t="b">
         <v>0</v>
+      </c>
+      <c r="AH97" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM97" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131025484</v>
+        <v>131024452</v>
       </c>
       <c r="B98" t="n">
         <v>57884</v>
@@ -11266,24 +11299,16 @@
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>464099</v>
+        <v>464339</v>
       </c>
       <c r="R98" t="n">
-        <v>7042646</v>
+        <v>7042474</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11320,7 +11345,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, tydliga på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11331,41 +11356,16 @@
       </c>
       <c r="AG98" t="b">
         <v>0</v>
-      </c>
-      <c r="AH98" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ98" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK98" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM98" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO98" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>

--- a/artfynd/A 62205-2025 artfynd.xlsx
+++ b/artfynd/A 62205-2025 artfynd.xlsx
@@ -1190,7 +1190,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131024469</v>
+        <v>131025467</v>
       </c>
       <c r="B7" t="n">
         <v>57884</v>
@@ -1219,16 +1219,24 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>464325</v>
+        <v>464403</v>
       </c>
       <c r="R7" t="n">
-        <v>7042323</v>
+        <v>7042578</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1265,7 +1273,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, färska och äldre, tydliga på en gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1276,23 +1284,48 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131025467</v>
+        <v>131024469</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1321,24 +1354,16 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>464403</v>
+        <v>464325</v>
       </c>
       <c r="R8" t="n">
-        <v>7042578</v>
+        <v>7042323</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1375,7 +1400,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, tydliga på en gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1386,41 +1411,16 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
@@ -1525,10 +1525,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131025506</v>
+        <v>131025488</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,34 +1536,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>464253</v>
+        <v>463958</v>
       </c>
       <c r="R10" t="n">
-        <v>7042536</v>
+        <v>7042484</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1600,7 +1608,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran.</t>
+          <t>Hackspår i stambasen av en levande gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1611,6 +1619,31 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1627,10 +1660,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131025502</v>
+        <v>131024467</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1638,34 +1671,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>464177</v>
+        <v>464322</v>
       </c>
       <c r="R11" t="n">
-        <v>7042606</v>
+        <v>7042355</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1702,7 +1735,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1717,22 +1750,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131025519</v>
+        <v>131025463</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1740,34 +1773,42 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>464076</v>
+        <v>464211</v>
       </c>
       <c r="R12" t="n">
-        <v>7042281</v>
+        <v>7042581</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1804,7 +1845,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1815,6 +1856,31 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1831,7 +1897,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131025512</v>
+        <v>131025506</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1866,10 +1932,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>464451</v>
+        <v>464253</v>
       </c>
       <c r="R13" t="n">
-        <v>7042487</v>
+        <v>7042536</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1906,7 +1972,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>På en tydligt gammal gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1933,7 +1999,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131025518</v>
+        <v>131025502</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -1968,10 +2034,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>464161</v>
+        <v>464177</v>
       </c>
       <c r="R14" t="n">
-        <v>7042247</v>
+        <v>7042606</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2035,10 +2101,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131025488</v>
+        <v>131025519</v>
       </c>
       <c r="B15" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,42 +2112,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>463958</v>
+        <v>464076</v>
       </c>
       <c r="R15" t="n">
-        <v>7042484</v>
+        <v>7042281</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2118,7 +2176,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Hackspår i stambasen av en levande gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2129,31 +2187,6 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2170,10 +2203,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131025463</v>
+        <v>131025512</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2181,42 +2214,34 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>464211</v>
+        <v>464451</v>
       </c>
       <c r="R16" t="n">
-        <v>7042581</v>
+        <v>7042487</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2253,7 +2278,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2264,31 +2289,6 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2305,10 +2305,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131024467</v>
+        <v>131025518</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2316,34 +2316,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>464322</v>
+        <v>464161</v>
       </c>
       <c r="R17" t="n">
-        <v>7042355</v>
+        <v>7042247</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2395,12 +2395,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -3052,10 +3052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131025528</v>
+        <v>131025474</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,34 +3063,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>464199</v>
+        <v>464391</v>
       </c>
       <c r="R24" t="n">
-        <v>7042793</v>
+        <v>7042299</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3127,7 +3135,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3138,6 +3146,31 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3154,7 +3187,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131025474</v>
+        <v>131025470</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3197,10 +3230,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>464391</v>
+        <v>464484</v>
       </c>
       <c r="R25" t="n">
-        <v>7042299</v>
+        <v>7042508</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3237,7 +3270,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3289,7 +3322,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131025470</v>
+        <v>131025485</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3332,10 +3365,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>464484</v>
+        <v>464186</v>
       </c>
       <c r="R26" t="n">
-        <v>7042508</v>
+        <v>7042779</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3424,7 +3457,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131025485</v>
+        <v>131024476</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3453,24 +3486,16 @@
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>464186</v>
+        <v>464255</v>
       </c>
       <c r="R27" t="n">
-        <v>7042779</v>
+        <v>7042273</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3507,7 +3532,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3518,48 +3543,23 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131024476</v>
+        <v>131024449</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3594,10 +3594,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>464255</v>
+        <v>464183</v>
       </c>
       <c r="R28" t="n">
-        <v>7042273</v>
+        <v>7042531</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3661,7 +3661,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131024449</v>
+        <v>131024474</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3696,10 +3696,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>464183</v>
+        <v>464280</v>
       </c>
       <c r="R29" t="n">
-        <v>7042531</v>
+        <v>7042322</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3763,10 +3763,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131024474</v>
+        <v>131025528</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3774,34 +3774,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>464280</v>
+        <v>464199</v>
       </c>
       <c r="R30" t="n">
-        <v>7042322</v>
+        <v>7042793</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3838,7 +3838,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3853,22 +3853,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131025509</v>
+        <v>131024465</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3876,34 +3876,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>464380</v>
+        <v>464328</v>
       </c>
       <c r="R31" t="n">
-        <v>7042615</v>
+        <v>7042367</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På en gammal gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3955,22 +3955,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131025522</v>
+        <v>131024446</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3978,34 +3978,42 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>463978</v>
+        <v>463828</v>
       </c>
       <c r="R32" t="n">
-        <v>7042528</v>
+        <v>7042514</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4042,14 +4050,14 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>På en stående död gran med full längd (36 cm bhd).</t>
+          <t>Gammalt bohål i grantickerötad gran</t>
         </is>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG32" t="b">
         <v>0</v>
@@ -4057,12 +4065,12 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
@@ -4204,10 +4212,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131024465</v>
+        <v>131025509</v>
       </c>
       <c r="B34" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4215,34 +4223,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>464328</v>
+        <v>464380</v>
       </c>
       <c r="R34" t="n">
-        <v>7042367</v>
+        <v>7042615</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4279,7 +4287,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På en gammal gran.</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4294,22 +4302,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131024446</v>
+        <v>131025522</v>
       </c>
       <c r="B35" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4317,42 +4325,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>463828</v>
+        <v>463978</v>
       </c>
       <c r="R35" t="n">
-        <v>7042514</v>
+        <v>7042528</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4389,14 +4389,14 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>Gammalt bohål i grantickerötad gran</t>
+          <t>På en stående död gran med full längd (36 cm bhd).</t>
         </is>
       </c>
       <c r="AD35" t="b">
         <v>0</v>
       </c>
       <c r="AE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" t="b">
         <v>0</v>
@@ -4404,12 +4404,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131025489</v>
+        <v>131024448</v>
       </c>
       <c r="B37" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4562,41 +4562,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>464035</v>
+        <v>464165</v>
       </c>
       <c r="R37" t="n">
-        <v>7042354</v>
+        <v>7042546</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4633,7 +4626,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Växer på en grov gammal sälg.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4642,54 +4635,28 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AH37" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM37" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131025517</v>
+        <v>131024478</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4697,34 +4664,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>464199</v>
+        <v>464232</v>
       </c>
       <c r="R38" t="n">
-        <v>7042210</v>
+        <v>7042762</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4761,7 +4728,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4776,22 +4743,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131025527</v>
+        <v>131025489</v>
       </c>
       <c r="B39" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4799,34 +4766,41 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>464174</v>
+        <v>464035</v>
       </c>
       <c r="R39" t="n">
-        <v>7042780</v>
+        <v>7042354</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4863,7 +4837,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>Växer på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4872,8 +4846,34 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
+      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AH39" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM39" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -4890,10 +4890,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131024448</v>
+        <v>131025517</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4901,34 +4901,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>464165</v>
+        <v>464199</v>
       </c>
       <c r="R40" t="n">
-        <v>7042546</v>
+        <v>7042210</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4980,22 +4980,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131024478</v>
+        <v>131025527</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5003,34 +5003,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>464232</v>
+        <v>464174</v>
       </c>
       <c r="R41" t="n">
-        <v>7042762</v>
+        <v>7042780</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5082,12 +5082,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>131025466</v>
+        <v>131024462</v>
       </c>
       <c r="B43" t="n">
         <v>57884</v>
@@ -5258,24 +5258,16 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>464389</v>
+        <v>464376</v>
       </c>
       <c r="R43" t="n">
-        <v>7042585</v>
+        <v>7042402</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5312,7 +5304,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en stående död gran med 20 cm i brösthöjdsdiameter.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5323,48 +5315,23 @@
       </c>
       <c r="AG43" t="b">
         <v>0</v>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ43" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK43" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM43" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO43" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>131024462</v>
+        <v>131024457</v>
       </c>
       <c r="B44" t="n">
         <v>57884</v>
@@ -5399,10 +5366,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>464376</v>
+        <v>464399</v>
       </c>
       <c r="R44" t="n">
-        <v>7042402</v>
+        <v>7042460</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5439,7 +5406,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5466,7 +5433,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>131024457</v>
+        <v>131025466</v>
       </c>
       <c r="B45" t="n">
         <v>57884</v>
@@ -5495,16 +5462,24 @@
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>464399</v>
+        <v>464389</v>
       </c>
       <c r="R45" t="n">
-        <v>7042460</v>
+        <v>7042585</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5541,7 +5516,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, äldre, på en stående död gran med 20 cm i brösthöjdsdiameter.</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5552,16 +5527,41 @@
       </c>
       <c r="AG45" t="b">
         <v>0</v>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY45" t="inlineStr"/>
@@ -5670,10 +5670,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131024506</v>
+        <v>131025524</v>
       </c>
       <c r="B47" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5681,30 +5681,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>464426</v>
+        <v>464041</v>
       </c>
       <c r="R47" t="n">
-        <v>7042565</v>
+        <v>7042631</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5739,6 +5743,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>På gamgran.</t>
+        </is>
+      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
@@ -5751,22 +5760,22 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131025495</v>
+        <v>131025511</v>
       </c>
       <c r="B48" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5774,19 +5783,23 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
@@ -5794,10 +5807,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>463986</v>
+        <v>464483</v>
       </c>
       <c r="R48" t="n">
-        <v>7042522</v>
+        <v>7042518</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5834,7 +5847,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>I stående död klen gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5861,10 +5874,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131025524</v>
+        <v>131024506</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5872,34 +5885,30 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>464041</v>
+        <v>464426</v>
       </c>
       <c r="R49" t="n">
-        <v>7042631</v>
+        <v>7042565</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5934,11 +5943,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>På gamgran.</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
@@ -5951,22 +5955,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131025511</v>
+        <v>131025495</v>
       </c>
       <c r="B50" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5974,23 +5978,19 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>464483</v>
+        <v>463986</v>
       </c>
       <c r="R50" t="n">
-        <v>7042518</v>
+        <v>7042522</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>I stående död klen gran.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6200,7 +6200,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131025482</v>
+        <v>131025471</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -6243,10 +6243,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>464034</v>
+        <v>464444</v>
       </c>
       <c r="R52" t="n">
-        <v>7042322</v>
+        <v>7042363</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack, äldre, på stambasen av en böjd gran.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6298,6 +6298,11 @@
       <c r="AH52" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
@@ -6335,7 +6340,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131025471</v>
+        <v>131025482</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -6378,10 +6383,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>464444</v>
+        <v>464034</v>
       </c>
       <c r="R53" t="n">
-        <v>7042363</v>
+        <v>7042322</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6418,7 +6423,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en böjd gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6433,11 +6438,6 @@
       <c r="AH53" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI53" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
         </is>
       </c>
       <c r="AJ53" t="inlineStr">
@@ -6572,10 +6572,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131025504</v>
+        <v>131024463</v>
       </c>
       <c r="B55" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6583,34 +6583,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>464204</v>
+        <v>464371</v>
       </c>
       <c r="R55" t="n">
-        <v>7042559</v>
+        <v>7042397</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6662,12 +6662,12 @@
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX55" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY55" t="inlineStr"/>
@@ -6944,10 +6944,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131024463</v>
+        <v>131025504</v>
       </c>
       <c r="B58" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6955,34 +6955,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>464371</v>
+        <v>464204</v>
       </c>
       <c r="R58" t="n">
-        <v>7042397</v>
+        <v>7042559</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7034,12 +7034,12 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
@@ -7631,27 +7631,27 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131024494</v>
+        <v>131024456</v>
       </c>
       <c r="B65" t="n">
-        <v>57988</v>
+        <v>57884</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>103031</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -7659,29 +7659,17 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>464304</v>
+        <v>464439</v>
       </c>
       <c r="R65" t="n">
-        <v>7042379</v>
+        <v>7042505</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7714,6 +7702,11 @@
       <c r="AA65" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7740,41 +7733,57 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131024509</v>
+        <v>131024494</v>
       </c>
       <c r="B66" t="n">
-        <v>91828</v>
+        <v>57988</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5432</v>
+        <v>103031</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
+          <t>Perisoreus infaustus</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>464214</v>
+        <v>464304</v>
       </c>
       <c r="R66" t="n">
-        <v>7042282</v>
+        <v>7042379</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7833,10 +7842,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131024456</v>
+        <v>131024509</v>
       </c>
       <c r="B67" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7844,23 +7853,19 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -7868,10 +7873,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>464439</v>
+        <v>464214</v>
       </c>
       <c r="R67" t="n">
-        <v>7042505</v>
+        <v>7042282</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7904,11 +7909,6 @@
       <c r="AA67" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7935,10 +7935,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131025479</v>
+        <v>131025516</v>
       </c>
       <c r="B68" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7946,42 +7946,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>464380</v>
+        <v>464319</v>
       </c>
       <c r="R68" t="n">
-        <v>7042291</v>
+        <v>7042262</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8018,7 +8010,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD 20 cm).</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8029,31 +8021,6 @@
       </c>
       <c r="AG68" t="b">
         <v>0</v>
-      </c>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ68" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK68" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM68" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -8070,10 +8037,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131025516</v>
+        <v>131025479</v>
       </c>
       <c r="B69" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8081,34 +8048,42 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>464319</v>
+        <v>464380</v>
       </c>
       <c r="R69" t="n">
-        <v>7042262</v>
+        <v>7042291</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8145,7 +8120,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD 20 cm).</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8156,6 +8131,31 @@
       </c>
       <c r="AG69" t="b">
         <v>0</v>
+      </c>
+      <c r="AH69" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM69" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
@@ -8172,7 +8172,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>131025481</v>
+        <v>131024472</v>
       </c>
       <c r="B70" t="n">
         <v>57884</v>
@@ -8201,24 +8201,16 @@
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>464066</v>
+        <v>464305</v>
       </c>
       <c r="R70" t="n">
-        <v>7042307</v>
+        <v>7042324</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8255,7 +8247,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8266,48 +8258,23 @@
       </c>
       <c r="AG70" t="b">
         <v>0</v>
-      </c>
-      <c r="AH70" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ70" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK70" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM70" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO70" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX70" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>131024472</v>
+        <v>131024477</v>
       </c>
       <c r="B71" t="n">
         <v>57884</v>
@@ -8342,10 +8309,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>464305</v>
+        <v>464028</v>
       </c>
       <c r="R71" t="n">
-        <v>7042324</v>
+        <v>7042322</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8409,7 +8376,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>131024477</v>
+        <v>131025481</v>
       </c>
       <c r="B72" t="n">
         <v>57884</v>
@@ -8438,16 +8405,24 @@
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>464028</v>
+        <v>464066</v>
       </c>
       <c r="R72" t="n">
-        <v>7042322</v>
+        <v>7042307</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8484,7 +8459,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8495,16 +8470,41 @@
       </c>
       <c r="AG72" t="b">
         <v>0</v>
+      </c>
+      <c r="AH72" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ72" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK72" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM72" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO72" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr"/>
@@ -8613,7 +8613,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>131025480</v>
+        <v>131024453</v>
       </c>
       <c r="B74" t="n">
         <v>57884</v>
@@ -8642,24 +8642,16 @@
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>464378</v>
+        <v>464327</v>
       </c>
       <c r="R74" t="n">
-        <v>7042302</v>
+        <v>7042477</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8696,7 +8688,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD &gt;10cm).</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8707,48 +8699,23 @@
       </c>
       <c r="AG74" t="b">
         <v>0</v>
-      </c>
-      <c r="AH74" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ74" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK74" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM74" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO74" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>131024453</v>
+        <v>131024451</v>
       </c>
       <c r="B75" t="n">
         <v>57884</v>
@@ -8783,10 +8750,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>464327</v>
+        <v>464275</v>
       </c>
       <c r="R75" t="n">
-        <v>7042477</v>
+        <v>7042455</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8850,7 +8817,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>131024451</v>
+        <v>131025480</v>
       </c>
       <c r="B76" t="n">
         <v>57884</v>
@@ -8879,16 +8846,24 @@
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>464275</v>
+        <v>464378</v>
       </c>
       <c r="R76" t="n">
-        <v>7042455</v>
+        <v>7042302</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8925,7 +8900,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD &gt;10cm).</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8936,26 +8911,51 @@
       </c>
       <c r="AG76" t="b">
         <v>0</v>
+      </c>
+      <c r="AH76" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ76" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK76" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM76" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO76" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131025492</v>
+        <v>131024470</v>
       </c>
       <c r="B77" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8963,41 +8963,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>464400</v>
+        <v>464325</v>
       </c>
       <c r="R77" t="n">
-        <v>7042294</v>
+        <v>7042334</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9034,7 +9027,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9043,54 +9036,28 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
-      </c>
-      <c r="AH77" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ77" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK77" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM77" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO77" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131025490</v>
+        <v>131025492</v>
       </c>
       <c r="B78" t="n">
-        <v>80349</v>
+        <v>91804</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9098,28 +9065,28 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>med soral</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -9129,10 +9096,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>463994</v>
+        <v>464400</v>
       </c>
       <c r="R78" t="n">
-        <v>7042378</v>
+        <v>7042294</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9169,7 +9136,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9189,22 +9156,22 @@
       </c>
       <c r="AJ78" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK78" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM78" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -9222,10 +9189,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131025523</v>
+        <v>131025490</v>
       </c>
       <c r="B79" t="n">
-        <v>79243</v>
+        <v>80349</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9233,34 +9200,41 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6425</v>
+        <v>2081</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>463999</v>
+        <v>463994</v>
       </c>
       <c r="R79" t="n">
-        <v>7042559</v>
+        <v>7042378</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9297,7 +9271,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
+          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9306,8 +9280,34 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
+      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
+      </c>
+      <c r="AH79" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ79" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK79" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM79" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO79" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
@@ -9324,7 +9324,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131025503</v>
+        <v>131025523</v>
       </c>
       <c r="B80" t="n">
         <v>79243</v>
@@ -9359,10 +9359,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>464158</v>
+        <v>463999</v>
       </c>
       <c r="R80" t="n">
-        <v>7042548</v>
+        <v>7042559</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9426,10 +9426,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131024470</v>
+        <v>131025503</v>
       </c>
       <c r="B81" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9437,34 +9437,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>464325</v>
+        <v>464158</v>
       </c>
       <c r="R81" t="n">
-        <v>7042334</v>
+        <v>7042548</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9516,12 +9516,12 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
@@ -9816,10 +9816,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131025520</v>
+        <v>131025475</v>
       </c>
       <c r="B85" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9827,34 +9827,42 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>464027</v>
+        <v>464393</v>
       </c>
       <c r="R85" t="n">
-        <v>7042318</v>
+        <v>7042284</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9891,7 +9899,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9902,6 +9910,31 @@
       </c>
       <c r="AG85" t="b">
         <v>0</v>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM85" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
@@ -9918,7 +9951,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131025475</v>
+        <v>131025477</v>
       </c>
       <c r="B86" t="n">
         <v>57884</v>
@@ -9961,10 +9994,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>464393</v>
+        <v>464374</v>
       </c>
       <c r="R86" t="n">
-        <v>7042284</v>
+        <v>7042300</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10001,7 +10034,7 @@
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10053,10 +10086,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131025477</v>
+        <v>131025520</v>
       </c>
       <c r="B87" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -10064,42 +10097,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>464374</v>
+        <v>464027</v>
       </c>
       <c r="R87" t="n">
-        <v>7042300</v>
+        <v>7042318</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10136,7 +10161,7 @@
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10147,31 +10172,6 @@
       </c>
       <c r="AG87" t="b">
         <v>0</v>
-      </c>
-      <c r="AH87" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ87" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK87" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM87" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
@@ -10494,7 +10494,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131024475</v>
+        <v>131024466</v>
       </c>
       <c r="B91" t="n">
         <v>57884</v>
@@ -10529,10 +10529,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>464272</v>
+        <v>464319</v>
       </c>
       <c r="R91" t="n">
-        <v>7042273</v>
+        <v>7042385</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10596,7 +10596,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131024455</v>
+        <v>131024475</v>
       </c>
       <c r="B92" t="n">
         <v>57884</v>
@@ -10631,10 +10631,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>464454</v>
+        <v>464272</v>
       </c>
       <c r="R92" t="n">
-        <v>7042523</v>
+        <v>7042273</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10698,7 +10698,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131024466</v>
+        <v>131024455</v>
       </c>
       <c r="B93" t="n">
         <v>57884</v>
@@ -10733,10 +10733,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>464319</v>
+        <v>464454</v>
       </c>
       <c r="R93" t="n">
-        <v>7042385</v>
+        <v>7042523</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10800,10 +10800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131025473</v>
+        <v>131024512</v>
       </c>
       <c r="B94" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10811,42 +10811,30 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>464413</v>
+        <v>464059</v>
       </c>
       <c r="R94" t="n">
-        <v>7042312</v>
+        <v>7042514</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10881,11 +10869,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
-        </is>
-      </c>
       <c r="AD94" t="b">
         <v>0</v>
       </c>
@@ -10894,56 +10877,26 @@
       </c>
       <c r="AG94" t="b">
         <v>0</v>
-      </c>
-      <c r="AH94" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI94" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
-        </is>
-      </c>
-      <c r="AJ94" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK94" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM94" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO94" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131024512</v>
+        <v>131025473</v>
       </c>
       <c r="B95" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10951,30 +10904,42 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>464059</v>
+        <v>464413</v>
       </c>
       <c r="R95" t="n">
-        <v>7042514</v>
+        <v>7042312</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11009,6 +10974,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
+        </is>
+      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
@@ -11017,26 +10987,56 @@
       </c>
       <c r="AG95" t="b">
         <v>0</v>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
+        </is>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM95" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131025507</v>
+        <v>131025484</v>
       </c>
       <c r="B96" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -11044,34 +11044,42 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>464297</v>
+        <v>464099</v>
       </c>
       <c r="R96" t="n">
-        <v>7042525</v>
+        <v>7042646</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11108,7 +11116,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i barrblandskog.</t>
+          <t>Ringhack, äldre, tydliga på gran.</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11119,6 +11127,31 @@
       </c>
       <c r="AG96" t="b">
         <v>0</v>
+      </c>
+      <c r="AH96" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ96" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK96" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM96" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO96" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
@@ -11135,10 +11168,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131025484</v>
+        <v>131025507</v>
       </c>
       <c r="B97" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -11146,42 +11179,34 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>464099</v>
+        <v>464297</v>
       </c>
       <c r="R97" t="n">
-        <v>7042646</v>
+        <v>7042525</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11218,7 +11243,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, tydliga på gran.</t>
+          <t>Långväxta bålar på gran i barrblandskog.</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11229,31 +11254,6 @@
       </c>
       <c r="AG97" t="b">
         <v>0</v>
-      </c>
-      <c r="AH97" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ97" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK97" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM97" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO97" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">

--- a/artfynd/A 62205-2025 artfynd.xlsx
+++ b/artfynd/A 62205-2025 artfynd.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131025505</v>
+        <v>131025514</v>
       </c>
       <c r="B2" t="n">
         <v>79243</v>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>464214</v>
+        <v>464434</v>
       </c>
       <c r="R2" t="n">
-        <v>7042578</v>
+        <v>7042377</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På flera granar vid en lucka.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -782,7 +782,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131025514</v>
+        <v>131025505</v>
       </c>
       <c r="B3" t="n">
         <v>79243</v>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>464434</v>
+        <v>464214</v>
       </c>
       <c r="R3" t="n">
-        <v>7042377</v>
+        <v>7042578</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På flera granar vid en lucka.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -986,7 +986,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131025513</v>
+        <v>131025526</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>464484</v>
+        <v>464101</v>
       </c>
       <c r="R5" t="n">
-        <v>7042425</v>
+        <v>7042665</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>På gamgran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1088,7 +1088,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131025526</v>
+        <v>131025513</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>464101</v>
+        <v>464484</v>
       </c>
       <c r="R6" t="n">
-        <v>7042665</v>
+        <v>7042425</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På gamgran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1190,7 +1190,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131025467</v>
+        <v>131024469</v>
       </c>
       <c r="B7" t="n">
         <v>57884</v>
@@ -1219,24 +1219,16 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>464403</v>
+        <v>464325</v>
       </c>
       <c r="R7" t="n">
-        <v>7042578</v>
+        <v>7042323</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1273,7 +1265,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, tydliga på en gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1284,48 +1276,23 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM7" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131024469</v>
+        <v>131025467</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1354,16 +1321,24 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>464325</v>
+        <v>464403</v>
       </c>
       <c r="R8" t="n">
-        <v>7042323</v>
+        <v>7042578</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1400,7 +1375,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, färska och äldre, tydliga på en gran.</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1411,26 +1386,51 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131025494</v>
+        <v>131025518</v>
       </c>
       <c r="B9" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1438,19 +1438,23 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1458,10 +1462,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>464471</v>
+        <v>464161</v>
       </c>
       <c r="R9" t="n">
-        <v>7042462</v>
+        <v>7042247</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1498,7 +1502,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>I granstubbe.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1525,10 +1529,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131025488</v>
+        <v>131025519</v>
       </c>
       <c r="B10" t="n">
-        <v>57881</v>
+        <v>79243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1536,42 +1540,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>463958</v>
+        <v>464076</v>
       </c>
       <c r="R10" t="n">
-        <v>7042484</v>
+        <v>7042281</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1608,7 +1604,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>Hackspår i stambasen av en levande gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1619,31 +1615,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM10" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1660,10 +1631,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131024467</v>
+        <v>131025494</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1671,34 +1642,30 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>464322</v>
+        <v>464471</v>
       </c>
       <c r="R11" t="n">
-        <v>7042355</v>
+        <v>7042462</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1735,7 +1702,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>I granstubbe.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1750,22 +1717,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131025463</v>
+        <v>131025512</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1773,42 +1740,34 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>464211</v>
+        <v>464451</v>
       </c>
       <c r="R12" t="n">
-        <v>7042581</v>
+        <v>7042487</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1845,7 +1804,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1856,31 +1815,6 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM12" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -1897,7 +1831,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131025506</v>
+        <v>131025502</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1932,10 +1866,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>464253</v>
+        <v>464177</v>
       </c>
       <c r="R13" t="n">
-        <v>7042536</v>
+        <v>7042606</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1972,7 +1906,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -1999,7 +1933,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131025502</v>
+        <v>131025506</v>
       </c>
       <c r="B14" t="n">
         <v>79243</v>
@@ -2034,10 +1968,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>464177</v>
+        <v>464253</v>
       </c>
       <c r="R14" t="n">
-        <v>7042606</v>
+        <v>7042536</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2074,7 +2008,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>På en tydligt gammal gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2101,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131025519</v>
+        <v>131024467</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2112,34 +2046,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>464076</v>
+        <v>464322</v>
       </c>
       <c r="R15" t="n">
-        <v>7042281</v>
+        <v>7042355</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2176,7 +2110,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2191,22 +2125,22 @@
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131025512</v>
+        <v>131025463</v>
       </c>
       <c r="B16" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2214,34 +2148,42 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>464451</v>
+        <v>464211</v>
       </c>
       <c r="R16" t="n">
-        <v>7042487</v>
+        <v>7042581</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2278,7 +2220,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2289,6 +2231,31 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2305,10 +2272,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131025518</v>
+        <v>131025488</v>
       </c>
       <c r="B17" t="n">
-        <v>79243</v>
+        <v>57881</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2316,34 +2283,42 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>464161</v>
+        <v>463958</v>
       </c>
       <c r="R17" t="n">
-        <v>7042247</v>
+        <v>7042484</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2380,7 +2355,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Hackspår i stambasen av en levande gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2391,6 +2366,31 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2407,10 +2407,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131025510</v>
+        <v>131024468</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2418,34 +2418,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>464463</v>
+        <v>464332</v>
       </c>
       <c r="R18" t="n">
-        <v>7042542</v>
+        <v>7042344</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2497,22 +2497,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131025525</v>
+        <v>131024458</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2520,34 +2520,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>464067</v>
+        <v>464405</v>
       </c>
       <c r="R19" t="n">
-        <v>7042585</v>
+        <v>7042391</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2599,19 +2599,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131025468</v>
+        <v>131024464</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2640,24 +2640,16 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>464445</v>
+        <v>464337</v>
       </c>
       <c r="R20" t="n">
-        <v>7042578</v>
+        <v>7042380</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2694,7 +2686,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2705,48 +2697,23 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM20" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131024468</v>
+        <v>131025468</v>
       </c>
       <c r="B21" t="n">
         <v>57884</v>
@@ -2775,16 +2742,24 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>464332</v>
+        <v>464445</v>
       </c>
       <c r="R21" t="n">
-        <v>7042344</v>
+        <v>7042578</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2821,7 +2796,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2832,26 +2807,51 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131024458</v>
+        <v>131025510</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2859,34 +2859,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>464405</v>
+        <v>464463</v>
       </c>
       <c r="R22" t="n">
-        <v>7042391</v>
+        <v>7042542</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2923,7 +2923,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2938,22 +2938,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131024464</v>
+        <v>131025525</v>
       </c>
       <c r="B23" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2961,34 +2961,34 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>464337</v>
+        <v>464067</v>
       </c>
       <c r="R23" t="n">
-        <v>7042380</v>
+        <v>7042585</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3040,22 +3040,22 @@
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131025474</v>
+        <v>131025528</v>
       </c>
       <c r="B24" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,42 +3063,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>464391</v>
+        <v>464199</v>
       </c>
       <c r="R24" t="n">
-        <v>7042299</v>
+        <v>7042793</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3135,7 +3127,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3146,31 +3138,6 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM24" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3187,7 +3154,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131025470</v>
+        <v>131024476</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3216,24 +3183,16 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>464484</v>
+        <v>464255</v>
       </c>
       <c r="R25" t="n">
-        <v>7042508</v>
+        <v>7042273</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3270,7 +3229,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3281,48 +3240,23 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AH25" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM25" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131025485</v>
+        <v>131025474</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3365,10 +3299,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>464186</v>
+        <v>464391</v>
       </c>
       <c r="R26" t="n">
-        <v>7042779</v>
+        <v>7042299</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3405,7 +3339,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3457,7 +3391,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131024476</v>
+        <v>131025470</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3486,16 +3420,24 @@
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>464255</v>
+        <v>464484</v>
       </c>
       <c r="R27" t="n">
-        <v>7042273</v>
+        <v>7042508</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3532,7 +3474,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3543,16 +3485,41 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
@@ -3763,10 +3730,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131025528</v>
+        <v>131025485</v>
       </c>
       <c r="B30" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3774,34 +3741,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>464199</v>
+        <v>464186</v>
       </c>
       <c r="R30" t="n">
-        <v>7042793</v>
+        <v>7042779</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3838,7 +3813,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3849,6 +3824,31 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -3865,10 +3865,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131024465</v>
+        <v>131025522</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3876,34 +3876,34 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>464328</v>
+        <v>463978</v>
       </c>
       <c r="R31" t="n">
-        <v>7042367</v>
+        <v>7042528</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På en stående död gran med full längd (36 cm bhd).</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3955,22 +3955,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131024446</v>
+        <v>131025509</v>
       </c>
       <c r="B32" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3978,42 +3978,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>463828</v>
+        <v>464380</v>
       </c>
       <c r="R32" t="n">
-        <v>7042514</v>
+        <v>7042615</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4050,14 +4042,14 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>Gammalt bohål i grantickerötad gran</t>
+          <t>På en gammal gran.</t>
         </is>
       </c>
       <c r="AD32" t="b">
         <v>0</v>
       </c>
       <c r="AE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32" t="b">
         <v>0</v>
@@ -4065,19 +4057,19 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131025464</v>
+        <v>131024465</v>
       </c>
       <c r="B33" t="n">
         <v>57884</v>
@@ -4106,24 +4098,16 @@
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>464210</v>
+        <v>464328</v>
       </c>
       <c r="R33" t="n">
-        <v>7042574</v>
+        <v>7042367</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4160,7 +4144,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4171,51 +4155,26 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AH33" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM33" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131025509</v>
+        <v>131024446</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4223,34 +4182,42 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>464380</v>
+        <v>463828</v>
       </c>
       <c r="R34" t="n">
-        <v>7042615</v>
+        <v>7042514</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4287,14 +4254,14 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>På en gammal gran.</t>
+          <t>Gammalt bohål i grantickerötad gran</t>
         </is>
       </c>
       <c r="AD34" t="b">
         <v>0</v>
       </c>
       <c r="AE34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" t="b">
         <v>0</v>
@@ -4302,22 +4269,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131025522</v>
+        <v>131025464</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4325,34 +4292,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>463978</v>
+        <v>464210</v>
       </c>
       <c r="R35" t="n">
-        <v>7042528</v>
+        <v>7042574</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4389,7 +4364,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>På en stående död gran med full längd (36 cm bhd).</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4400,6 +4375,31 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
+      </c>
+      <c r="AH35" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4416,10 +4416,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131025465</v>
+        <v>131025489</v>
       </c>
       <c r="B36" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4427,29 +4427,28 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -4459,10 +4458,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>464268</v>
+        <v>464035</v>
       </c>
       <c r="R36" t="n">
-        <v>7042527</v>
+        <v>7042354</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4499,7 +4498,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Växer på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4508,32 +4507,33 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131024448</v>
+        <v>131025527</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4562,34 +4562,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>464165</v>
+        <v>464174</v>
       </c>
       <c r="R37" t="n">
-        <v>7042546</v>
+        <v>7042780</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4641,22 +4641,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131024478</v>
+        <v>131025517</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4664,34 +4664,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>464232</v>
+        <v>464199</v>
       </c>
       <c r="R38" t="n">
-        <v>7042762</v>
+        <v>7042210</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4743,22 +4743,22 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131025489</v>
+        <v>131025465</v>
       </c>
       <c r="B39" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4766,28 +4766,29 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -4797,10 +4798,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>464035</v>
+        <v>464268</v>
       </c>
       <c r="R39" t="n">
-        <v>7042354</v>
+        <v>7042527</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4837,7 +4838,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Växer på en grov gammal sälg.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4846,33 +4847,32 @@
       <c r="AE39" t="b">
         <v>0</v>
       </c>
-      <c r="AF39" t="inlineStr"/>
       <c r="AG39" t="b">
         <v>0</v>
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr"/>
@@ -4890,10 +4890,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131025517</v>
+        <v>131024448</v>
       </c>
       <c r="B40" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4901,34 +4901,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>464199</v>
+        <v>464165</v>
       </c>
       <c r="R40" t="n">
-        <v>7042210</v>
+        <v>7042546</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4980,22 +4980,22 @@
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131025527</v>
+        <v>131024478</v>
       </c>
       <c r="B41" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5003,34 +5003,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>464174</v>
+        <v>464232</v>
       </c>
       <c r="R41" t="n">
-        <v>7042780</v>
+        <v>7042762</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5067,7 +5067,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5082,12 +5082,12 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
@@ -5670,10 +5670,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131025524</v>
+        <v>131025495</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5681,23 +5681,19 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -5705,10 +5701,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>464041</v>
+        <v>463986</v>
       </c>
       <c r="R47" t="n">
-        <v>7042631</v>
+        <v>7042522</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5745,7 +5741,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>På gamgran.</t>
+          <t>I stående död klen gran.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5874,10 +5870,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131024506</v>
+        <v>131025524</v>
       </c>
       <c r="B49" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5885,30 +5881,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>464426</v>
+        <v>464041</v>
       </c>
       <c r="R49" t="n">
-        <v>7042565</v>
+        <v>7042631</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5943,6 +5943,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>På gamgran.</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
@@ -5955,19 +5960,19 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131025495</v>
+        <v>131024506</v>
       </c>
       <c r="B50" t="n">
         <v>91828</v>
@@ -5994,14 +5999,14 @@
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>463986</v>
+        <v>464426</v>
       </c>
       <c r="R50" t="n">
-        <v>7042522</v>
+        <v>7042565</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6036,11 +6041,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>I stående död klen gran.</t>
-        </is>
-      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
@@ -6053,12 +6053,12 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
@@ -6572,10 +6572,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131024463</v>
+        <v>131024507</v>
       </c>
       <c r="B55" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6583,23 +6583,19 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6607,10 +6603,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>464371</v>
+        <v>464395</v>
       </c>
       <c r="R55" t="n">
-        <v>7042397</v>
+        <v>7042406</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6643,11 +6639,6 @@
       <c r="AA55" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6674,10 +6665,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131025483</v>
+        <v>131025504</v>
       </c>
       <c r="B56" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6685,42 +6676,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>464021</v>
+        <v>464204</v>
       </c>
       <c r="R56" t="n">
-        <v>7042325</v>
+        <v>7042559</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6757,7 +6740,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>Ringhack, färska, längs minst 6 meter på en gran ca 4 meter från strandkanten. Rikligt med spår av rinnande kåda/sav på granens stam.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6768,31 +6751,6 @@
       </c>
       <c r="AG56" t="b">
         <v>0</v>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ56" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK56" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM56" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO56" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
@@ -6809,10 +6767,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131025469</v>
+        <v>131024510</v>
       </c>
       <c r="B57" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6820,42 +6778,30 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>464464</v>
+        <v>464031</v>
       </c>
       <c r="R57" t="n">
-        <v>7042544</v>
+        <v>7042403</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6890,11 +6836,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en granhögstubbe.</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
@@ -6903,51 +6844,26 @@
       </c>
       <c r="AG57" t="b">
         <v>0</v>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ57" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK57" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM57" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO57" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131025504</v>
+        <v>131024511</v>
       </c>
       <c r="B58" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6955,34 +6871,30 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>464204</v>
+        <v>463866</v>
       </c>
       <c r="R58" t="n">
-        <v>7042559</v>
+        <v>7042468</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7017,11 +6929,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>På gran.</t>
-        </is>
-      </c>
       <c r="AD58" t="b">
         <v>0</v>
       </c>
@@ -7034,22 +6941,22 @@
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>131024511</v>
+        <v>131024463</v>
       </c>
       <c r="B59" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -7057,19 +6964,23 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
@@ -7077,10 +6988,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>463866</v>
+        <v>464371</v>
       </c>
       <c r="R59" t="n">
-        <v>7042468</v>
+        <v>7042397</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7113,6 +7024,11 @@
       <c r="AA59" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7139,10 +7055,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>131024510</v>
+        <v>131025483</v>
       </c>
       <c r="B60" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -7150,30 +7066,42 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>464031</v>
+        <v>464021</v>
       </c>
       <c r="R60" t="n">
-        <v>7042403</v>
+        <v>7042325</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7208,6 +7136,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, längs minst 6 meter på en gran ca 4 meter från strandkanten. Rikligt med spår av rinnande kåda/sav på granens stam.</t>
+        </is>
+      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
@@ -7216,26 +7149,51 @@
       </c>
       <c r="AG60" t="b">
         <v>0</v>
+      </c>
+      <c r="AH60" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ60" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK60" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM60" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO60" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>131024507</v>
+        <v>131025469</v>
       </c>
       <c r="B61" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -7243,30 +7201,42 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>464395</v>
+        <v>464464</v>
       </c>
       <c r="R61" t="n">
-        <v>7042406</v>
+        <v>7042544</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7301,6 +7271,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en granhögstubbe.</t>
+        </is>
+      </c>
       <c r="AD61" t="b">
         <v>0</v>
       </c>
@@ -7309,16 +7284,41 @@
       </c>
       <c r="AG61" t="b">
         <v>0</v>
+      </c>
+      <c r="AH61" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ61" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK61" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM61" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO61" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT61" t="inlineStr"/>
       <c r="AW61" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX61" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY61" t="inlineStr"/>
@@ -7631,10 +7631,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131024456</v>
+        <v>131024509</v>
       </c>
       <c r="B65" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7642,23 +7642,19 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -7666,10 +7662,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>464439</v>
+        <v>464214</v>
       </c>
       <c r="R65" t="n">
-        <v>7042505</v>
+        <v>7042282</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7702,11 +7698,6 @@
       <c r="AA65" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7842,10 +7833,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131024509</v>
+        <v>131024456</v>
       </c>
       <c r="B67" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -7853,19 +7844,23 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
@@ -7873,10 +7868,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>464214</v>
+        <v>464439</v>
       </c>
       <c r="R67" t="n">
-        <v>7042282</v>
+        <v>7042505</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7909,6 +7904,11 @@
       <c r="AA67" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8952,10 +8952,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131024470</v>
+        <v>131025492</v>
       </c>
       <c r="B77" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8963,34 +8963,41 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>464325</v>
+        <v>464400</v>
       </c>
       <c r="R77" t="n">
-        <v>7042334</v>
+        <v>7042294</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9027,7 +9034,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9036,28 +9043,54 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
+      </c>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131025492</v>
+        <v>131025490</v>
       </c>
       <c r="B78" t="n">
-        <v>91804</v>
+        <v>80349</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9065,28 +9098,28 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N78" t="inlineStr"/>
@@ -9096,10 +9129,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>464400</v>
+        <v>463994</v>
       </c>
       <c r="R78" t="n">
-        <v>7042294</v>
+        <v>7042378</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9136,7 +9169,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9156,22 +9189,22 @@
       </c>
       <c r="AJ78" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK78" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM78" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO78" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT78" t="inlineStr"/>
@@ -9189,10 +9222,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131025490</v>
+        <v>131025523</v>
       </c>
       <c r="B79" t="n">
-        <v>80349</v>
+        <v>79243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9200,41 +9233,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>463994</v>
+        <v>463999</v>
       </c>
       <c r="R79" t="n">
-        <v>7042378</v>
+        <v>7042559</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9271,7 +9297,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
+          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9280,34 +9306,8 @@
       <c r="AE79" t="b">
         <v>0</v>
       </c>
-      <c r="AF79" t="inlineStr"/>
       <c r="AG79" t="b">
         <v>0</v>
-      </c>
-      <c r="AH79" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ79" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK79" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM79" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO79" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
@@ -9324,7 +9324,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131025523</v>
+        <v>131025503</v>
       </c>
       <c r="B80" t="n">
         <v>79243</v>
@@ -9359,10 +9359,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>463999</v>
+        <v>464158</v>
       </c>
       <c r="R80" t="n">
-        <v>7042559</v>
+        <v>7042548</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9399,7 +9399,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9426,10 +9426,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131025503</v>
+        <v>131024470</v>
       </c>
       <c r="B81" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9437,34 +9437,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>464158</v>
+        <v>464325</v>
       </c>
       <c r="R81" t="n">
-        <v>7042548</v>
+        <v>7042334</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9516,12 +9516,12 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
@@ -9630,7 +9630,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131024505</v>
+        <v>131024508</v>
       </c>
       <c r="B83" t="n">
         <v>91828</v>
@@ -9661,10 +9661,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>464276</v>
+        <v>464083</v>
       </c>
       <c r="R83" t="n">
-        <v>7042457</v>
+        <v>7042298</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9723,10 +9723,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131024508</v>
+        <v>131025520</v>
       </c>
       <c r="B84" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9734,30 +9734,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>464083</v>
+        <v>464027</v>
       </c>
       <c r="R84" t="n">
-        <v>7042298</v>
+        <v>7042318</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9792,6 +9796,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
@@ -9804,22 +9813,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131025475</v>
+        <v>131024505</v>
       </c>
       <c r="B85" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9827,42 +9836,30 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>464393</v>
+        <v>464276</v>
       </c>
       <c r="R85" t="n">
-        <v>7042284</v>
+        <v>7042457</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9897,11 +9894,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
@@ -9910,48 +9902,23 @@
       </c>
       <c r="AG85" t="b">
         <v>0</v>
-      </c>
-      <c r="AH85" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ85" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK85" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM85" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO85" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131025477</v>
+        <v>131025475</v>
       </c>
       <c r="B86" t="n">
         <v>57884</v>
@@ -9994,10 +9961,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>464374</v>
+        <v>464393</v>
       </c>
       <c r="R86" t="n">
-        <v>7042300</v>
+        <v>7042284</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10034,7 +10001,7 @@
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10086,10 +10053,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131025520</v>
+        <v>131024473</v>
       </c>
       <c r="B87" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -10097,34 +10064,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>464027</v>
+        <v>464305</v>
       </c>
       <c r="R87" t="n">
-        <v>7042318</v>
+        <v>7042334</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10161,7 +10128,7 @@
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10176,19 +10143,19 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131024473</v>
+        <v>131025477</v>
       </c>
       <c r="B88" t="n">
         <v>57884</v>
@@ -10217,16 +10184,24 @@
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>464305</v>
+        <v>464374</v>
       </c>
       <c r="R88" t="n">
-        <v>7042334</v>
+        <v>7042300</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10263,7 +10238,7 @@
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10274,23 +10249,48 @@
       </c>
       <c r="AG88" t="b">
         <v>0</v>
+      </c>
+      <c r="AH88" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ88" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK88" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM88" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO88" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131025496</v>
+        <v>131025515</v>
       </c>
       <c r="B89" t="n">
         <v>79243</v>
@@ -10325,10 +10325,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>464485</v>
+        <v>464430</v>
       </c>
       <c r="R89" t="n">
-        <v>7042454</v>
+        <v>7042344</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10392,7 +10392,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131025515</v>
+        <v>131025496</v>
       </c>
       <c r="B90" t="n">
         <v>79243</v>
@@ -10427,10 +10427,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>464430</v>
+        <v>464485</v>
       </c>
       <c r="R90" t="n">
-        <v>7042344</v>
+        <v>7042454</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10494,7 +10494,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131024466</v>
+        <v>131024475</v>
       </c>
       <c r="B91" t="n">
         <v>57884</v>
@@ -10529,10 +10529,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>464319</v>
+        <v>464272</v>
       </c>
       <c r="R91" t="n">
-        <v>7042385</v>
+        <v>7042273</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10596,7 +10596,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131024475</v>
+        <v>131024455</v>
       </c>
       <c r="B92" t="n">
         <v>57884</v>
@@ -10631,10 +10631,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>464272</v>
+        <v>464454</v>
       </c>
       <c r="R92" t="n">
-        <v>7042273</v>
+        <v>7042523</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10698,7 +10698,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131024455</v>
+        <v>131024466</v>
       </c>
       <c r="B93" t="n">
         <v>57884</v>
@@ -10733,10 +10733,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>464454</v>
+        <v>464319</v>
       </c>
       <c r="R93" t="n">
-        <v>7042523</v>
+        <v>7042385</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10800,10 +10800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131024512</v>
+        <v>131025473</v>
       </c>
       <c r="B94" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10811,30 +10811,42 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>464059</v>
+        <v>464413</v>
       </c>
       <c r="R94" t="n">
-        <v>7042514</v>
+        <v>7042312</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10869,6 +10881,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
+        </is>
+      </c>
       <c r="AD94" t="b">
         <v>0</v>
       </c>
@@ -10877,26 +10894,56 @@
       </c>
       <c r="AG94" t="b">
         <v>0</v>
+      </c>
+      <c r="AH94" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI94" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
+        </is>
+      </c>
+      <c r="AJ94" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK94" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM94" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO94" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131025473</v>
+        <v>131024512</v>
       </c>
       <c r="B95" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10904,42 +10951,30 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>464413</v>
+        <v>464059</v>
       </c>
       <c r="R95" t="n">
-        <v>7042312</v>
+        <v>7042514</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10974,11 +11009,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
-        </is>
-      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
@@ -10987,56 +11017,26 @@
       </c>
       <c r="AG95" t="b">
         <v>0</v>
-      </c>
-      <c r="AH95" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI95" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
-        </is>
-      </c>
-      <c r="AJ95" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK95" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM95" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO95" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>131025484</v>
+        <v>131025507</v>
       </c>
       <c r="B96" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -11044,42 +11044,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>464099</v>
+        <v>464297</v>
       </c>
       <c r="R96" t="n">
-        <v>7042646</v>
+        <v>7042525</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11116,7 +11108,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, tydliga på gran.</t>
+          <t>Långväxta bålar på gran i barrblandskog.</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11127,31 +11119,6 @@
       </c>
       <c r="AG96" t="b">
         <v>0</v>
-      </c>
-      <c r="AH96" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ96" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK96" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM96" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO96" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
@@ -11168,10 +11135,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131025507</v>
+        <v>131024452</v>
       </c>
       <c r="B97" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -11179,34 +11146,34 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>464297</v>
+        <v>464339</v>
       </c>
       <c r="R97" t="n">
-        <v>7042525</v>
+        <v>7042474</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11243,7 +11210,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran i barrblandskog.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11258,19 +11225,19 @@
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131024452</v>
+        <v>131025484</v>
       </c>
       <c r="B98" t="n">
         <v>57884</v>
@@ -11299,16 +11266,24 @@
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>464339</v>
+        <v>464099</v>
       </c>
       <c r="R98" t="n">
-        <v>7042474</v>
+        <v>7042646</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11345,7 +11320,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, tydliga på gran.</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11356,16 +11331,41 @@
       </c>
       <c r="AG98" t="b">
         <v>0</v>
+      </c>
+      <c r="AH98" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM98" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>

--- a/artfynd/A 62205-2025 artfynd.xlsx
+++ b/artfynd/A 62205-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131025514</v>
+        <v>131024454</v>
       </c>
       <c r="B2" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>464434</v>
+        <v>464321</v>
       </c>
       <c r="R2" t="n">
-        <v>7042377</v>
+        <v>7042482</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>På flera granar vid en lucka.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -770,12 +770,12 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131024454</v>
+        <v>131025514</v>
       </c>
       <c r="B4" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,34 +895,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>464321</v>
+        <v>464434</v>
       </c>
       <c r="R4" t="n">
-        <v>7042482</v>
+        <v>7042377</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar vid en lucka.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -974,19 +974,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>131025526</v>
+        <v>131025513</v>
       </c>
       <c r="B5" t="n">
         <v>79243</v>
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>464101</v>
+        <v>464484</v>
       </c>
       <c r="R5" t="n">
-        <v>7042665</v>
+        <v>7042425</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>På gamgran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1088,7 +1088,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131025513</v>
+        <v>131025526</v>
       </c>
       <c r="B6" t="n">
         <v>79243</v>
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>464484</v>
+        <v>464101</v>
       </c>
       <c r="R6" t="n">
-        <v>7042425</v>
+        <v>7042665</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>På gamgran.</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1427,7 +1427,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131025518</v>
+        <v>131025506</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1462,10 +1462,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>464161</v>
+        <v>464253</v>
       </c>
       <c r="R9" t="n">
-        <v>7042247</v>
+        <v>7042536</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>På en tydligt gammal gran.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1529,7 +1529,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131025519</v>
+        <v>131025502</v>
       </c>
       <c r="B10" t="n">
         <v>79243</v>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>464076</v>
+        <v>464177</v>
       </c>
       <c r="R10" t="n">
-        <v>7042281</v>
+        <v>7042606</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1631,10 +1631,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131025494</v>
+        <v>131025519</v>
       </c>
       <c r="B11" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1642,19 +1642,23 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1662,10 +1666,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>464471</v>
+        <v>464076</v>
       </c>
       <c r="R11" t="n">
-        <v>7042462</v>
+        <v>7042281</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1702,7 +1706,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>I granstubbe.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1831,7 +1835,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131025502</v>
+        <v>131025518</v>
       </c>
       <c r="B13" t="n">
         <v>79243</v>
@@ -1866,10 +1870,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>464177</v>
+        <v>464161</v>
       </c>
       <c r="R13" t="n">
-        <v>7042606</v>
+        <v>7042247</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1933,10 +1937,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131025506</v>
+        <v>131025494</v>
       </c>
       <c r="B14" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1944,23 +1948,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
@@ -1968,10 +1968,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>464253</v>
+        <v>464471</v>
       </c>
       <c r="R14" t="n">
-        <v>7042536</v>
+        <v>7042462</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran.</t>
+          <t>I granstubbe.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2035,10 +2035,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131024467</v>
+        <v>131025488</v>
       </c>
       <c r="B15" t="n">
-        <v>57884</v>
+        <v>57881</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,16 +2046,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2064,16 +2064,24 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>464322</v>
+        <v>463958</v>
       </c>
       <c r="R15" t="n">
-        <v>7042355</v>
+        <v>7042484</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2110,7 +2118,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Hackspår i stambasen av en levande gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2121,23 +2129,48 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131025463</v>
+        <v>131024467</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2166,24 +2199,16 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>464211</v>
+        <v>464322</v>
       </c>
       <c r="R16" t="n">
-        <v>7042581</v>
+        <v>7042355</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2220,7 +2245,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2231,51 +2256,26 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131025488</v>
+        <v>131025463</v>
       </c>
       <c r="B17" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,16 +2283,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2305,7 +2305,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2315,10 +2315,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>463958</v>
+        <v>464211</v>
       </c>
       <c r="R17" t="n">
-        <v>7042484</v>
+        <v>7042581</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Hackspår i stambasen av en levande gran.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -2407,10 +2407,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131024468</v>
+        <v>131025510</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2418,34 +2418,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>464332</v>
+        <v>464463</v>
       </c>
       <c r="R18" t="n">
-        <v>7042344</v>
+        <v>7042542</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2482,7 +2482,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2497,22 +2497,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131024458</v>
+        <v>131025525</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2520,34 +2520,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>464405</v>
+        <v>464067</v>
       </c>
       <c r="R19" t="n">
-        <v>7042391</v>
+        <v>7042585</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2599,19 +2599,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131024464</v>
+        <v>131024468</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2646,10 +2646,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>464337</v>
+        <v>464332</v>
       </c>
       <c r="R20" t="n">
-        <v>7042380</v>
+        <v>7042344</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2713,7 +2713,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131025468</v>
+        <v>131024458</v>
       </c>
       <c r="B21" t="n">
         <v>57884</v>
@@ -2742,24 +2742,16 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>464445</v>
+        <v>464405</v>
       </c>
       <c r="R21" t="n">
-        <v>7042578</v>
+        <v>7042391</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2796,7 +2788,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2807,51 +2799,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131025510</v>
+        <v>131024464</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2859,34 +2826,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>464463</v>
+        <v>464337</v>
       </c>
       <c r="R22" t="n">
-        <v>7042542</v>
+        <v>7042380</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2923,7 +2890,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2938,22 +2905,22 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131025525</v>
+        <v>131025468</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2961,34 +2928,42 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>464067</v>
+        <v>464445</v>
       </c>
       <c r="R23" t="n">
-        <v>7042585</v>
+        <v>7042578</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3025,7 +3000,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3036,6 +3011,31 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3865,7 +3865,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131025522</v>
+        <v>131025509</v>
       </c>
       <c r="B31" t="n">
         <v>79243</v>
@@ -3900,10 +3900,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>463978</v>
+        <v>464380</v>
       </c>
       <c r="R31" t="n">
-        <v>7042528</v>
+        <v>7042615</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3940,7 +3940,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>På en stående död gran med full längd (36 cm bhd).</t>
+          <t>På en gammal gran.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3967,7 +3967,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131025509</v>
+        <v>131025522</v>
       </c>
       <c r="B32" t="n">
         <v>79243</v>
@@ -4002,10 +4002,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>464380</v>
+        <v>463978</v>
       </c>
       <c r="R32" t="n">
-        <v>7042615</v>
+        <v>7042528</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>På en gammal gran.</t>
+          <t>På en stående död gran med full längd (36 cm bhd).</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4551,7 +4551,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131025527</v>
+        <v>131025517</v>
       </c>
       <c r="B37" t="n">
         <v>79243</v>
@@ -4586,10 +4586,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>464174</v>
+        <v>464199</v>
       </c>
       <c r="R37" t="n">
-        <v>7042780</v>
+        <v>7042210</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4653,7 +4653,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131025517</v>
+        <v>131025527</v>
       </c>
       <c r="B38" t="n">
         <v>79243</v>
@@ -4688,10 +4688,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>464199</v>
+        <v>464174</v>
       </c>
       <c r="R38" t="n">
-        <v>7042210</v>
+        <v>7042780</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5670,10 +5670,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131025495</v>
+        <v>131025524</v>
       </c>
       <c r="B47" t="n">
-        <v>91828</v>
+        <v>79243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5681,19 +5681,23 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -5701,10 +5705,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>463986</v>
+        <v>464041</v>
       </c>
       <c r="R47" t="n">
-        <v>7042522</v>
+        <v>7042631</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5741,7 +5745,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>I stående död klen gran.</t>
+          <t>På gamgran.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5870,10 +5874,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131025524</v>
+        <v>131024506</v>
       </c>
       <c r="B49" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5881,34 +5885,30 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>464041</v>
+        <v>464426</v>
       </c>
       <c r="R49" t="n">
-        <v>7042631</v>
+        <v>7042565</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5943,11 +5943,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>På gamgran.</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
@@ -5960,19 +5955,19 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131024506</v>
+        <v>131025495</v>
       </c>
       <c r="B50" t="n">
         <v>91828</v>
@@ -5999,14 +5994,14 @@
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>464426</v>
+        <v>463986</v>
       </c>
       <c r="R50" t="n">
-        <v>7042565</v>
+        <v>7042522</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6041,6 +6036,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>I stående död klen gran.</t>
+        </is>
+      </c>
       <c r="AD50" t="b">
         <v>0</v>
       </c>
@@ -6053,12 +6053,12 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY50" t="inlineStr"/>
@@ -6475,10 +6475,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131024501</v>
+        <v>131025504</v>
       </c>
       <c r="B54" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6486,34 +6486,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>464070</v>
+        <v>464204</v>
       </c>
       <c r="R54" t="n">
-        <v>7042517</v>
+        <v>7042559</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6548,6 +6548,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>På gran.</t>
+        </is>
+      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
@@ -6560,22 +6565,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131024507</v>
+        <v>131024501</v>
       </c>
       <c r="B55" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6583,19 +6588,23 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6603,10 +6612,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>464395</v>
+        <v>464070</v>
       </c>
       <c r="R55" t="n">
-        <v>7042406</v>
+        <v>7042517</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6665,10 +6674,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131025504</v>
+        <v>131024511</v>
       </c>
       <c r="B56" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6676,34 +6685,30 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>464204</v>
+        <v>463866</v>
       </c>
       <c r="R56" t="n">
-        <v>7042559</v>
+        <v>7042468</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6738,11 +6743,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>På gran.</t>
-        </is>
-      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -6755,12 +6755,12 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131024511</v>
+        <v>131024507</v>
       </c>
       <c r="B58" t="n">
         <v>91828</v>
@@ -6891,10 +6891,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>463866</v>
+        <v>464395</v>
       </c>
       <c r="R58" t="n">
-        <v>7042468</v>
+        <v>7042406</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7631,41 +7631,57 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131024509</v>
+        <v>131024494</v>
       </c>
       <c r="B65" t="n">
-        <v>91828</v>
+        <v>57988</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5432</v>
+        <v>103031</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
+          <t>Perisoreus infaustus</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>464214</v>
+        <v>464304</v>
       </c>
       <c r="R65" t="n">
-        <v>7042282</v>
+        <v>7042379</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7724,57 +7740,41 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131024494</v>
+        <v>131024509</v>
       </c>
       <c r="B66" t="n">
-        <v>57988</v>
+        <v>91828</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>103031</v>
+        <v>5432</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr"/>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>464304</v>
+        <v>464214</v>
       </c>
       <c r="R66" t="n">
-        <v>7042379</v>
+        <v>7042282</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8952,10 +8952,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131025492</v>
+        <v>131024470</v>
       </c>
       <c r="B77" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8963,41 +8963,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>464400</v>
+        <v>464325</v>
       </c>
       <c r="R77" t="n">
-        <v>7042294</v>
+        <v>7042334</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9034,7 +9027,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9043,54 +9036,28 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
-      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
-      </c>
-      <c r="AH77" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ77" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK77" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM77" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO77" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131025490</v>
+        <v>131024461</v>
       </c>
       <c r="B78" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9098,41 +9065,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>463994</v>
+        <v>464377</v>
       </c>
       <c r="R78" t="n">
-        <v>7042378</v>
+        <v>7042402</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9169,7 +9129,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9178,44 +9138,18 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
-      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
-      </c>
-      <c r="AH78" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ78" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK78" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM78" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO78" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
@@ -9426,10 +9360,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131024470</v>
+        <v>131025492</v>
       </c>
       <c r="B81" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9437,34 +9371,41 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>464325</v>
+        <v>464400</v>
       </c>
       <c r="R81" t="n">
-        <v>7042334</v>
+        <v>7042294</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9501,7 +9442,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9510,28 +9451,54 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
+      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
+      </c>
+      <c r="AH81" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ81" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK81" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM81" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO81" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131024461</v>
+        <v>131025490</v>
       </c>
       <c r="B82" t="n">
-        <v>57884</v>
+        <v>80349</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9539,34 +9506,41 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>464377</v>
+        <v>463994</v>
       </c>
       <c r="R82" t="n">
-        <v>7042402</v>
+        <v>7042378</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9603,7 +9577,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9612,25 +9586,51 @@
       <c r="AE82" t="b">
         <v>0</v>
       </c>
+      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
+      </c>
+      <c r="AH82" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ82" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK82" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM82" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO82" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131024508</v>
+        <v>131024505</v>
       </c>
       <c r="B83" t="n">
         <v>91828</v>
@@ -9661,10 +9661,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>464083</v>
+        <v>464276</v>
       </c>
       <c r="R83" t="n">
-        <v>7042298</v>
+        <v>7042457</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9723,10 +9723,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131025520</v>
+        <v>131024508</v>
       </c>
       <c r="B84" t="n">
-        <v>79243</v>
+        <v>91828</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9734,34 +9734,30 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>464027</v>
+        <v>464083</v>
       </c>
       <c r="R84" t="n">
-        <v>7042318</v>
+        <v>7042298</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9796,11 +9792,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD84" t="b">
         <v>0</v>
       </c>
@@ -9813,22 +9804,22 @@
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131024505</v>
+        <v>131025475</v>
       </c>
       <c r="B85" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -9836,30 +9827,42 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>464276</v>
+        <v>464393</v>
       </c>
       <c r="R85" t="n">
-        <v>7042457</v>
+        <v>7042284</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9894,6 +9897,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD85" t="b">
         <v>0</v>
       </c>
@@ -9902,23 +9910,48 @@
       </c>
       <c r="AG85" t="b">
         <v>0</v>
+      </c>
+      <c r="AH85" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ85" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK85" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM85" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO85" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131025475</v>
+        <v>131024473</v>
       </c>
       <c r="B86" t="n">
         <v>57884</v>
@@ -9947,24 +9980,16 @@
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>464393</v>
+        <v>464305</v>
       </c>
       <c r="R86" t="n">
-        <v>7042284</v>
+        <v>7042334</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10001,7 +10026,7 @@
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10012,48 +10037,23 @@
       </c>
       <c r="AG86" t="b">
         <v>0</v>
-      </c>
-      <c r="AH86" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ86" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK86" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM86" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO86" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131024473</v>
+        <v>131025477</v>
       </c>
       <c r="B87" t="n">
         <v>57884</v>
@@ -10082,16 +10082,24 @@
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>464305</v>
+        <v>464374</v>
       </c>
       <c r="R87" t="n">
-        <v>7042334</v>
+        <v>7042300</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10128,7 +10136,7 @@
       </c>
       <c r="AC87" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10139,26 +10147,51 @@
       </c>
       <c r="AG87" t="b">
         <v>0</v>
+      </c>
+      <c r="AH87" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ87" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK87" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM87" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO87" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>131025477</v>
+        <v>131025520</v>
       </c>
       <c r="B88" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -10166,42 +10199,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>464374</v>
+        <v>464027</v>
       </c>
       <c r="R88" t="n">
-        <v>7042300</v>
+        <v>7042318</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10238,7 +10263,7 @@
       </c>
       <c r="AC88" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10249,31 +10274,6 @@
       </c>
       <c r="AG88" t="b">
         <v>0</v>
-      </c>
-      <c r="AH88" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ88" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK88" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM88" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO88" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
@@ -10290,10 +10290,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131025515</v>
+        <v>131024475</v>
       </c>
       <c r="B89" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10301,34 +10301,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>464430</v>
+        <v>464272</v>
       </c>
       <c r="R89" t="n">
-        <v>7042344</v>
+        <v>7042273</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10380,22 +10380,22 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131025496</v>
+        <v>131024455</v>
       </c>
       <c r="B90" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10403,34 +10403,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>464485</v>
+        <v>464454</v>
       </c>
       <c r="R90" t="n">
-        <v>7042454</v>
+        <v>7042523</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10482,19 +10482,19 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131024475</v>
+        <v>131024466</v>
       </c>
       <c r="B91" t="n">
         <v>57884</v>
@@ -10529,10 +10529,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>464272</v>
+        <v>464319</v>
       </c>
       <c r="R91" t="n">
-        <v>7042273</v>
+        <v>7042385</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10596,10 +10596,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131024455</v>
+        <v>131025496</v>
       </c>
       <c r="B92" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10607,34 +10607,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>464454</v>
+        <v>464485</v>
       </c>
       <c r="R92" t="n">
-        <v>7042523</v>
+        <v>7042454</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10686,22 +10686,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131024466</v>
+        <v>131025515</v>
       </c>
       <c r="B93" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10709,34 +10709,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>464319</v>
+        <v>464430</v>
       </c>
       <c r="R93" t="n">
-        <v>7042385</v>
+        <v>7042344</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10788,12 +10788,12 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>

--- a/artfynd/A 62205-2025 artfynd.xlsx
+++ b/artfynd/A 62205-2025 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131024454</v>
+        <v>131025505</v>
       </c>
       <c r="B2" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>464321</v>
+        <v>464214</v>
       </c>
       <c r="R2" t="n">
-        <v>7042482</v>
+        <v>7042578</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -755,7 +755,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -770,22 +770,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131025505</v>
+        <v>131025514</v>
       </c>
       <c r="B3" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>464214</v>
+        <v>464434</v>
       </c>
       <c r="R3" t="n">
-        <v>7042578</v>
+        <v>7042377</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -857,7 +857,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På flera granar vid en lucka.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -884,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131025514</v>
+        <v>131024454</v>
       </c>
       <c r="B4" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -895,34 +895,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>464434</v>
+        <v>464321</v>
       </c>
       <c r="R4" t="n">
-        <v>7042377</v>
+        <v>7042482</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -959,7 +959,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>På flera granar vid en lucka.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -974,12 +974,12 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
@@ -989,7 +989,7 @@
         <v>131025513</v>
       </c>
       <c r="B5" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>131025526</v>
       </c>
       <c r="B6" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1427,10 +1427,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131025506</v>
+        <v>131025502</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1462,10 +1462,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>464253</v>
+        <v>464177</v>
       </c>
       <c r="R9" t="n">
-        <v>7042536</v>
+        <v>7042606</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På en tydligt gammal gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1529,10 +1529,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131025502</v>
+        <v>131025506</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>464177</v>
+        <v>464253</v>
       </c>
       <c r="R10" t="n">
-        <v>7042606</v>
+        <v>7042536</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>På en tydligt gammal gran.</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1634,7 +1634,7 @@
         <v>131025519</v>
       </c>
       <c r="B11" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>131025512</v>
       </c>
       <c r="B12" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>131025518</v>
       </c>
       <c r="B13" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1937,10 +1937,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131025494</v>
+        <v>131025488</v>
       </c>
       <c r="B14" t="n">
-        <v>91828</v>
+        <v>57881</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1948,30 +1948,42 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>464471</v>
+        <v>463958</v>
       </c>
       <c r="R14" t="n">
-        <v>7042462</v>
+        <v>7042484</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2008,7 +2020,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>I granstubbe.</t>
+          <t>Hackspår i stambasen av en levande gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2019,6 +2031,31 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2035,10 +2072,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131025488</v>
+        <v>131024467</v>
       </c>
       <c r="B15" t="n">
-        <v>57881</v>
+        <v>57884</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2046,16 +2083,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2064,24 +2101,16 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>463958</v>
+        <v>464322</v>
       </c>
       <c r="R15" t="n">
-        <v>7042484</v>
+        <v>7042355</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2118,7 +2147,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Hackspår i stambasen av en levande gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2129,48 +2158,23 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM15" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131024467</v>
+        <v>131025463</v>
       </c>
       <c r="B16" t="n">
         <v>57884</v>
@@ -2199,16 +2203,24 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>464322</v>
+        <v>464211</v>
       </c>
       <c r="R16" t="n">
-        <v>7042355</v>
+        <v>7042581</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2245,7 +2257,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2256,26 +2268,51 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131025463</v>
+        <v>131025494</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2283,42 +2320,30 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>464211</v>
+        <v>464471</v>
       </c>
       <c r="R17" t="n">
-        <v>7042581</v>
+        <v>7042462</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2355,7 +2380,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>I granstubbe.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2366,31 +2391,6 @@
       </c>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM17" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2410,7 +2410,7 @@
         <v>131025510</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>131025525</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         <v>131025528</v>
       </c>
       <c r="B24" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3868,7 +3868,7 @@
         <v>131025509</v>
       </c>
       <c r="B31" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>131025522</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4416,10 +4416,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131025489</v>
+        <v>131025465</v>
       </c>
       <c r="B36" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4427,28 +4427,29 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>med soral</t>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N36" t="inlineStr"/>
@@ -4458,10 +4459,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>464035</v>
+        <v>464268</v>
       </c>
       <c r="R36" t="n">
-        <v>7042354</v>
+        <v>7042527</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4498,7 +4499,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Växer på en grov gammal sälg.</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4507,33 +4508,32 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
-      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
       </c>
       <c r="AH36" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>Bark på levande träd</t>
+          <t>Trädstam på levande träd</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>Bark on living woody plant # Salix caprea</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr"/>
@@ -4551,10 +4551,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131025517</v>
+        <v>131024448</v>
       </c>
       <c r="B37" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4562,34 +4562,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>464199</v>
+        <v>464165</v>
       </c>
       <c r="R37" t="n">
-        <v>7042210</v>
+        <v>7042546</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4626,7 +4626,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4641,22 +4641,22 @@
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX37" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131025527</v>
+        <v>131024478</v>
       </c>
       <c r="B38" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4664,34 +4664,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>464174</v>
+        <v>464232</v>
       </c>
       <c r="R38" t="n">
-        <v>7042780</v>
+        <v>7042762</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4728,7 +4728,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>På gammal gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4743,19 +4743,19 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>131025465</v>
+        <v>131025472</v>
       </c>
       <c r="B39" t="n">
         <v>57884</v>
@@ -4788,7 +4788,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N39" t="inlineStr"/>
@@ -4798,10 +4798,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>464268</v>
+        <v>464419</v>
       </c>
       <c r="R39" t="n">
-        <v>7042527</v>
+        <v>7042316</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4838,7 +4838,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="AH39" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -4890,10 +4890,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>131024448</v>
+        <v>131025489</v>
       </c>
       <c r="B40" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4901,34 +4901,41 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>464165</v>
+        <v>464035</v>
       </c>
       <c r="R40" t="n">
-        <v>7042546</v>
+        <v>7042354</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4965,7 +4972,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Växer på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4974,28 +4981,54 @@
       <c r="AE40" t="b">
         <v>0</v>
       </c>
+      <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="b">
         <v>0</v>
+      </c>
+      <c r="AH40" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ40" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK40" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM40" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO40" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AW40" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX40" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>131024478</v>
+        <v>131025517</v>
       </c>
       <c r="B41" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -5003,34 +5036,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>464232</v>
+        <v>464199</v>
       </c>
       <c r="R41" t="n">
-        <v>7042762</v>
+        <v>7042210</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5067,7 +5100,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5082,22 +5115,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>131025472</v>
+        <v>131025527</v>
       </c>
       <c r="B42" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -5105,42 +5138,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>464419</v>
+        <v>464174</v>
       </c>
       <c r="R42" t="n">
-        <v>7042316</v>
+        <v>7042780</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5177,7 +5202,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>På gammal gran.</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5188,31 +5213,6 @@
       </c>
       <c r="AG42" t="b">
         <v>0</v>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
@@ -5670,10 +5670,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131025524</v>
+        <v>131025495</v>
       </c>
       <c r="B47" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5681,23 +5681,19 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -5705,10 +5701,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>464041</v>
+        <v>463986</v>
       </c>
       <c r="R47" t="n">
-        <v>7042631</v>
+        <v>7042522</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5745,7 +5741,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>På gamgran.</t>
+          <t>I stående död klen gran.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5772,10 +5768,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131025511</v>
+        <v>131024506</v>
       </c>
       <c r="B48" t="n">
-        <v>79243</v>
+        <v>91829</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5783,34 +5779,30 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>464483</v>
+        <v>464426</v>
       </c>
       <c r="R48" t="n">
-        <v>7042518</v>
+        <v>7042565</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5845,11 +5837,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>På flera granar.</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
@@ -5862,22 +5849,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131024506</v>
+        <v>131025524</v>
       </c>
       <c r="B49" t="n">
-        <v>91828</v>
+        <v>79244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5885,30 +5872,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>464426</v>
+        <v>464041</v>
       </c>
       <c r="R49" t="n">
-        <v>7042565</v>
+        <v>7042631</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5943,6 +5934,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>På gamgran.</t>
+        </is>
+      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
@@ -5955,22 +5951,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131025495</v>
+        <v>131025511</v>
       </c>
       <c r="B50" t="n">
-        <v>91828</v>
+        <v>79244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5978,19 +5974,23 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>463986</v>
+        <v>464483</v>
       </c>
       <c r="R50" t="n">
-        <v>7042522</v>
+        <v>7042518</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>I stående död klen gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6200,7 +6200,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131025471</v>
+        <v>131025482</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -6243,10 +6243,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>464444</v>
+        <v>464034</v>
       </c>
       <c r="R52" t="n">
-        <v>7042363</v>
+        <v>7042322</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en böjd gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6298,11 +6298,6 @@
       <c r="AH52" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI52" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
@@ -6340,7 +6335,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131025482</v>
+        <v>131025471</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -6383,10 +6378,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>464034</v>
+        <v>464444</v>
       </c>
       <c r="R53" t="n">
-        <v>7042322</v>
+        <v>7042363</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6423,7 +6418,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack, äldre, på stambasen av en böjd gran.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6438,6 +6433,11 @@
       <c r="AH53" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI53" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
         </is>
       </c>
       <c r="AJ53" t="inlineStr">
@@ -6478,7 +6478,7 @@
         <v>131025504</v>
       </c>
       <c r="B54" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>131024501</v>
       </c>
       <c r="B55" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6674,10 +6674,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131024511</v>
+        <v>131024507</v>
       </c>
       <c r="B56" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6705,10 +6705,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>463866</v>
+        <v>464395</v>
       </c>
       <c r="R56" t="n">
-        <v>7042468</v>
+        <v>7042406</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6770,7 +6770,7 @@
         <v>131024510</v>
       </c>
       <c r="B57" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6860,10 +6860,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131024507</v>
+        <v>131024511</v>
       </c>
       <c r="B58" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6891,10 +6891,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>464395</v>
+        <v>463866</v>
       </c>
       <c r="R58" t="n">
-        <v>7042406</v>
+        <v>7042468</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7328,7 +7328,7 @@
         <v>131025508</v>
       </c>
       <c r="B62" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131024460</v>
+        <v>131024450</v>
       </c>
       <c r="B63" t="n">
         <v>57884</v>
@@ -7462,10 +7462,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>464385</v>
+        <v>464273</v>
       </c>
       <c r="R63" t="n">
-        <v>7042401</v>
+        <v>7042500</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131024450</v>
+        <v>131024460</v>
       </c>
       <c r="B64" t="n">
         <v>57884</v>
@@ -7564,10 +7564,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>464273</v>
+        <v>464385</v>
       </c>
       <c r="R64" t="n">
-        <v>7042500</v>
+        <v>7042401</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7631,57 +7631,41 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131024494</v>
+        <v>131024509</v>
       </c>
       <c r="B65" t="n">
-        <v>57988</v>
+        <v>91829</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>103031</v>
+        <v>5432</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Lavskrika</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Perisoreus infaustus</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr"/>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>464304</v>
+        <v>464214</v>
       </c>
       <c r="R65" t="n">
-        <v>7042379</v>
+        <v>7042282</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7740,10 +7724,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131024509</v>
+        <v>131024456</v>
       </c>
       <c r="B66" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7751,19 +7735,23 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -7771,10 +7759,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>464214</v>
+        <v>464439</v>
       </c>
       <c r="R66" t="n">
-        <v>7042282</v>
+        <v>7042505</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7807,6 +7795,11 @@
       <c r="AA66" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7833,27 +7826,27 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>131024456</v>
+        <v>131024494</v>
       </c>
       <c r="B67" t="n">
-        <v>57884</v>
+        <v>57988</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>103031</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lavskrika</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Perisoreus infaustus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -7861,17 +7854,29 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>464439</v>
+        <v>464304</v>
       </c>
       <c r="R67" t="n">
-        <v>7042505</v>
+        <v>7042379</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7904,11 +7909,6 @@
       <c r="AA67" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7935,10 +7935,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131025516</v>
+        <v>131025479</v>
       </c>
       <c r="B68" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7946,34 +7946,42 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>464319</v>
+        <v>464380</v>
       </c>
       <c r="R68" t="n">
-        <v>7042262</v>
+        <v>7042291</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8010,7 +8018,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD 20 cm).</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8021,6 +8029,31 @@
       </c>
       <c r="AG68" t="b">
         <v>0</v>
+      </c>
+      <c r="AH68" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ68" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK68" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM68" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO68" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -8037,10 +8070,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131025479</v>
+        <v>131025516</v>
       </c>
       <c r="B69" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8048,42 +8081,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>464380</v>
+        <v>464319</v>
       </c>
       <c r="R69" t="n">
-        <v>7042291</v>
+        <v>7042262</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8120,7 +8145,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD 20 cm).</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8131,31 +8156,6 @@
       </c>
       <c r="AG69" t="b">
         <v>0</v>
-      </c>
-      <c r="AH69" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ69" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK69" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM69" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO69" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
@@ -8514,7 +8514,7 @@
         <v>131025521</v>
       </c>
       <c r="B73" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -8952,10 +8952,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131024470</v>
+        <v>131025492</v>
       </c>
       <c r="B77" t="n">
-        <v>57884</v>
+        <v>91805</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8963,34 +8963,41 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>464325</v>
+        <v>464400</v>
       </c>
       <c r="R77" t="n">
-        <v>7042334</v>
+        <v>7042294</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9027,7 +9034,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9036,28 +9043,54 @@
       <c r="AE77" t="b">
         <v>0</v>
       </c>
+      <c r="AF77" t="inlineStr"/>
       <c r="AG77" t="b">
         <v>0</v>
+      </c>
+      <c r="AH77" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ77" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK77" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM77" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO77" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131024461</v>
+        <v>131025490</v>
       </c>
       <c r="B78" t="n">
-        <v>57884</v>
+        <v>80350</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9065,34 +9098,41 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>100109</v>
+        <v>2081</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>med soral</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>464377</v>
+        <v>463994</v>
       </c>
       <c r="R78" t="n">
-        <v>7042402</v>
+        <v>7042378</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9129,7 +9169,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9138,28 +9178,54 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
+      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
+      </c>
+      <c r="AH78" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ78" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK78" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AM78" t="inlineStr">
+        <is>
+          <t>Bark på levande träd</t>
+        </is>
+      </c>
+      <c r="AO78" t="inlineStr">
+        <is>
+          <t>Bark on living woody plant # Salix caprea</t>
+        </is>
       </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131025523</v>
+        <v>131025503</v>
       </c>
       <c r="B79" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9191,10 +9257,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>463999</v>
+        <v>464158</v>
       </c>
       <c r="R79" t="n">
-        <v>7042559</v>
+        <v>7042548</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9231,7 +9297,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9258,10 +9324,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131025503</v>
+        <v>131025523</v>
       </c>
       <c r="B80" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9293,10 +9359,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>464158</v>
+        <v>463999</v>
       </c>
       <c r="R80" t="n">
-        <v>7042548</v>
+        <v>7042559</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9333,7 +9399,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9360,10 +9426,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131025492</v>
+        <v>131024470</v>
       </c>
       <c r="B81" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9371,41 +9437,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>464400</v>
+        <v>464325</v>
       </c>
       <c r="R81" t="n">
-        <v>7042294</v>
+        <v>7042334</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9442,7 +9501,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9451,54 +9510,28 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
-      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
-      </c>
-      <c r="AH81" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ81" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK81" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM81" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO81" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131025490</v>
+        <v>131024461</v>
       </c>
       <c r="B82" t="n">
-        <v>80349</v>
+        <v>57884</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9506,41 +9539,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>463994</v>
+        <v>464377</v>
       </c>
       <c r="R82" t="n">
-        <v>7042378</v>
+        <v>7042402</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9577,7 +9603,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9586,54 +9612,28 @@
       <c r="AE82" t="b">
         <v>0</v>
       </c>
-      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
-      </c>
-      <c r="AH82" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ82" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK82" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM82" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO82" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131024505</v>
+        <v>131025475</v>
       </c>
       <c r="B83" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9641,30 +9641,42 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>464276</v>
+        <v>464393</v>
       </c>
       <c r="R83" t="n">
-        <v>7042457</v>
+        <v>7042284</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9699,6 +9711,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på gran.</t>
+        </is>
+      </c>
       <c r="AD83" t="b">
         <v>0</v>
       </c>
@@ -9707,26 +9724,51 @@
       </c>
       <c r="AG83" t="b">
         <v>0</v>
+      </c>
+      <c r="AH83" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ83" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK83" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM83" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO83" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131024508</v>
+        <v>131024473</v>
       </c>
       <c r="B84" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -9734,19 +9776,23 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
@@ -9754,10 +9800,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>464083</v>
+        <v>464305</v>
       </c>
       <c r="R84" t="n">
-        <v>7042298</v>
+        <v>7042334</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9790,6 +9836,11 @@
       <c r="AA84" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9816,7 +9867,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131025475</v>
+        <v>131025477</v>
       </c>
       <c r="B85" t="n">
         <v>57884</v>
@@ -9859,10 +9910,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>464393</v>
+        <v>464374</v>
       </c>
       <c r="R85" t="n">
-        <v>7042284</v>
+        <v>7042300</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9899,7 +9950,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9951,10 +10002,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131024473</v>
+        <v>131024508</v>
       </c>
       <c r="B86" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -9962,23 +10013,19 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
@@ -9986,10 +10033,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>464305</v>
+        <v>464083</v>
       </c>
       <c r="R86" t="n">
-        <v>7042334</v>
+        <v>7042298</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10022,11 +10069,6 @@
       <c r="AA86" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10053,10 +10095,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131025477</v>
+        <v>131024505</v>
       </c>
       <c r="B87" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -10064,42 +10106,30 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>464374</v>
+        <v>464276</v>
       </c>
       <c r="R87" t="n">
-        <v>7042300</v>
+        <v>7042457</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10134,11 +10164,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på en gran.</t>
-        </is>
-      </c>
       <c r="AD87" t="b">
         <v>0</v>
       </c>
@@ -10147,41 +10172,16 @@
       </c>
       <c r="AG87" t="b">
         <v>0</v>
-      </c>
-      <c r="AH87" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ87" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK87" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM87" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO87" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY87" t="inlineStr"/>
@@ -10191,7 +10191,7 @@
         <v>131025520</v>
       </c>
       <c r="B88" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -10290,7 +10290,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131024475</v>
+        <v>131024455</v>
       </c>
       <c r="B89" t="n">
         <v>57884</v>
@@ -10325,10 +10325,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>464272</v>
+        <v>464454</v>
       </c>
       <c r="R89" t="n">
-        <v>7042273</v>
+        <v>7042523</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10392,10 +10392,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131024455</v>
+        <v>131025496</v>
       </c>
       <c r="B90" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -10403,34 +10403,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>464454</v>
+        <v>464485</v>
       </c>
       <c r="R90" t="n">
-        <v>7042523</v>
+        <v>7042454</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10467,7 +10467,7 @@
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10482,22 +10482,22 @@
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131024466</v>
+        <v>131025515</v>
       </c>
       <c r="B91" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10505,34 +10505,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>464319</v>
+        <v>464430</v>
       </c>
       <c r="R91" t="n">
-        <v>7042385</v>
+        <v>7042344</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10584,22 +10584,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131025496</v>
+        <v>131024475</v>
       </c>
       <c r="B92" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -10607,34 +10607,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>464485</v>
+        <v>464272</v>
       </c>
       <c r="R92" t="n">
-        <v>7042454</v>
+        <v>7042273</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10686,22 +10686,22 @@
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>131025515</v>
+        <v>131024466</v>
       </c>
       <c r="B93" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -10709,34 +10709,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>464430</v>
+        <v>464319</v>
       </c>
       <c r="R93" t="n">
-        <v>7042344</v>
+        <v>7042385</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10788,12 +10788,12 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY93" t="inlineStr"/>
@@ -10943,7 +10943,7 @@
         <v>131024512</v>
       </c>
       <c r="B95" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>131025507</v>
       </c>
       <c r="B96" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131024452</v>
+        <v>131025484</v>
       </c>
       <c r="B97" t="n">
         <v>57884</v>
@@ -11164,16 +11164,24 @@
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>464339</v>
+        <v>464099</v>
       </c>
       <c r="R97" t="n">
-        <v>7042474</v>
+        <v>7042646</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11210,7 +11218,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, tydliga på gran.</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11221,23 +11229,48 @@
       </c>
       <c r="AG97" t="b">
         <v>0</v>
+      </c>
+      <c r="AH97" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ97" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK97" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM97" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO97" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131025484</v>
+        <v>131024452</v>
       </c>
       <c r="B98" t="n">
         <v>57884</v>
@@ -11266,24 +11299,16 @@
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>464099</v>
+        <v>464339</v>
       </c>
       <c r="R98" t="n">
-        <v>7042646</v>
+        <v>7042474</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11320,7 +11345,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, tydliga på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11331,41 +11356,16 @@
       </c>
       <c r="AG98" t="b">
         <v>0</v>
-      </c>
-      <c r="AH98" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ98" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK98" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM98" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO98" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>

--- a/artfynd/A 62205-2025 artfynd.xlsx
+++ b/artfynd/A 62205-2025 artfynd.xlsx
@@ -1190,7 +1190,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131024469</v>
+        <v>131025467</v>
       </c>
       <c r="B7" t="n">
         <v>57884</v>
@@ -1219,16 +1219,24 @@
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>464325</v>
+        <v>464403</v>
       </c>
       <c r="R7" t="n">
-        <v>7042323</v>
+        <v>7042578</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1265,7 +1273,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack, färska och äldre, tydliga på en gran.</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1276,23 +1284,48 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131025467</v>
+        <v>131024469</v>
       </c>
       <c r="B8" t="n">
         <v>57884</v>
@@ -1321,24 +1354,16 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>464403</v>
+        <v>464325</v>
       </c>
       <c r="R8" t="n">
-        <v>7042578</v>
+        <v>7042323</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1375,7 +1400,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, tydliga på en gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1386,51 +1411,26 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM8" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131025502</v>
+        <v>131025488</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1438,34 +1438,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>464177</v>
+        <v>463958</v>
       </c>
       <c r="R9" t="n">
-        <v>7042606</v>
+        <v>7042484</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1502,7 +1510,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>Hackspår i stambasen av en levande gran.</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1513,6 +1521,31 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1631,7 +1664,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131025519</v>
+        <v>131025502</v>
       </c>
       <c r="B11" t="n">
         <v>79244</v>
@@ -1666,10 +1699,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>464076</v>
+        <v>464177</v>
       </c>
       <c r="R11" t="n">
-        <v>7042281</v>
+        <v>7042606</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1706,7 +1739,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1733,7 +1766,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131025512</v>
+        <v>131025519</v>
       </c>
       <c r="B12" t="n">
         <v>79244</v>
@@ -1768,10 +1801,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>464451</v>
+        <v>464076</v>
       </c>
       <c r="R12" t="n">
-        <v>7042487</v>
+        <v>7042281</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1808,7 +1841,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>På gran.</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1835,7 +1868,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131025518</v>
+        <v>131025512</v>
       </c>
       <c r="B13" t="n">
         <v>79244</v>
@@ -1870,10 +1903,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>464161</v>
+        <v>464451</v>
       </c>
       <c r="R13" t="n">
-        <v>7042247</v>
+        <v>7042487</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -1937,10 +1970,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131025488</v>
+        <v>131025518</v>
       </c>
       <c r="B14" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1948,42 +1981,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>463958</v>
+        <v>464161</v>
       </c>
       <c r="R14" t="n">
-        <v>7042484</v>
+        <v>7042247</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2020,7 +2045,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Hackspår i stambasen av en levande gran.</t>
+          <t>På gran.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2031,31 +2056,6 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2072,7 +2072,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131024467</v>
+        <v>131025463</v>
       </c>
       <c r="B15" t="n">
         <v>57884</v>
@@ -2101,16 +2101,24 @@
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>464322</v>
+        <v>464211</v>
       </c>
       <c r="R15" t="n">
-        <v>7042355</v>
+        <v>7042581</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2147,7 +2155,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2158,26 +2166,51 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX15" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131025463</v>
+        <v>131025494</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2185,42 +2218,30 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>464211</v>
+        <v>464471</v>
       </c>
       <c r="R16" t="n">
-        <v>7042581</v>
+        <v>7042462</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2257,7 +2278,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Ringhack, färska och äldre, på stambasen av en gran.</t>
+          <t>I granstubbe.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2268,31 +2289,6 @@
       </c>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM16" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2309,10 +2305,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131025494</v>
+        <v>131024467</v>
       </c>
       <c r="B17" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2320,30 +2316,34 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>464471</v>
+        <v>464322</v>
       </c>
       <c r="R17" t="n">
-        <v>7042462</v>
+        <v>7042355</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2380,7 +2380,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>I granstubbe.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2395,12 +2395,12 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
@@ -3052,10 +3052,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131025528</v>
+        <v>131024476</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3063,34 +3063,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>464199</v>
+        <v>464255</v>
       </c>
       <c r="R24" t="n">
-        <v>7042793</v>
+        <v>7042273</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>Gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3142,19 +3142,19 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131024476</v>
+        <v>131025474</v>
       </c>
       <c r="B25" t="n">
         <v>57884</v>
@@ -3183,16 +3183,24 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>464255</v>
+        <v>464391</v>
       </c>
       <c r="R25" t="n">
-        <v>7042273</v>
+        <v>7042299</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3229,7 +3237,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3240,23 +3248,48 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>131025474</v>
+        <v>131025470</v>
       </c>
       <c r="B26" t="n">
         <v>57884</v>
@@ -3299,10 +3332,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>464391</v>
+        <v>464484</v>
       </c>
       <c r="R26" t="n">
-        <v>7042299</v>
+        <v>7042508</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3339,7 +3372,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3391,7 +3424,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>131025470</v>
+        <v>131024449</v>
       </c>
       <c r="B27" t="n">
         <v>57884</v>
@@ -3420,24 +3453,16 @@
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>464484</v>
+        <v>464183</v>
       </c>
       <c r="R27" t="n">
-        <v>7042508</v>
+        <v>7042531</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3474,7 +3499,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3485,48 +3510,23 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AH27" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM27" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131024449</v>
+        <v>131024474</v>
       </c>
       <c r="B28" t="n">
         <v>57884</v>
@@ -3561,10 +3561,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>464183</v>
+        <v>464280</v>
       </c>
       <c r="R28" t="n">
-        <v>7042531</v>
+        <v>7042322</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>Ringhack</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3628,7 +3628,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131024474</v>
+        <v>131025485</v>
       </c>
       <c r="B29" t="n">
         <v>57884</v>
@@ -3657,16 +3657,24 @@
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>464280</v>
+        <v>464186</v>
       </c>
       <c r="R29" t="n">
-        <v>7042322</v>
+        <v>7042779</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3703,7 +3711,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på stambasen av en gran.</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3714,26 +3722,51 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131025485</v>
+        <v>131025528</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3741,42 +3774,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>464186</v>
+        <v>464199</v>
       </c>
       <c r="R30" t="n">
-        <v>7042779</v>
+        <v>7042793</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3813,7 +3838,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en gran.</t>
+          <t>Gran.</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3824,31 +3849,6 @@
       </c>
       <c r="AG30" t="b">
         <v>0</v>
-      </c>
-      <c r="AH30" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK30" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM30" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO30" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
@@ -5670,10 +5670,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>131025495</v>
+        <v>131025524</v>
       </c>
       <c r="B47" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5681,19 +5681,23 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
@@ -5701,10 +5705,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>463986</v>
+        <v>464041</v>
       </c>
       <c r="R47" t="n">
-        <v>7042522</v>
+        <v>7042631</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5741,7 +5745,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>I stående död klen gran.</t>
+          <t>På gamgran.</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5768,10 +5772,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>131024506</v>
+        <v>131025511</v>
       </c>
       <c r="B48" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5779,30 +5783,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>464426</v>
+        <v>464483</v>
       </c>
       <c r="R48" t="n">
-        <v>7042565</v>
+        <v>7042518</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5837,6 +5845,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>På flera granar.</t>
+        </is>
+      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
@@ -5849,22 +5862,22 @@
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>131025524</v>
+        <v>131024506</v>
       </c>
       <c r="B49" t="n">
-        <v>79244</v>
+        <v>91829</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5872,34 +5885,30 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>464041</v>
+        <v>464426</v>
       </c>
       <c r="R49" t="n">
-        <v>7042631</v>
+        <v>7042565</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5934,11 +5943,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>På gamgran.</t>
-        </is>
-      </c>
       <c r="AD49" t="b">
         <v>0</v>
       </c>
@@ -5951,22 +5955,22 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131025511</v>
+        <v>131025495</v>
       </c>
       <c r="B50" t="n">
-        <v>79244</v>
+        <v>91829</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5974,23 +5978,19 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
@@ -5998,10 +5998,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>464483</v>
+        <v>463986</v>
       </c>
       <c r="R50" t="n">
-        <v>7042518</v>
+        <v>7042522</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6038,7 +6038,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>I stående död klen gran.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6200,7 +6200,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>131025482</v>
+        <v>131025471</v>
       </c>
       <c r="B52" t="n">
         <v>57884</v>
@@ -6243,10 +6243,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>464034</v>
+        <v>464444</v>
       </c>
       <c r="R52" t="n">
-        <v>7042322</v>
+        <v>7042363</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack, äldre, på stambasen av en böjd gran.</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6298,6 +6298,11 @@
       <c r="AH52" t="inlineStr">
         <is>
           <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
         </is>
       </c>
       <c r="AJ52" t="inlineStr">
@@ -6335,7 +6340,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>131025471</v>
+        <v>131025482</v>
       </c>
       <c r="B53" t="n">
         <v>57884</v>
@@ -6378,10 +6383,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>464444</v>
+        <v>464034</v>
       </c>
       <c r="R53" t="n">
-        <v>7042363</v>
+        <v>7042322</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6418,7 +6423,7 @@
       </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en böjd gran.</t>
+          <t>Ringhack, äldre, på en gran.</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6433,11 +6438,6 @@
       <c r="AH53" t="inlineStr">
         <is>
           <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI53" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
         </is>
       </c>
       <c r="AJ53" t="inlineStr">
@@ -6475,10 +6475,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>131025504</v>
+        <v>131024501</v>
       </c>
       <c r="B54" t="n">
-        <v>79244</v>
+        <v>91805</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -6486,34 +6486,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>464204</v>
+        <v>464070</v>
       </c>
       <c r="R54" t="n">
-        <v>7042559</v>
+        <v>7042517</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6548,11 +6548,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>På gran.</t>
-        </is>
-      </c>
       <c r="AD54" t="b">
         <v>0</v>
       </c>
@@ -6565,22 +6560,22 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>131024501</v>
+        <v>131024510</v>
       </c>
       <c r="B55" t="n">
-        <v>91805</v>
+        <v>91829</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -6588,23 +6583,19 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
@@ -6612,10 +6603,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>464070</v>
+        <v>464031</v>
       </c>
       <c r="R55" t="n">
-        <v>7042517</v>
+        <v>7042403</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6674,10 +6665,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>131024507</v>
+        <v>131025504</v>
       </c>
       <c r="B56" t="n">
-        <v>91829</v>
+        <v>79244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -6685,30 +6676,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr"/>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>464395</v>
+        <v>464204</v>
       </c>
       <c r="R56" t="n">
-        <v>7042406</v>
+        <v>7042559</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6743,6 +6738,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>På gran.</t>
+        </is>
+      </c>
       <c r="AD56" t="b">
         <v>0</v>
       </c>
@@ -6755,19 +6755,19 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>131024510</v>
+        <v>131024511</v>
       </c>
       <c r="B57" t="n">
         <v>91829</v>
@@ -6798,10 +6798,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>464031</v>
+        <v>463866</v>
       </c>
       <c r="R57" t="n">
-        <v>7042403</v>
+        <v>7042468</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6860,7 +6860,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>131024511</v>
+        <v>131024507</v>
       </c>
       <c r="B58" t="n">
         <v>91829</v>
@@ -6891,10 +6891,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>463866</v>
+        <v>464395</v>
       </c>
       <c r="R58" t="n">
-        <v>7042468</v>
+        <v>7042406</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7427,7 +7427,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>131024450</v>
+        <v>131024460</v>
       </c>
       <c r="B63" t="n">
         <v>57884</v>
@@ -7462,10 +7462,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>464273</v>
+        <v>464385</v>
       </c>
       <c r="R63" t="n">
-        <v>7042500</v>
+        <v>7042401</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7529,7 +7529,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>131024460</v>
+        <v>131024450</v>
       </c>
       <c r="B64" t="n">
         <v>57884</v>
@@ -7564,10 +7564,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>464385</v>
+        <v>464273</v>
       </c>
       <c r="R64" t="n">
-        <v>7042401</v>
+        <v>7042500</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7631,10 +7631,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>131024509</v>
+        <v>131024456</v>
       </c>
       <c r="B65" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7642,19 +7642,23 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
@@ -7662,10 +7666,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>464214</v>
+        <v>464439</v>
       </c>
       <c r="R65" t="n">
-        <v>7042282</v>
+        <v>7042505</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7698,6 +7702,11 @@
       <c r="AA65" t="inlineStr">
         <is>
           <t>2026-02-03</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7724,10 +7733,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>131024456</v>
+        <v>131024509</v>
       </c>
       <c r="B66" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7735,23 +7744,19 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
@@ -7759,10 +7764,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>464439</v>
+        <v>464214</v>
       </c>
       <c r="R66" t="n">
-        <v>7042505</v>
+        <v>7042282</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7795,11 +7800,6 @@
       <c r="AA66" t="inlineStr">
         <is>
           <t>2026-02-03</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7935,10 +7935,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>131025479</v>
+        <v>131025516</v>
       </c>
       <c r="B68" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -7946,42 +7946,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>464380</v>
+        <v>464319</v>
       </c>
       <c r="R68" t="n">
-        <v>7042291</v>
+        <v>7042262</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8018,7 +8010,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD 20 cm).</t>
+          <t>Enstaka på gran.</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8029,31 +8021,6 @@
       </c>
       <c r="AG68" t="b">
         <v>0</v>
-      </c>
-      <c r="AH68" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ68" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK68" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM68" t="inlineStr">
-        <is>
-          <t>Stående död trädstam/högstubbe</t>
-        </is>
-      </c>
-      <c r="AO68" t="inlineStr">
-        <is>
-          <t>Standing dead tree/snags # Picea abies</t>
-        </is>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
@@ -8070,10 +8037,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>131025516</v>
+        <v>131025479</v>
       </c>
       <c r="B69" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8081,34 +8048,42 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>464319</v>
+        <v>464380</v>
       </c>
       <c r="R69" t="n">
-        <v>7042262</v>
+        <v>7042291</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8145,7 +8120,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Enstaka på gran.</t>
+          <t>Ringhack, äldre, på stambasen av en stående död gran (BHD 20 cm).</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8156,6 +8131,31 @@
       </c>
       <c r="AG69" t="b">
         <v>0</v>
+      </c>
+      <c r="AH69" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ69" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK69" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM69" t="inlineStr">
+        <is>
+          <t>Stående död trädstam/högstubbe</t>
+        </is>
+      </c>
+      <c r="AO69" t="inlineStr">
+        <is>
+          <t>Standing dead tree/snags # Picea abies</t>
+        </is>
       </c>
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
@@ -8952,10 +8952,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>131025492</v>
+        <v>131025490</v>
       </c>
       <c r="B77" t="n">
-        <v>91805</v>
+        <v>80350</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -8963,28 +8963,28 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
-          <t>teleomorf</t>
+          <t>med soral</t>
         </is>
       </c>
       <c r="N77" t="inlineStr"/>
@@ -8994,10 +8994,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>464400</v>
+        <v>463994</v>
       </c>
       <c r="R77" t="n">
-        <v>7042294</v>
+        <v>7042378</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9034,7 +9034,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>Flera fruktkroppar i en stående döende gran.</t>
+          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9054,22 +9054,22 @@
       </c>
       <c r="AJ77" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK77" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Bark på levande träd</t>
         </is>
       </c>
       <c r="AO77" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Bark on living woody plant # Salix caprea</t>
         </is>
       </c>
       <c r="AT77" t="inlineStr"/>
@@ -9087,10 +9087,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>131025490</v>
+        <v>131024470</v>
       </c>
       <c r="B78" t="n">
-        <v>80350</v>
+        <v>57884</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -9098,41 +9098,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>2081</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>med soral</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>463994</v>
+        <v>464325</v>
       </c>
       <c r="R78" t="n">
-        <v>7042378</v>
+        <v>7042334</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9169,7 +9162,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>Rikligt med skrovellav på en grov gammal sälg.</t>
+          <t>Ringhack färska och äldre</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9178,54 +9171,28 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
-      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
-      </c>
-      <c r="AH78" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ78" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK78" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AM78" t="inlineStr">
-        <is>
-          <t>Bark på levande träd</t>
-        </is>
-      </c>
-      <c r="AO78" t="inlineStr">
-        <is>
-          <t>Bark on living woody plant # Salix caprea</t>
-        </is>
       </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>131025503</v>
+        <v>131024461</v>
       </c>
       <c r="B79" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -9233,34 +9200,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>464158</v>
+        <v>464377</v>
       </c>
       <c r="R79" t="n">
-        <v>7042548</v>
+        <v>7042402</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9297,7 +9264,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>Långväxta bålar på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9312,22 +9279,22 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>131025523</v>
+        <v>131025492</v>
       </c>
       <c r="B80" t="n">
-        <v>79244</v>
+        <v>91805</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -9335,34 +9302,41 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>463999</v>
+        <v>464400</v>
       </c>
       <c r="R80" t="n">
-        <v>7042559</v>
+        <v>7042294</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9399,7 +9373,7 @@
       </c>
       <c r="AC80" t="inlineStr">
         <is>
-          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
+          <t>Flera fruktkroppar i en stående döende gran.</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9408,8 +9382,34 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
+      </c>
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ80" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK80" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM80" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO80" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
@@ -9426,10 +9426,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>131024470</v>
+        <v>131025523</v>
       </c>
       <c r="B81" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -9437,34 +9437,34 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>464325</v>
+        <v>463999</v>
       </c>
       <c r="R81" t="n">
-        <v>7042334</v>
+        <v>7042559</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>Ringhack färska och äldre</t>
+          <t>Långväxta bålar på flera granar I gles  gammal granskog.</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9516,22 +9516,22 @@
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>131024461</v>
+        <v>131025503</v>
       </c>
       <c r="B82" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -9539,34 +9539,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>464377</v>
+        <v>464158</v>
       </c>
       <c r="R82" t="n">
-        <v>7042402</v>
+        <v>7042548</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9603,7 +9603,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Långväxta bålar på gran.</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9618,22 +9618,22 @@
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>131025475</v>
+        <v>131024505</v>
       </c>
       <c r="B83" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -9641,42 +9641,30 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>464393</v>
+        <v>464276</v>
       </c>
       <c r="R83" t="n">
-        <v>7042284</v>
+        <v>7042457</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9711,11 +9699,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>Ringhack, äldre, på gran.</t>
-        </is>
-      </c>
       <c r="AD83" t="b">
         <v>0</v>
       </c>
@@ -9724,48 +9707,23 @@
       </c>
       <c r="AG83" t="b">
         <v>0</v>
-      </c>
-      <c r="AH83" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ83" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK83" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM83" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO83" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>131024473</v>
+        <v>131025475</v>
       </c>
       <c r="B84" t="n">
         <v>57884</v>
@@ -9794,16 +9752,24 @@
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>464305</v>
+        <v>464393</v>
       </c>
       <c r="R84" t="n">
-        <v>7042334</v>
+        <v>7042284</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9840,7 +9806,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, på gran.</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9851,23 +9817,48 @@
       </c>
       <c r="AG84" t="b">
         <v>0</v>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ84" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK84" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM84" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO84" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>131025477</v>
+        <v>131024473</v>
       </c>
       <c r="B85" t="n">
         <v>57884</v>
@@ -9896,24 +9887,16 @@
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>464374</v>
+        <v>464305</v>
       </c>
       <c r="R85" t="n">
-        <v>7042300</v>
+        <v>7042334</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9950,7 +9933,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, på en gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9961,51 +9944,26 @@
       </c>
       <c r="AG85" t="b">
         <v>0</v>
-      </c>
-      <c r="AH85" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ85" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK85" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM85" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO85" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>131024508</v>
+        <v>131025477</v>
       </c>
       <c r="B86" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -10013,30 +9971,42 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>464083</v>
+        <v>464374</v>
       </c>
       <c r="R86" t="n">
-        <v>7042298</v>
+        <v>7042300</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10071,6 +10041,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>Ringhack, äldre, på en gran.</t>
+        </is>
+      </c>
       <c r="AD86" t="b">
         <v>0</v>
       </c>
@@ -10079,23 +10054,48 @@
       </c>
       <c r="AG86" t="b">
         <v>0</v>
+      </c>
+      <c r="AH86" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ86" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK86" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM86" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>131024505</v>
+        <v>131024508</v>
       </c>
       <c r="B87" t="n">
         <v>91829</v>
@@ -10126,10 +10126,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>464276</v>
+        <v>464083</v>
       </c>
       <c r="R87" t="n">
-        <v>7042457</v>
+        <v>7042298</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10290,10 +10290,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>131024455</v>
+        <v>131025496</v>
       </c>
       <c r="B89" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -10301,34 +10301,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>464454</v>
+        <v>464485</v>
       </c>
       <c r="R89" t="n">
-        <v>7042523</v>
+        <v>7042454</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10365,7 +10365,7 @@
       </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>På flera granar.</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10380,19 +10380,19 @@
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>131025496</v>
+        <v>131025515</v>
       </c>
       <c r="B90" t="n">
         <v>79244</v>
@@ -10427,10 +10427,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>464485</v>
+        <v>464430</v>
       </c>
       <c r="R90" t="n">
-        <v>7042454</v>
+        <v>7042344</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10494,10 +10494,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>131025515</v>
+        <v>131024475</v>
       </c>
       <c r="B91" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -10505,34 +10505,34 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>464430</v>
+        <v>464272</v>
       </c>
       <c r="R91" t="n">
-        <v>7042344</v>
+        <v>7042273</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>På flera granar.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10584,19 +10584,19 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>131024475</v>
+        <v>131024455</v>
       </c>
       <c r="B92" t="n">
         <v>57884</v>
@@ -10631,10 +10631,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>464272</v>
+        <v>464454</v>
       </c>
       <c r="R92" t="n">
-        <v>7042273</v>
+        <v>7042523</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10800,10 +10800,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>131025473</v>
+        <v>131024512</v>
       </c>
       <c r="B94" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10811,42 +10811,30 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>464413</v>
+        <v>464059</v>
       </c>
       <c r="R94" t="n">
-        <v>7042312</v>
+        <v>7042514</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10881,11 +10869,6 @@
           <t>2026-02-03</t>
         </is>
       </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
-        </is>
-      </c>
       <c r="AD94" t="b">
         <v>0</v>
       </c>
@@ -10894,56 +10877,26 @@
       </c>
       <c r="AG94" t="b">
         <v>0</v>
-      </c>
-      <c r="AH94" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AI94" t="inlineStr">
-        <is>
-          <t>Gammal granskog.</t>
-        </is>
-      </c>
-      <c r="AJ94" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK94" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM94" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO94" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>131024512</v>
+        <v>131025473</v>
       </c>
       <c r="B95" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -10951,30 +10904,42 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>464059</v>
+        <v>464413</v>
       </c>
       <c r="R95" t="n">
-        <v>7042514</v>
+        <v>7042312</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11009,6 +10974,11 @@
           <t>2026-02-03</t>
         </is>
       </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>Ringhack, färska och äldre, längs ett par meter på en gran med spår av rikligt kåda-flöde.</t>
+        </is>
+      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
@@ -11017,16 +10987,46 @@
       </c>
       <c r="AG95" t="b">
         <v>0</v>
+      </c>
+      <c r="AH95" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AI95" t="inlineStr">
+        <is>
+          <t>Gammal granskog.</t>
+        </is>
+      </c>
+      <c r="AJ95" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK95" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM95" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO95" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY95" t="inlineStr"/>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>131025484</v>
+        <v>131024452</v>
       </c>
       <c r="B97" t="n">
         <v>57884</v>
@@ -11164,24 +11164,16 @@
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Sjöarsjön Nordöst, Jmt</t>
+          <t>Sjöarsjön N, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>464099</v>
+        <v>464339</v>
       </c>
       <c r="R97" t="n">
-        <v>7042646</v>
+        <v>7042474</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11218,7 +11210,7 @@
       </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>Ringhack, äldre, tydliga på gran.</t>
+          <t>Ringhack äldre</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11229,48 +11221,23 @@
       </c>
       <c r="AG97" t="b">
         <v>0</v>
-      </c>
-      <c r="AH97" t="inlineStr">
-        <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ97" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK97" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AM97" t="inlineStr">
-        <is>
-          <t>Trädstam på levande träd</t>
-        </is>
-      </c>
-      <c r="AO97" t="inlineStr">
-        <is>
-          <t>Stem on living tree # Picea abies</t>
-        </is>
       </c>
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Kristian Zackrisson</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>131024452</v>
+        <v>131025484</v>
       </c>
       <c r="B98" t="n">
         <v>57884</v>
@@ -11299,16 +11266,24 @@
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
-          <t>Sjöarsjön N, Jmt</t>
+          <t>Sjöarsjön Nordöst, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>464339</v>
+        <v>464099</v>
       </c>
       <c r="R98" t="n">
-        <v>7042474</v>
+        <v>7042646</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11345,7 +11320,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>Ringhack äldre</t>
+          <t>Ringhack, äldre, tydliga på gran.</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11356,16 +11331,41 @@
       </c>
       <c r="AG98" t="b">
         <v>0</v>
+      </c>
+      <c r="AH98" t="inlineStr">
+        <is>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ98" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK98" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AM98" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
+      <c r="AO98" t="inlineStr">
+        <is>
+          <t>Stem on living tree # Picea abies</t>
+        </is>
       </c>
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Kristian Zackrisson</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr"/>
